--- a/andamento_nazionale.xlsx
+++ b/andamento_nazionale.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Grafici log" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$A$1:$P$78</definedName>
+    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$A$1:$P$79</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="142">
   <si>
     <t>data</t>
   </si>
@@ -473,6 +473,12 @@
   <si>
     <t>2020-05-10T17:00:00</t>
   </si>
+  <si>
+    <t>2020-05-11T17:00:00</t>
+  </si>
+  <si>
+    <t>tamponi giornalieri</t>
+  </si>
 </sst>
 </file>
 
@@ -617,9 +623,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -850,16 +856,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$C$2:$C$78</c:f>
+              <c:f>'dati PCM-DPC'!$C$2:$C$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1090,6 +1099,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>13618</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1344,9 +1356,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1577,16 +1589,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$78</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -1817,6 +1832,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>219070</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>219814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2071,9 +2089,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -2304,16 +2322,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$78</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -2544,6 +2565,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2565912</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2606652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2828,9 +2852,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3061,16 +3085,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$78</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3301,6 +3328,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>105186</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>106587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3340,9 +3370,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3573,16 +3603,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$78</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -3813,6 +3846,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>30560</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>30739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4068,8 +4104,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4086,22 +4123,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -4332,16 +4367,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$Q$2:$Q$78</c:f>
+              <c:f>'dati PCM-DPC'!$Q$2:$Q$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4572,11 +4610,13 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3B3F-4741-81A3-74DA38E1BB29}"/>
@@ -4591,10 +4631,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1105892991"/>
         <c:axId val="1105888415"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1105892991"/>
         <c:scaling>
@@ -4795,8 +4835,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4813,22 +4854,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5059,16 +5098,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$R$2:$R$78</c:f>
+              <c:f>'dati PCM-DPC'!$R$2:$R$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5299,11 +5341,13 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2155</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EC82-4494-B887-65845C934BC6}"/>
@@ -5318,10 +5362,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="1562117039"/>
         <c:axId val="1562127855"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="1562117039"/>
         <c:scaling>
@@ -5489,6 +5533,737 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dati PCM-DPC'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>tamponi giornalieri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>2020-02-24T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-02-25T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020-02-26T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020-02-27T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-28T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-29T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-03-01T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020-03-02T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-03-03T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-03-04T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-03-05T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-03-06T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-03-07T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-03-08T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-03-09T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-03-10T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020-03-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020-03-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020-03-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020-03-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-03-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-03-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-03-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-03-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020-03-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020-03-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020-03-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020-03-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020-03-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020-03-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020-03-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-03-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-03-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020-03-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-03-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-03-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020-03-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-04-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2020-04-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2020-04-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020-04-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2020-04-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2020-04-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2020-04-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2020-04-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2020-04-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2020-04-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2020-04-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2020-04-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2020-04-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2020-04-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2020-04-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2020-04-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2020-04-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2020-04-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2020-04-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2020-04-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2020-04-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2020-04-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2020-04-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020-04-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020-04-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2020-04-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2020-04-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2020-04-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2020-04-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2020-04-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2020-05-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2020-05-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2020-05-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2020-05-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2020-05-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2020-05-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2020-05-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2020-05-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2020-05-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dati PCM-DPC'!$S$2:$S$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>4324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2511</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3981</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2525</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3889</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6935</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12393</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12857</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11477</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11682</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15729</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13063</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10695</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16884</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17236</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24109</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26336</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25180</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17066</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21496</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27481</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36615</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33019</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35447</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24504</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23329</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34455</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38617</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37375</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34237</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30271</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33713</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51680</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46244</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>53495</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>56609</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>46720</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>36717</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26779</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43715</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>60999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>65705</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>61725</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50708</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41483</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>52126</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63101</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66658</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>62447</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>65387</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>49916</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>57272</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>63827</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>68456</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>74208</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>55412</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44935</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>37631</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>55263</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>64263</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>70359</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>63775</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>69171</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>51678</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40740</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BF82-41F3-909C-C8AD19242B51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="537119183"/>
+        <c:axId val="537121679"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="537119183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537121679"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="537121679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537119183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5552,9 +6327,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5785,16 +6560,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$C$2:$C$78</c:f>
+              <c:f>'dati PCM-DPC'!$C$2:$C$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -6025,6 +6803,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>13618</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13539</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6201,7 +6982,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -6279,9 +7060,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -6512,16 +7293,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$78</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -6752,6 +7536,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6928,7 +7715,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -7006,9 +7793,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -7239,16 +8026,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$78</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -7479,6 +8269,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>14645</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7655,7 +8448,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -7733,9 +8526,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -7966,16 +8759,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$78</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -8206,6 +9002,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>68679</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>67950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8382,733 +9181,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'dati PCM-DPC'!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>totale_positivi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
-              <c:strCache>
-                <c:ptCount val="77"/>
-                <c:pt idx="0">
-                  <c:v>2020-02-24T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020-02-25T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2020-02-26T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2020-02-27T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020-02-28T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2020-02-29T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2020-03-01T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020-03-02T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2020-03-03T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2020-03-04T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020-03-05T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020-03-06T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2020-03-07T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2020-03-08T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2020-03-09T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2020-03-10T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2020-03-11T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2020-03-12T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2020-03-13T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2020-03-14T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2020-03-15T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2020-03-16T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2020-03-17T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2020-03-18T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2020-03-19T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2020-03-20T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2020-03-21T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2020-03-22T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2020-03-23T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2020-03-24T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2020-03-25T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2020-03-26T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2020-03-27T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2020-03-28T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2020-03-29T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2020-03-30T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2020-03-31T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2020-04-01T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2020-04-02T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2020-04-03T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2020-04-04T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2020-04-05T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2020-04-06T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2020-04-07T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2020-04-08T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2020-04-09T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2020-04-10T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2020-04-11T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2020-04-12T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2020-04-13T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2020-04-14T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2020-04-15T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2020-04-16T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2020-04-17T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2020-04-18T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2020-04-19T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2020-04-20T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2020-04-21T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2020-04-22T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2020-04-23T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2020-04-24T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2020-04-25T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2020-04-26T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2020-04-27T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2020-04-28T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2020-04-29T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2020-04-30T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2020-05-01T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2020-05-02T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2020-05-03T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2020-05-04T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2020-05-05T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2020-05-06T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2020-05-07T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2020-05-08T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2020-05-09T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2020-05-10T17:00:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
-                <c:pt idx="0">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>588</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>821</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1049</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1577</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1835</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2263</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2706</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3296</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3916</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5061</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6387</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7985</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8514</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10590</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12839</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14955</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>17750</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20603</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>23073</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>26062</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28710</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>33190</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>37860</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>42681</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>46638</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>50418</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>54030</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>57521</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>62013</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>66414</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>70065</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>73880</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>75528</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>77635</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>80572</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>83049</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>85388</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>88274</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>91246</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>93187</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>94067</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>95262</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>96877</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>98273</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>100269</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>102253</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>103616</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>104291</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>105418</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>106607</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>106962</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>107771</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>108257</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>108237</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>107709</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>107699</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>106848</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>106527</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>105847</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>106103</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>105813</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>105205</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>104657</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>101551</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>100943</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>100704</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>100179</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>99980</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>98467</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>91528</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>89624</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>87961</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>84842</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>83324</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AA97-499F-881B-E5ABFD7A88D1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="719911600"/>
-        <c:axId val="719925744"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="719911600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="719925744"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="719925744"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="719911600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -9188,9 +9260,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -9421,16 +9493,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$78</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -9661,6 +9736,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>1027</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9891,11 +9969,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$H$1</c:f>
+              <c:f>'dati PCM-DPC'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>variazione_totale_positivi</c:v>
+                  <c:v>totale_positivi</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9914,9 +9992,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -10147,16 +10225,752 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$78</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1577</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1835</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2263</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2706</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5061</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6387</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7985</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8514</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10590</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12839</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14955</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17750</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20603</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23073</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>26062</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28710</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33190</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37860</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42681</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46638</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50418</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>54030</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>57521</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66414</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>70065</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>73880</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75528</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>77635</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>80572</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>83049</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>85388</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>88274</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>91246</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>93187</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>94067</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>95262</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>96877</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>98273</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100269</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>102253</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>103616</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>104291</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>105418</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>106607</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>106962</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>107771</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>108257</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>108237</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>107709</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>107699</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>106848</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>106527</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>105847</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>106103</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>105813</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>105205</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>104657</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>101551</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>100943</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>100704</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>100179</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>99980</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>98467</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>91528</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>89624</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>87961</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>84842</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>83324</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA97-499F-881B-E5ABFD7A88D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="719911600"/>
+        <c:axId val="719925744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="719911600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719925744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="719925744"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="719911600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dati PCM-DPC'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>variazione_totale_positivi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:strCache>
+                <c:ptCount val="78"/>
+                <c:pt idx="0">
+                  <c:v>2020-02-24T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-02-25T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020-02-26T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020-02-27T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-28T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-29T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-03-01T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020-03-02T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-03-03T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-03-04T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-03-05T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-03-06T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-03-07T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-03-08T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-03-09T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-03-10T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020-03-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020-03-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020-03-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020-03-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-03-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-03-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-03-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-03-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020-03-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020-03-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020-03-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020-03-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020-03-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020-03-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020-03-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-03-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-03-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020-03-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-03-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-03-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020-03-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-04-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2020-04-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2020-04-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020-04-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2020-04-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2020-04-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2020-04-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2020-04-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2020-04-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2020-04-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2020-04-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2020-04-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2020-04-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2020-04-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2020-04-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2020-04-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2020-04-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2020-04-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2020-04-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2020-04-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2020-04-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2020-04-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2020-04-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020-04-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020-04-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2020-04-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2020-04-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2020-04-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2020-04-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2020-04-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2020-05-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2020-05-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2020-05-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2020-05-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2020-05-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2020-05-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2020-05-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2020-05-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2020-05-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dati PCM-DPC'!$H$2:$H$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -10387,6 +11201,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>-1518</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10563,7 +11380,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -10641,9 +11458,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -10874,16 +11691,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$78</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -11114,6 +11934,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11290,7 +12113,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -11368,9 +12191,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -11601,16 +12424,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$78</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -11841,6 +12667,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>105186</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>106587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12017,7 +12846,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -12095,9 +12924,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -12328,16 +13157,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$78</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -12568,6 +13400,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>30560</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>30739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12744,7 +13579,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -12822,9 +13657,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13055,16 +13890,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$78</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -13295,6 +14133,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>219070</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>219814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13471,7 +14312,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -13549,9 +14390,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13782,16 +14623,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$78</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -14022,6 +14866,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2565912</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2606652</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14277,9 +15124,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14510,16 +15357,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$78</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -14750,6 +15600,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>14645</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15004,9 +15857,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -15237,16 +16090,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$78</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -15477,6 +16333,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>68679</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>67950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15731,9 +16590,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -15964,16 +16823,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$78</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -16204,6 +17066,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>83324</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16427,8 +17292,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -16445,22 +17311,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -16691,16 +17555,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$78</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16931,11 +17798,13 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>-1518</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9CC0-45DF-A860-1C3CB3FC7C8E}"/>
@@ -16950,10 +17819,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="731056112"/>
         <c:axId val="731056944"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="731056112"/>
         <c:scaling>
@@ -17154,8 +18023,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -17172,22 +18042,20 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -17418,16 +18286,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$78</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -17658,11 +18529,13 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>744</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-08E6-4656-9031-192E777569ED}"/>
@@ -17677,10 +18550,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
+        <c:gapWidth val="150"/>
         <c:axId val="731056528"/>
         <c:axId val="731056112"/>
-      </c:lineChart>
+      </c:barChart>
       <c:catAx>
         <c:axId val="731056528"/>
         <c:scaling>
@@ -17912,9 +18785,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -18145,16 +19018,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$78</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -18385,6 +19261,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>105186</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>106587</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18639,9 +19518,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$78</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
               <c:strCache>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -18872,16 +19751,19 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$78</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="77"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -19112,6 +19994,9 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>30560</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>30739</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20007,6 +20892,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -29575,6 +30500,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -33401,16 +34842,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -33604,6 +35045,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -34236,15 +35707,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R78"/>
+  <dimension ref="A1:S79"/>
   <sheetViews>
-    <sheetView topLeftCell="B42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView topLeftCell="D43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S1" activeCellId="1" sqref="A1:A1048576 S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -34261,9 +35732,11 @@
     <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22.28515625" customWidth="1"/>
     <col min="17" max="17" width="20.140625" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" customWidth="1"/>
+    <col min="19" max="19" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -34318,8 +35791,11 @@
       <c r="R1" t="s">
         <v>113</v>
       </c>
+      <c r="S1" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -34367,8 +35843,12 @@
         <f>J2</f>
         <v>1</v>
       </c>
+      <c r="S2">
+        <f>M2</f>
+        <v>4324</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -34416,8 +35896,12 @@
         <f>J3-J2</f>
         <v>0</v>
       </c>
+      <c r="S3">
+        <f>M3-M2</f>
+        <v>4299</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -34465,8 +35949,12 @@
         <f t="shared" ref="R4:R67" si="1">J4-J3</f>
         <v>2</v>
       </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S67" si="2">M4-M3</f>
+        <v>964</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -34514,8 +36002,12 @@
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
+      <c r="S5">
+        <f t="shared" si="2"/>
+        <v>2427</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -34563,8 +36055,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
+      <c r="S6">
+        <f t="shared" si="2"/>
+        <v>3681</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -34612,8 +36108,12 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
+      <c r="S7">
+        <f t="shared" si="2"/>
+        <v>2966</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -34661,8 +36161,12 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
+      <c r="S8">
+        <f t="shared" si="2"/>
+        <v>2466</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -34710,8 +36214,12 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
+      <c r="S9">
+        <f t="shared" si="2"/>
+        <v>2218</v>
+      </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -34759,8 +36267,12 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
+      <c r="S10">
+        <f t="shared" si="2"/>
+        <v>2511</v>
+      </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -34808,8 +36320,12 @@
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
+      <c r="S11">
+        <f t="shared" si="2"/>
+        <v>3981</v>
+      </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -34857,8 +36373,12 @@
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
+      <c r="S12">
+        <f t="shared" si="2"/>
+        <v>2525</v>
+      </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -34906,8 +36426,12 @@
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
+      <c r="S13">
+        <f t="shared" si="2"/>
+        <v>3997</v>
+      </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -34961,8 +36485,12 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
+      <c r="S14">
+        <f t="shared" si="2"/>
+        <v>5703</v>
+      </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -35010,8 +36538,12 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
+      <c r="S15">
+        <f t="shared" si="2"/>
+        <v>7875</v>
+      </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -35059,8 +36591,12 @@
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
+      <c r="S16">
+        <f t="shared" si="2"/>
+        <v>3889</v>
+      </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -35114,8 +36650,12 @@
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
+      <c r="S17">
+        <f t="shared" si="2"/>
+        <v>6935</v>
+      </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -35169,8 +36709,12 @@
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
+      <c r="S18">
+        <f t="shared" si="2"/>
+        <v>12393</v>
+      </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -35218,8 +36762,12 @@
         <f t="shared" si="1"/>
         <v>213</v>
       </c>
+      <c r="S19">
+        <f t="shared" si="2"/>
+        <v>12857</v>
+      </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -35267,8 +36815,12 @@
         <f t="shared" si="1"/>
         <v>181</v>
       </c>
+      <c r="S20">
+        <f t="shared" si="2"/>
+        <v>11477</v>
+      </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -35316,8 +36868,12 @@
         <f t="shared" si="1"/>
         <v>527</v>
       </c>
+      <c r="S21">
+        <f t="shared" si="2"/>
+        <v>11682</v>
+      </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -35365,8 +36921,12 @@
         <f t="shared" si="1"/>
         <v>369</v>
       </c>
+      <c r="S22">
+        <f t="shared" si="2"/>
+        <v>15729</v>
+      </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -35420,8 +36980,12 @@
         <f t="shared" si="1"/>
         <v>414</v>
       </c>
+      <c r="S23">
+        <f t="shared" si="2"/>
+        <v>13063</v>
+      </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -35475,8 +37039,12 @@
         <f t="shared" si="1"/>
         <v>192</v>
       </c>
+      <c r="S24">
+        <f t="shared" si="2"/>
+        <v>10695</v>
+      </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -35530,8 +37098,12 @@
         <f t="shared" si="1"/>
         <v>1084</v>
       </c>
+      <c r="S25">
+        <f t="shared" si="2"/>
+        <v>16884</v>
+      </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -35579,8 +37151,12 @@
         <f t="shared" si="1"/>
         <v>415</v>
       </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>17236</v>
+      </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
@@ -35628,8 +37204,12 @@
         <f t="shared" si="1"/>
         <v>689</v>
       </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>24109</v>
+      </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -35677,8 +37257,12 @@
         <f t="shared" si="1"/>
         <v>943</v>
       </c>
+      <c r="S28">
+        <f t="shared" si="2"/>
+        <v>26336</v>
+      </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -35726,8 +37310,12 @@
         <f t="shared" si="1"/>
         <v>952</v>
       </c>
+      <c r="S29">
+        <f t="shared" si="2"/>
+        <v>25180</v>
+      </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
@@ -35775,8 +37363,12 @@
         <f t="shared" si="1"/>
         <v>408</v>
       </c>
+      <c r="S30">
+        <f t="shared" si="2"/>
+        <v>17066</v>
+      </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>57</v>
       </c>
@@ -35824,8 +37416,12 @@
         <f t="shared" si="1"/>
         <v>894</v>
       </c>
+      <c r="S31">
+        <f t="shared" si="2"/>
+        <v>21496</v>
+      </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
@@ -35873,8 +37469,12 @@
         <f t="shared" si="1"/>
         <v>1036</v>
       </c>
+      <c r="S32">
+        <f t="shared" si="2"/>
+        <v>27481</v>
+      </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>59</v>
       </c>
@@ -35928,8 +37528,12 @@
         <f t="shared" si="1"/>
         <v>999</v>
       </c>
+      <c r="S33">
+        <f t="shared" si="2"/>
+        <v>36615</v>
+      </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>62</v>
       </c>
@@ -35977,8 +37581,12 @@
         <f t="shared" si="1"/>
         <v>589</v>
       </c>
+      <c r="S34">
+        <f t="shared" si="2"/>
+        <v>33019</v>
+      </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>63</v>
       </c>
@@ -36026,8 +37634,12 @@
         <f t="shared" si="1"/>
         <v>1434</v>
       </c>
+      <c r="S35">
+        <f t="shared" si="2"/>
+        <v>35447</v>
+      </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -36081,8 +37693,12 @@
         <f t="shared" si="1"/>
         <v>646</v>
       </c>
+      <c r="S36">
+        <f t="shared" si="2"/>
+        <v>24504</v>
+      </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
@@ -36130,8 +37746,12 @@
         <f t="shared" si="1"/>
         <v>1590</v>
       </c>
+      <c r="S37">
+        <f t="shared" si="2"/>
+        <v>23329</v>
+      </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -36179,8 +37799,12 @@
         <f t="shared" si="1"/>
         <v>1109</v>
       </c>
+      <c r="S38">
+        <f t="shared" si="2"/>
+        <v>29609</v>
+      </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
@@ -36228,8 +37852,12 @@
         <f t="shared" si="1"/>
         <v>1118</v>
       </c>
+      <c r="S39">
+        <f t="shared" si="2"/>
+        <v>34455</v>
+      </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>70</v>
       </c>
@@ -36277,8 +37905,12 @@
         <f t="shared" si="1"/>
         <v>1431</v>
       </c>
+      <c r="S40">
+        <f t="shared" si="2"/>
+        <v>39809</v>
+      </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>71</v>
       </c>
@@ -36326,8 +37958,12 @@
         <f t="shared" si="1"/>
         <v>1480</v>
       </c>
+      <c r="S41">
+        <f t="shared" si="2"/>
+        <v>38617</v>
+      </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>72</v>
       </c>
@@ -36375,8 +38011,12 @@
         <f t="shared" si="1"/>
         <v>1238</v>
       </c>
+      <c r="S42">
+        <f t="shared" si="2"/>
+        <v>37375</v>
+      </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>73</v>
       </c>
@@ -36424,8 +38064,12 @@
         <f t="shared" si="1"/>
         <v>819</v>
       </c>
+      <c r="S43">
+        <f t="shared" si="2"/>
+        <v>34237</v>
+      </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>74</v>
       </c>
@@ -36473,8 +38117,12 @@
         <f t="shared" si="1"/>
         <v>1022</v>
       </c>
+      <c r="S44">
+        <f t="shared" si="2"/>
+        <v>30271</v>
+      </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>75</v>
       </c>
@@ -36522,8 +38170,12 @@
         <f t="shared" si="1"/>
         <v>1555</v>
       </c>
+      <c r="S45">
+        <f t="shared" si="2"/>
+        <v>33713</v>
+      </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>76</v>
       </c>
@@ -36571,8 +38223,12 @@
         <f t="shared" si="1"/>
         <v>2099</v>
       </c>
+      <c r="S46">
+        <f t="shared" si="2"/>
+        <v>51680</v>
+      </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>77</v>
       </c>
@@ -36620,8 +38276,12 @@
         <f t="shared" si="1"/>
         <v>1979</v>
       </c>
+      <c r="S47">
+        <f t="shared" si="2"/>
+        <v>46244</v>
+      </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>78</v>
       </c>
@@ -36675,8 +38335,12 @@
         <f t="shared" si="1"/>
         <v>1985</v>
       </c>
+      <c r="S48">
+        <f t="shared" si="2"/>
+        <v>53495</v>
+      </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>81</v>
       </c>
@@ -36724,8 +38388,12 @@
         <f t="shared" si="1"/>
         <v>2079</v>
       </c>
+      <c r="S49">
+        <f t="shared" si="2"/>
+        <v>56609</v>
+      </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
@@ -36779,8 +38447,12 @@
         <f t="shared" si="1"/>
         <v>1677</v>
       </c>
+      <c r="S50">
+        <f t="shared" si="2"/>
+        <v>46720</v>
+      </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>85</v>
       </c>
@@ -36828,8 +38500,12 @@
         <f t="shared" si="1"/>
         <v>1224</v>
       </c>
+      <c r="S51">
+        <f t="shared" si="2"/>
+        <v>36717</v>
+      </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>86</v>
       </c>
@@ -36877,8 +38553,12 @@
         <f t="shared" si="1"/>
         <v>1695</v>
       </c>
+      <c r="S52">
+        <f t="shared" si="2"/>
+        <v>26779</v>
+      </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>87</v>
       </c>
@@ -36932,8 +38612,12 @@
         <f t="shared" si="1"/>
         <v>962</v>
       </c>
+      <c r="S53">
+        <f t="shared" si="2"/>
+        <v>43715</v>
+      </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>90</v>
       </c>
@@ -36981,8 +38665,12 @@
         <f t="shared" si="1"/>
         <v>2072</v>
       </c>
+      <c r="S54">
+        <f t="shared" si="2"/>
+        <v>60999</v>
+      </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>91</v>
       </c>
@@ -37030,8 +38718,12 @@
         <f t="shared" si="1"/>
         <v>2563</v>
       </c>
+      <c r="S55">
+        <f t="shared" si="2"/>
+        <v>65705</v>
+      </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>92</v>
       </c>
@@ -37079,8 +38771,12 @@
         <f t="shared" si="1"/>
         <v>2200</v>
       </c>
+      <c r="S56">
+        <f t="shared" si="2"/>
+        <v>61725</v>
+      </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
@@ -37131,8 +38827,12 @@
         <f t="shared" si="1"/>
         <v>2128</v>
       </c>
+      <c r="S57">
+        <f t="shared" si="2"/>
+        <v>50708</v>
+      </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>94</v>
       </c>
@@ -37189,8 +38889,12 @@
         <f t="shared" si="1"/>
         <v>1822</v>
       </c>
+      <c r="S58">
+        <f t="shared" si="2"/>
+        <v>41483</v>
+      </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>98</v>
       </c>
@@ -37247,8 +38951,12 @@
         <f t="shared" si="1"/>
         <v>2723</v>
       </c>
+      <c r="S59">
+        <f t="shared" si="2"/>
+        <v>52126</v>
+      </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>101</v>
       </c>
@@ -37299,8 +39007,12 @@
         <f t="shared" si="1"/>
         <v>2943</v>
       </c>
+      <c r="S60">
+        <f t="shared" si="2"/>
+        <v>63101</v>
+      </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>102</v>
       </c>
@@ -37357,8 +39069,12 @@
         <f t="shared" si="1"/>
         <v>3033</v>
       </c>
+      <c r="S61">
+        <f t="shared" si="2"/>
+        <v>66658</v>
+      </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>105</v>
       </c>
@@ -37415,8 +39131,12 @@
         <f t="shared" si="1"/>
         <v>2922</v>
       </c>
+      <c r="S62">
+        <f t="shared" si="2"/>
+        <v>62447</v>
+      </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>106</v>
       </c>
@@ -37467,8 +39187,12 @@
         <f t="shared" si="1"/>
         <v>2622</v>
       </c>
+      <c r="S63">
+        <f t="shared" si="2"/>
+        <v>65387</v>
+      </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>110</v>
       </c>
@@ -37525,8 +39249,12 @@
         <f t="shared" si="1"/>
         <v>1808</v>
       </c>
+      <c r="S64">
+        <f t="shared" si="2"/>
+        <v>49916</v>
+      </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>114</v>
       </c>
@@ -37577,8 +39305,12 @@
         <f t="shared" si="1"/>
         <v>1696</v>
       </c>
+      <c r="S65">
+        <f t="shared" si="2"/>
+        <v>32003</v>
+      </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
@@ -37629,8 +39361,12 @@
         <f t="shared" si="1"/>
         <v>2317</v>
       </c>
+      <c r="S66">
+        <f t="shared" si="2"/>
+        <v>57272</v>
+      </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>116</v>
       </c>
@@ -37681,8 +39417,12 @@
         <f t="shared" si="1"/>
         <v>2311</v>
       </c>
+      <c r="S67">
+        <f t="shared" si="2"/>
+        <v>63827</v>
+      </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>117</v>
       </c>
@@ -37726,15 +39466,19 @@
         <v>1354901</v>
       </c>
       <c r="Q68">
-        <f t="shared" ref="Q68:Q78" si="2">K68-K67</f>
+        <f t="shared" ref="Q68:Q79" si="3">K68-K67</f>
         <v>285</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R78" si="3">J68-J67</f>
+        <f t="shared" ref="R68:R79" si="4">J68-J67</f>
         <v>4693</v>
       </c>
+      <c r="S68">
+        <f t="shared" ref="S68:S79" si="5">M68-M67</f>
+        <v>68456</v>
+      </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>118</v>
       </c>
@@ -37784,15 +39528,19 @@
         <v>120</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>269</v>
       </c>
       <c r="R69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2304</v>
       </c>
+      <c r="S69">
+        <f t="shared" si="5"/>
+        <v>74208</v>
+      </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>121</v>
       </c>
@@ -37842,15 +39590,19 @@
         <v>123</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>474</v>
       </c>
       <c r="R70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1665</v>
       </c>
+      <c r="S70">
+        <f t="shared" si="5"/>
+        <v>55412</v>
+      </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>124</v>
       </c>
@@ -37894,15 +39646,19 @@
         <v>1456911</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>174</v>
       </c>
       <c r="R71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1740</v>
       </c>
+      <c r="S71">
+        <f t="shared" si="5"/>
+        <v>44935</v>
+      </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>125</v>
       </c>
@@ -37952,15 +39708,19 @@
         <v>127</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>195</v>
       </c>
       <c r="R72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1225</v>
       </c>
+      <c r="S72">
+        <f t="shared" si="5"/>
+        <v>37631</v>
+      </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>128</v>
       </c>
@@ -38004,15 +39764,19 @@
         <v>1512121</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>236</v>
       </c>
       <c r="R73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2352</v>
       </c>
+      <c r="S73">
+        <f t="shared" si="5"/>
+        <v>55263</v>
+      </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>129</v>
       </c>
@@ -38062,15 +39826,19 @@
         <v>131</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>369</v>
       </c>
       <c r="R74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8014</v>
       </c>
+      <c r="S74">
+        <f t="shared" si="5"/>
+        <v>64263</v>
+      </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>132</v>
       </c>
@@ -38120,15 +39888,19 @@
         <v>134</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>274</v>
       </c>
       <c r="R75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3031</v>
       </c>
+      <c r="S75">
+        <f t="shared" si="5"/>
+        <v>70359</v>
+      </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
@@ -38178,15 +39950,19 @@
         <v>137</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>243</v>
       </c>
       <c r="R76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2747</v>
       </c>
+      <c r="S76">
+        <f t="shared" si="5"/>
+        <v>63775</v>
+      </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>138</v>
       </c>
@@ -38230,15 +40006,19 @@
         <v>1645076</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>194</v>
       </c>
       <c r="R77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4008</v>
       </c>
+      <c r="S77">
+        <f t="shared" si="5"/>
+        <v>69171</v>
+      </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>139</v>
       </c>
@@ -38282,12 +40062,72 @@
         <v>1676460</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>165</v>
       </c>
       <c r="R78">
+        <f t="shared" si="4"/>
+        <v>2155</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="5"/>
+        <v>51678</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>13539</v>
+      </c>
+      <c r="D79">
+        <v>999</v>
+      </c>
+      <c r="E79">
+        <v>14538</v>
+      </c>
+      <c r="F79">
+        <v>67950</v>
+      </c>
+      <c r="G79">
+        <v>82488</v>
+      </c>
+      <c r="H79">
+        <v>-836</v>
+      </c>
+      <c r="I79">
+        <v>744</v>
+      </c>
+      <c r="J79">
+        <v>106587</v>
+      </c>
+      <c r="K79">
+        <v>30739</v>
+      </c>
+      <c r="L79">
+        <v>219814</v>
+      </c>
+      <c r="M79">
+        <v>2606652</v>
+      </c>
+      <c r="N79">
+        <v>1702283</v>
+      </c>
+      <c r="Q79">
         <f t="shared" si="3"/>
-        <v>2155</v>
+        <v>179</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="4"/>
+        <v>1401</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="5"/>
+        <v>40740</v>
       </c>
     </row>
   </sheetData>
@@ -38305,7 +40145,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Y52" sqref="Y52"/>
+      <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/andamento_nazionale.xlsx
+++ b/andamento_nazionale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="dati PCM-DPC" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Grafici log" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$A$1:$P$79</definedName>
+    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$A$1:$P$80</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="145">
   <si>
     <t>data</t>
   </si>
@@ -479,6 +479,15 @@
   <si>
     <t>tamponi giornalieri</t>
   </si>
+  <si>
+    <t>2020-05-12T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0027</t>
+  </si>
+  <si>
+    <t>dc-EN-0027</t>
+  </si>
 </sst>
 </file>
 
@@ -559,7 +568,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -623,9 +631,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -859,16 +867,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$C$2:$C$79</c:f>
+              <c:f>'dati PCM-DPC'!$C$2:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1102,6 +1113,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>13539</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,9 +1370,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1592,16 +1606,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$79</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -1835,6 +1852,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>219814</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>221216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2089,9 +2109,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -2325,16 +2345,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$79</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -2568,6 +2591,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2606652</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2673655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,9 +2878,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3088,16 +3114,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$79</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3331,6 +3360,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>106587</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>109039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3370,9 +3402,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3606,16 +3638,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$79</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -3849,6 +3884,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>30739</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>30911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4134,9 +4172,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -4370,6 +4408,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4865,9 +4906,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5101,6 +5142,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5596,9 +5640,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5832,6 +5876,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6327,9 +6374,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -6563,16 +6610,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$C$2:$C$79</c:f>
+              <c:f>'dati PCM-DPC'!$C$2:$C$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -6806,6 +6856,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>13539</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12865</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7060,9 +7113,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -7296,16 +7349,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$79</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -7539,6 +7595,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7793,9 +7852,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -8029,16 +8088,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$79</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -8272,6 +8334,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>14538</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8526,9 +8591,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -8762,16 +8827,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$79</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -9005,6 +9073,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>67950</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>67449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9196,7 +9267,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9260,9 +9330,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -9496,16 +9566,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$79</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -9739,6 +9812,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>952</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9992,9 +10068,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -10228,16 +10304,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$79</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -10471,6 +10550,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>82488</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>81266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10725,9 +10807,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -10961,16 +11043,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$79</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11204,6 +11289,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>-836</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11458,9 +11546,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -11694,16 +11782,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$79</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -11937,6 +12028,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12191,9 +12285,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -12427,16 +12521,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$79</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -12670,6 +12767,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>106587</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>109039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12924,9 +13024,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13160,16 +13260,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$79</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -13403,6 +13506,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>30739</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>30911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13657,9 +13763,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13893,16 +13999,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$79</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -14136,6 +14245,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>219814</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>221216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14390,9 +14502,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14626,16 +14738,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$79</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -14869,6 +14984,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2606652</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2673655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15060,7 +15178,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15124,9 +15241,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -15360,16 +15477,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$79</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -15603,6 +15723,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>14538</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15793,7 +15916,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15857,9 +15979,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -16093,16 +16215,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$79</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -16336,6 +16461,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>67950</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>67449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16590,9 +16718,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -16826,16 +16954,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$79</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -17069,6 +17200,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>82488</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>81266</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17322,9 +17456,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -17558,16 +17692,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$79</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17801,6 +17938,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>-836</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-1222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18053,9 +18193,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -18289,16 +18429,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$79</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -18532,6 +18675,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18785,9 +18931,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19021,16 +19167,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$79</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -19264,6 +19413,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>106587</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>109039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19518,9 +19670,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$79</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
               <c:strCache>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19754,16 +19906,19 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$79</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$80</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="79"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -19997,6 +20152,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>30739</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>30911</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -35707,10 +35865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView topLeftCell="D43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" activeCellId="1" sqref="A1:A1048576 S1:S1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D75" sqref="A75:XFD75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39466,15 +39624,15 @@
         <v>1354901</v>
       </c>
       <c r="Q68">
-        <f t="shared" ref="Q68:Q79" si="3">K68-K67</f>
+        <f t="shared" ref="Q68:Q80" si="3">K68-K67</f>
         <v>285</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R79" si="4">J68-J67</f>
+        <f t="shared" ref="R68:R80" si="4">J68-J67</f>
         <v>4693</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S79" si="5">M68-M67</f>
+        <f t="shared" ref="S68:S80" si="5">M68-M67</f>
         <v>68456</v>
       </c>
     </row>
@@ -40128,6 +40286,68 @@
       <c r="S79">
         <f t="shared" si="5"/>
         <v>40740</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>12865</v>
+      </c>
+      <c r="D80">
+        <v>952</v>
+      </c>
+      <c r="E80">
+        <v>13817</v>
+      </c>
+      <c r="F80">
+        <v>67449</v>
+      </c>
+      <c r="G80">
+        <v>81266</v>
+      </c>
+      <c r="H80">
+        <v>-1222</v>
+      </c>
+      <c r="I80">
+        <v>1402</v>
+      </c>
+      <c r="J80">
+        <v>109039</v>
+      </c>
+      <c r="K80">
+        <v>30911</v>
+      </c>
+      <c r="L80">
+        <v>221216</v>
+      </c>
+      <c r="M80">
+        <v>2673655</v>
+      </c>
+      <c r="N80">
+        <v>1741903</v>
+      </c>
+      <c r="O80" t="s">
+        <v>143</v>
+      </c>
+      <c r="P80" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="3"/>
+        <v>172</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="4"/>
+        <v>2452</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="5"/>
+        <v>67003</v>
       </c>
     </row>
   </sheetData>
@@ -40144,7 +40364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="X32" sqref="X32"/>
     </sheetView>
   </sheetViews>

--- a/andamento_nazionale.xlsx
+++ b/andamento_nazionale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dati PCM-DPC" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Grafici log" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$A$1:$P$80</definedName>
+    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$A$1:$P$81</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="147">
   <si>
     <t>data</t>
   </si>
@@ -488,6 +488,12 @@
   <si>
     <t>dc-EN-0027</t>
   </si>
+  <si>
+    <t>2020-05-13T17:00:00</t>
+  </si>
+  <si>
+    <t>nuovi pos/tamponi</t>
+  </si>
 </sst>
 </file>
 
@@ -568,6 +574,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -631,9 +638,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -870,16 +877,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$C$2:$C$80</c:f>
+              <c:f>'dati PCM-DPC'!$C$2:$C$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1116,6 +1126,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>12865</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1370,9 +1383,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1609,16 +1622,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$80</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -1855,6 +1871,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>221216</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>222104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2109,9 +2128,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -2348,16 +2367,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$80</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -2594,6 +2616,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2673655</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2735628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2878,9 +2903,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3117,16 +3142,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$80</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3363,6 +3391,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>109039</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>112541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3402,9 +3433,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3641,16 +3672,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$80</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -3887,6 +3921,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>30911</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>31106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4172,9 +4209,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -4411,16 +4448,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$Q$2:$Q$79</c:f>
+              <c:f>'dati PCM-DPC'!$Q$2:$Q$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4654,6 +4694,12 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4906,9 +4952,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5145,16 +5191,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$R$2:$R$79</c:f>
+              <c:f>'dati PCM-DPC'!$R$2:$R$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5388,6 +5437,12 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1401</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2452</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5640,9 +5695,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5879,16 +5934,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$S$2:$S$79</c:f>
+              <c:f>'dati PCM-DPC'!$S$2:$S$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="78"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -6122,6 +6180,12 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>40740</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>67003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>61973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6311,6 +6375,750 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dati PCM-DPC'!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nuovi pos/tamponi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>2020-02-24T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-02-25T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020-02-26T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020-02-27T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-28T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-29T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-03-01T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020-03-02T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-03-03T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-03-04T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-03-05T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-03-06T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-03-07T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-03-08T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-03-09T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-03-10T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020-03-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020-03-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020-03-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020-03-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-03-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-03-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-03-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-03-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020-03-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020-03-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020-03-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020-03-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020-03-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020-03-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020-03-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-03-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-03-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020-03-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-03-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-03-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020-03-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-04-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2020-04-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2020-04-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020-04-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2020-04-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2020-04-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2020-04-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2020-04-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2020-04-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2020-04-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2020-04-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2020-04-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2020-04-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2020-04-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2020-04-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2020-04-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2020-04-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2020-04-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2020-04-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2020-04-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2020-04-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2020-04-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2020-04-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020-04-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020-04-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2020-04-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2020-04-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2020-04-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2020-04-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2020-04-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2020-05-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2020-05-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2020-05-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2020-05-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2020-05-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2020-05-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2020-05-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2020-05-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2020-05-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dati PCM-DPC'!$T$2:$T$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>5.1110083256244221E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1632937892533146E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0912863070539423E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.10300782859497322</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4656343384949744E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0917060013486183E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22952149229521493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15419296663660956</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.18558343289526086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.14745038934940968</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30455445544554455</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.19464598448836629</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2186568472733649</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18946031746031747</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46207251221393675</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.14087959625090121</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.18663761801016704</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20619117990199892</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22192210507972468</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.29934942646807056</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.22824082904189713</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.24749291893133277</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.32968676951846659</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.24917081260364843</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.30877233696913436</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24828902069766479</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.24897478736330497</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.22081016679904686</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28061643032930972</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.24418496464458503</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.18958553182198609</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.16804588283490374</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.18047184954117326</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16853330324145907</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.21290401567091088</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.17360366925286125</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.13688405552365834</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.13878972572921203</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.11725991609937451</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.11873009296423855</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.128561872909699</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.12606244706019804</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.11889266955171617</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.0143268175481267E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.4226006191950467E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.3857369847649318E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.2919677083149318E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.7585616438356162E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.5873028842225668E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.11098248627655999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.1008807045636507E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.2066591255594356E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.316185982801918E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.6557310652085864E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.0089137808629803E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.4383723452980738E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.2353911675555385E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.3406443637977211E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.9695160370848213E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.8377023716111266E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.6046920641717772E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.6558217805913939E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.433865575102334E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.6509987428411786E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.2682093784761931E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.7346032488021504E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.6479624838292366E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.4288601746914026E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.091131634583287E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.2446653025431163E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.9452436530771042E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2470161679348927E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.9912164755041997E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.0807526460211681E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5656850414190918E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5519176438716668E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.8262150220913109E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.0924436219273763E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.43288206154293E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BFDC-4627-B17F-6FD956D0874E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1948838256"/>
+        <c:axId val="1948828272"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1948838256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1948828272"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1948828272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1948838256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6374,9 +7182,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -6613,16 +7421,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$C$2:$C$80</c:f>
+              <c:f>'dati PCM-DPC'!$C$2:$C$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -6859,6 +7670,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>12865</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>12172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7035,7 +7849,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -7113,9 +7927,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -7352,16 +8166,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$80</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -7598,6 +8415,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7774,7 +8594,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -7852,9 +8672,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -8091,16 +8911,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$80</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -8337,6 +9160,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>13817</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8513,745 +9339,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'dati PCM-DPC'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>isolamento_domiciliare</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
-              <c:strCache>
-                <c:ptCount val="79"/>
-                <c:pt idx="0">
-                  <c:v>2020-02-24T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020-02-25T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2020-02-26T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2020-02-27T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2020-02-28T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2020-02-29T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2020-03-01T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2020-03-02T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2020-03-03T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2020-03-04T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020-03-05T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2020-03-06T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2020-03-07T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2020-03-08T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2020-03-09T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2020-03-10T18:00:00</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2020-03-11T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2020-03-12T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2020-03-13T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2020-03-14T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2020-03-15T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2020-03-16T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2020-03-17T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2020-03-18T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2020-03-19T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2020-03-20T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2020-03-21T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2020-03-22T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2020-03-23T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2020-03-24T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2020-03-25T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2020-03-26T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2020-03-27T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2020-03-28T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2020-03-29T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2020-03-30T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2020-03-31T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2020-04-01T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2020-04-02T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2020-04-03T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2020-04-04T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2020-04-05T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2020-04-06T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2020-04-07T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2020-04-08T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2020-04-09T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2020-04-10T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2020-04-11T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2020-04-12T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2020-04-13T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2020-04-14T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2020-04-15T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2020-04-16T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2020-04-17T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2020-04-18T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2020-04-19T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2020-04-20T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2020-04-21T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2020-04-22T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2020-04-23T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2020-04-24T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2020-04-25T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2020-04-26T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2020-04-27T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2020-04-28T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2020-04-29T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2020-04-30T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>2020-05-01T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>2020-05-02T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2020-05-03T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>2020-05-04T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2020-05-05T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>2020-05-06T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2020-05-07T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2020-05-08T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2020-05-09T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2020-05-10T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2020-05-11T17:00:00</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2020-05-12T17:00:00</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$80</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
-                <c:pt idx="0">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>412</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>543</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>798</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>927</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1065</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1155</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1060</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1843</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2180</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2936</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2599</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3724</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6201</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7860</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9268</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10197</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11108</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>12090</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>14935</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>19185</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>22116</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>23783</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>26522</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>28697</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30920</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>33648</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>36653</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>39533</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42588</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43752</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45420</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>48134</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>50456</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>52579</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>55270</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>58320</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>60313</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>61557</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>63084</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>64873</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>66534</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>68744</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>71063</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>72333</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>73094</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>74696</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>76778</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>78364</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>80031</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>80589</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>80758</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>81104</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>81510</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>81710</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>82286</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>82212</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>82722</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>83504</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>83619</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>83652</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>81708</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>81796</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>81808</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>81436</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>81678</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>80770</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>74426</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73139</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>72157</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>69974</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>68679</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>67950</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>67449</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1020-4A4E-B666-262B5E28D695}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="810652848"/>
-        <c:axId val="810653264"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="810652848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="810653264"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="810653264"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="810652848"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -9267,6 +9354,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9330,9 +9418,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -9569,16 +9657,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$80</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -9815,6 +9906,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10045,11 +10139,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$G$1</c:f>
+              <c:f>'dati PCM-DPC'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>totale_positivi</c:v>
+                  <c:v>isolamento_domiciliare</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -10068,9 +10162,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -10307,16 +10401,764 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$80</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>543</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>927</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1065</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1843</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2180</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2936</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2599</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3724</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5036</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6201</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7860</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9268</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10197</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11108</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12090</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14935</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19185</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22116</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23783</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26522</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28697</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30920</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>33648</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36653</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39533</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42588</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43752</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45420</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>48134</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50456</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>52579</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55270</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>58320</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60313</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61557</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>63084</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>64873</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>66534</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>68744</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>71063</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>72333</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>73094</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>74696</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>76778</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>78364</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>80031</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>80589</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>80758</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>81104</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>81510</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>81710</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>82286</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>82212</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>82722</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>83504</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>83619</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>83652</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>81708</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>81796</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>81808</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>81436</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>81678</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>80770</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>74426</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73139</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>72157</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>69974</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>68679</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>67950</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>67449</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>65392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1020-4A4E-B666-262B5E28D695}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="810652848"/>
+        <c:axId val="810653264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="810652848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="810653264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="810653264"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="810652848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'dati PCM-DPC'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>totale_positivi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:strCache>
+                <c:ptCount val="80"/>
+                <c:pt idx="0">
+                  <c:v>2020-02-24T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-02-25T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020-02-26T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020-02-27T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-28T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-02-29T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-03-01T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020-03-02T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-03-03T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-03-04T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-03-05T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-03-06T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-03-07T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-03-08T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-03-09T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-03-10T18:00:00</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020-03-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020-03-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020-03-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020-03-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-03-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-03-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-03-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-03-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020-03-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020-03-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020-03-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2020-03-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2020-03-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2020-03-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2020-03-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-03-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-03-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2020-03-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-03-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-03-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2020-03-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-04-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2020-04-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2020-04-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020-04-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2020-04-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2020-04-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2020-04-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2020-04-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2020-04-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2020-04-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2020-04-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2020-04-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2020-04-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2020-04-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2020-04-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2020-04-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2020-04-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2020-04-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2020-04-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2020-04-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2020-04-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2020-04-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2020-04-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2020-04-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2020-04-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2020-04-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2020-04-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2020-04-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2020-04-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2020-04-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2020-05-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2020-05-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2020-05-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2020-05-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2020-05-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2020-05-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2020-05-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2020-05-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2020-05-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2020-05-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2020-05-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'dati PCM-DPC'!$G$2:$G$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -10553,6 +11395,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>81266</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>78457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10729,7 +11574,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -10807,9 +11652,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -11046,16 +11891,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$80</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11292,6 +12140,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>-1222</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11468,7 +12319,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -11546,9 +12397,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -11785,16 +12636,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$80</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -12031,6 +12885,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1402</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12207,7 +13064,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -12285,9 +13142,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -12524,16 +13381,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$80</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -12770,6 +13630,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>109039</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>112541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12946,7 +13809,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -13024,9 +13887,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13263,16 +14126,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$80</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -13509,6 +14375,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>30911</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>31106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13685,7 +14554,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -13763,9 +14632,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14002,16 +14871,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$80</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -14248,6 +15120,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>221216</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>222104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14424,7 +15299,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -14502,9 +15377,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14741,16 +15616,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$80</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -14987,6 +15865,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2673655</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2735628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15178,6 +16059,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15241,9 +16123,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -15480,16 +16362,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$80</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -15726,6 +16611,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>13817</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13065</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15916,6 +16804,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15979,9 +16868,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -16218,16 +17107,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$80</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -16464,6 +17356,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>67449</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>65392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16718,9 +17613,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -16957,16 +17852,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$80</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -17203,6 +18101,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>81266</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>78457</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17456,9 +18357,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -17695,16 +18596,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$80</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -17941,6 +18845,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>-1222</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-2809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18193,9 +19100,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -18432,16 +19339,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$80</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -18678,6 +19588,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1402</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18931,9 +19844,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19170,16 +20083,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$80</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -19416,6 +20332,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>109039</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>112541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19670,9 +20589,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$80</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
               <c:strCache>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19909,16 +20828,19 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2020-05-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2020-05-13T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$80</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="79"/>
+                <c:ptCount val="80"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -20155,6 +21077,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>30911</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>31106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21090,6 +22015,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors27.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -24983,7 +25948,7 @@
 </file>
 
 <file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -25091,11 +26056,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -25106,11 +26066,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -25142,9 +26097,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -30659,6 +31611,522 @@
 </file>
 
 <file path=xl/charts/style26.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style27.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -35233,6 +36701,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Grafico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35865,10 +37363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D75" sqref="A75:XFD75"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCellId="1" sqref="T1:T1048576 A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35891,10 +37389,10 @@
     <col min="16" max="16" width="22.28515625" customWidth="1"/>
     <col min="17" max="17" width="20.140625" customWidth="1"/>
     <col min="18" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -35952,8 +37450,11 @@
       <c r="S1" t="s">
         <v>141</v>
       </c>
+      <c r="T1" t="s">
+        <v>146</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -36005,8 +37506,12 @@
         <f>M2</f>
         <v>4324</v>
       </c>
+      <c r="T2">
+        <f>I2/S2</f>
+        <v>5.1110083256244221E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -36058,8 +37563,12 @@
         <f>M3-M2</f>
         <v>4299</v>
       </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="0">I3/S3</f>
+        <v>2.1632937892533146E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -36100,19 +37609,23 @@
         <v>9587</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q67" si="0">K4-K3</f>
+        <f t="shared" ref="Q4:Q67" si="1">K4-K3</f>
         <v>2</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R67" si="1">J4-J3</f>
+        <f t="shared" ref="R4:R67" si="2">J4-J3</f>
         <v>2</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S67" si="2">M4-M3</f>
+        <f t="shared" ref="S4:S67" si="3">M4-M3</f>
         <v>964</v>
       </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>8.0912863070539423E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -36153,19 +37666,23 @@
         <v>12014</v>
       </c>
       <c r="Q5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="3"/>
+        <v>2427</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="2"/>
-        <v>2427</v>
+        <v>0.10300782859497322</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -36206,19 +37723,23 @@
         <v>15695</v>
       </c>
       <c r="Q6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="3"/>
+        <v>3681</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="2"/>
-        <v>3681</v>
+        <v>6.4656343384949744E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -36259,19 +37780,23 @@
         <v>18661</v>
       </c>
       <c r="Q7">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="3"/>
+        <v>2966</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="2"/>
-        <v>2966</v>
+        <v>8.0917060013486183E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -36312,19 +37837,23 @@
         <v>21127</v>
       </c>
       <c r="Q8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="3"/>
+        <v>2466</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="2"/>
-        <v>2466</v>
+        <v>0.22952149229521493</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -36365,19 +37894,23 @@
         <v>23345</v>
       </c>
       <c r="Q9">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="3"/>
+        <v>2218</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="2"/>
-        <v>2218</v>
+        <v>0.15419296663660956</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -36418,19 +37951,23 @@
         <v>25856</v>
       </c>
       <c r="Q10">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="3"/>
+        <v>2511</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="2"/>
-        <v>2511</v>
+        <v>0.18558343289526086</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -36471,19 +38008,23 @@
         <v>29837</v>
       </c>
       <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="3"/>
+        <v>3981</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="2"/>
-        <v>3981</v>
+        <v>0.14745038934940968</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -36524,19 +38065,23 @@
         <v>32362</v>
       </c>
       <c r="Q12">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="3"/>
+        <v>2525</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="1"/>
-        <v>138</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="2"/>
-        <v>2525</v>
+        <v>0.30455445544554455</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -36577,19 +38122,23 @@
         <v>36359</v>
       </c>
       <c r="Q13">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>3997</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="2"/>
-        <v>3997</v>
+        <v>0.19464598448836629</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -36636,19 +38185,23 @@
         <v>30</v>
       </c>
       <c r="Q14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="3"/>
+        <v>5703</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="2"/>
-        <v>5703</v>
+        <v>0.2186568472733649</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -36689,19 +38242,23 @@
         <v>49937</v>
       </c>
       <c r="Q15">
+        <f t="shared" si="1"/>
+        <v>133</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="3"/>
+        <v>7875</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="0"/>
-        <v>133</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="2"/>
-        <v>7875</v>
+        <v>0.18946031746031747</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -36742,19 +38299,23 @@
         <v>53826</v>
       </c>
       <c r="Q16">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="3"/>
+        <v>3889</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="2"/>
-        <v>3889</v>
+        <v>0.46207251221393675</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -36801,19 +38362,23 @@
         <v>35</v>
       </c>
       <c r="Q17">
+        <f t="shared" si="1"/>
+        <v>168</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="3"/>
+        <v>6935</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="1"/>
-        <v>280</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="2"/>
-        <v>6935</v>
+        <v>0.14087959625090121</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
@@ -36860,19 +38425,23 @@
         <v>38</v>
       </c>
       <c r="Q18">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="3"/>
+        <v>12393</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="0"/>
-        <v>196</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="2"/>
-        <v>12393</v>
+        <v>0.18663761801016704</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -36913,19 +38482,23 @@
         <v>86011</v>
       </c>
       <c r="Q19">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>213</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>12857</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="0"/>
-        <v>189</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="1"/>
-        <v>213</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="2"/>
-        <v>12857</v>
+        <v>0.20619117990199892</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -36966,19 +38539,23 @@
         <v>97488</v>
       </c>
       <c r="Q20">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="3"/>
+        <v>11477</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="1"/>
-        <v>181</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="2"/>
-        <v>11477</v>
+        <v>0.22192210507972468</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -37019,19 +38596,23 @@
         <v>109170</v>
       </c>
       <c r="Q21">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>527</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="3"/>
+        <v>11682</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="1"/>
-        <v>527</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="2"/>
-        <v>11682</v>
+        <v>0.29934942646807056</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -37072,19 +38653,23 @@
         <v>124899</v>
       </c>
       <c r="Q22">
+        <f t="shared" si="1"/>
+        <v>368</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>369</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="3"/>
+        <v>15729</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="0"/>
-        <v>368</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="1"/>
-        <v>369</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="2"/>
-        <v>15729</v>
+        <v>0.22824082904189713</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -37131,19 +38716,23 @@
         <v>45</v>
       </c>
       <c r="Q23">
+        <f t="shared" si="1"/>
+        <v>349</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>414</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="3"/>
+        <v>13063</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="0"/>
-        <v>349</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="1"/>
-        <v>414</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="2"/>
-        <v>13063</v>
+        <v>0.24749291893133277</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -37190,19 +38779,23 @@
         <v>48</v>
       </c>
       <c r="Q24">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="3"/>
+        <v>10695</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="0"/>
-        <v>345</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="1"/>
-        <v>192</v>
-      </c>
-      <c r="S24">
-        <f t="shared" si="2"/>
-        <v>10695</v>
+        <v>0.32968676951846659</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
@@ -37249,19 +38842,23 @@
         <v>51</v>
       </c>
       <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>475</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>1084</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="3"/>
+        <v>16884</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="0"/>
-        <v>475</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="1"/>
-        <v>1084</v>
-      </c>
-      <c r="S25">
-        <f t="shared" si="2"/>
-        <v>16884</v>
+        <v>0.24917081260364843</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
@@ -37302,2055 +38899,2207 @@
         <v>182777</v>
       </c>
       <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>427</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="3"/>
+        <v>17236</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="0"/>
-        <v>427</v>
-      </c>
-      <c r="R26">
+        <v>0.30877233696913436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>16020</v>
+      </c>
+      <c r="D27">
+        <v>2655</v>
+      </c>
+      <c r="E27">
+        <v>18675</v>
+      </c>
+      <c r="F27">
+        <v>19185</v>
+      </c>
+      <c r="G27">
+        <v>37860</v>
+      </c>
+      <c r="H27">
+        <v>4670</v>
+      </c>
+      <c r="I27">
+        <v>5986</v>
+      </c>
+      <c r="J27">
+        <v>5129</v>
+      </c>
+      <c r="K27">
+        <v>4032</v>
+      </c>
+      <c r="L27">
+        <v>47021</v>
+      </c>
+      <c r="M27">
+        <v>206886</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>627</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>689</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>24109</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>0.24828902069766479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>17708</v>
+      </c>
+      <c r="D28">
+        <v>2857</v>
+      </c>
+      <c r="E28">
+        <v>20565</v>
+      </c>
+      <c r="F28">
+        <v>22116</v>
+      </c>
+      <c r="G28">
+        <v>42681</v>
+      </c>
+      <c r="H28">
+        <v>4821</v>
+      </c>
+      <c r="I28">
+        <v>6557</v>
+      </c>
+      <c r="J28">
+        <v>6072</v>
+      </c>
+      <c r="K28">
+        <v>4825</v>
+      </c>
+      <c r="L28">
+        <v>53578</v>
+      </c>
+      <c r="M28">
+        <v>233222</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="1"/>
+        <v>793</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>943</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="3"/>
+        <v>26336</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>0.24897478736330497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>19846</v>
+      </c>
+      <c r="D29">
+        <v>3009</v>
+      </c>
+      <c r="E29">
+        <v>22855</v>
+      </c>
+      <c r="F29">
+        <v>23783</v>
+      </c>
+      <c r="G29">
+        <v>46638</v>
+      </c>
+      <c r="H29">
+        <v>3957</v>
+      </c>
+      <c r="I29">
+        <v>5560</v>
+      </c>
+      <c r="J29">
+        <v>7024</v>
+      </c>
+      <c r="K29">
+        <v>5476</v>
+      </c>
+      <c r="L29">
+        <v>59138</v>
+      </c>
+      <c r="M29">
+        <v>258402</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="1"/>
+        <v>651</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>952</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
+        <v>25180</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="0"/>
+        <v>0.22081016679904686</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>20692</v>
+      </c>
+      <c r="D30">
+        <v>3204</v>
+      </c>
+      <c r="E30">
+        <v>23896</v>
+      </c>
+      <c r="F30">
+        <v>26522</v>
+      </c>
+      <c r="G30">
+        <v>50418</v>
+      </c>
+      <c r="H30">
+        <v>3780</v>
+      </c>
+      <c r="I30">
+        <v>4789</v>
+      </c>
+      <c r="J30">
+        <v>7432</v>
+      </c>
+      <c r="K30">
+        <v>6077</v>
+      </c>
+      <c r="L30">
+        <v>63927</v>
+      </c>
+      <c r="M30">
+        <v>275468</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="1"/>
+        <v>601</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>408</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
+        <v>17066</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>0.28061643032930972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>21937</v>
+      </c>
+      <c r="D31">
+        <v>3396</v>
+      </c>
+      <c r="E31">
+        <v>25333</v>
+      </c>
+      <c r="F31">
+        <v>28697</v>
+      </c>
+      <c r="G31">
+        <v>54030</v>
+      </c>
+      <c r="H31">
+        <v>3612</v>
+      </c>
+      <c r="I31">
+        <v>5249</v>
+      </c>
+      <c r="J31">
+        <v>8326</v>
+      </c>
+      <c r="K31">
+        <v>6820</v>
+      </c>
+      <c r="L31">
+        <v>69176</v>
+      </c>
+      <c r="M31">
+        <v>296964</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="1"/>
+        <v>743</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>894</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="3"/>
+        <v>21496</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>0.24418496464458503</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>23112</v>
+      </c>
+      <c r="D32">
+        <v>3489</v>
+      </c>
+      <c r="E32">
+        <v>26601</v>
+      </c>
+      <c r="F32">
+        <v>30920</v>
+      </c>
+      <c r="G32">
+        <v>57521</v>
+      </c>
+      <c r="H32">
+        <v>3491</v>
+      </c>
+      <c r="I32">
+        <v>5210</v>
+      </c>
+      <c r="J32">
+        <v>9362</v>
+      </c>
+      <c r="K32">
+        <v>7503</v>
+      </c>
+      <c r="L32">
+        <v>74386</v>
+      </c>
+      <c r="M32">
+        <v>324445</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="1"/>
+        <v>683</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>1036</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="3"/>
+        <v>27481</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="0"/>
+        <v>0.18958553182198609</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>24753</v>
+      </c>
+      <c r="D33">
+        <v>3612</v>
+      </c>
+      <c r="E33">
+        <v>28365</v>
+      </c>
+      <c r="F33">
+        <v>33648</v>
+      </c>
+      <c r="G33">
+        <v>62013</v>
+      </c>
+      <c r="H33">
+        <v>4492</v>
+      </c>
+      <c r="I33">
+        <v>6153</v>
+      </c>
+      <c r="J33">
+        <v>10361</v>
+      </c>
+      <c r="K33">
+        <v>8165</v>
+      </c>
+      <c r="L33">
+        <v>80539</v>
+      </c>
+      <c r="M33">
+        <v>361060</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="1"/>
+        <v>662</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>999</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="3"/>
+        <v>36615</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="0"/>
+        <v>0.16804588283490374</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>26029</v>
+      </c>
+      <c r="D34">
+        <v>3732</v>
+      </c>
+      <c r="E34">
+        <v>29761</v>
+      </c>
+      <c r="F34">
+        <v>36653</v>
+      </c>
+      <c r="G34">
+        <v>66414</v>
+      </c>
+      <c r="H34">
+        <v>4401</v>
+      </c>
+      <c r="I34">
+        <v>5959</v>
+      </c>
+      <c r="J34">
+        <v>10950</v>
+      </c>
+      <c r="K34">
+        <v>9134</v>
+      </c>
+      <c r="L34">
+        <v>86498</v>
+      </c>
+      <c r="M34">
+        <v>394079</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="1"/>
+        <v>969</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="2"/>
+        <v>589</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="3"/>
+        <v>33019</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="0"/>
+        <v>0.18047184954117326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>26676</v>
+      </c>
+      <c r="D35">
+        <v>3856</v>
+      </c>
+      <c r="E35">
+        <v>30532</v>
+      </c>
+      <c r="F35">
+        <v>39533</v>
+      </c>
+      <c r="G35">
+        <v>70065</v>
+      </c>
+      <c r="H35">
+        <v>3651</v>
+      </c>
+      <c r="I35">
+        <v>5974</v>
+      </c>
+      <c r="J35">
+        <v>12384</v>
+      </c>
+      <c r="K35">
+        <v>10023</v>
+      </c>
+      <c r="L35">
+        <v>92472</v>
+      </c>
+      <c r="M35">
+        <v>429526</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="1"/>
+        <v>889</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="2"/>
+        <v>1434</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="3"/>
+        <v>35447</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="0"/>
+        <v>0.16853330324145907</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>27386</v>
+      </c>
+      <c r="D36">
+        <v>3906</v>
+      </c>
+      <c r="E36">
+        <v>31292</v>
+      </c>
+      <c r="F36">
+        <v>42588</v>
+      </c>
+      <c r="G36">
+        <v>73880</v>
+      </c>
+      <c r="H36">
+        <v>3815</v>
+      </c>
+      <c r="I36">
+        <v>5217</v>
+      </c>
+      <c r="J36">
+        <v>13030</v>
+      </c>
+      <c r="K36">
+        <v>10779</v>
+      </c>
+      <c r="L36">
+        <v>97689</v>
+      </c>
+      <c r="M36">
+        <v>454030</v>
+      </c>
+      <c r="O36" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="1"/>
+        <v>756</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="2"/>
+        <v>646</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="3"/>
+        <v>24504</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="0"/>
+        <v>0.21290401567091088</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>27795</v>
+      </c>
+      <c r="D37">
+        <v>3981</v>
+      </c>
+      <c r="E37">
+        <v>31776</v>
+      </c>
+      <c r="F37">
+        <v>43752</v>
+      </c>
+      <c r="G37">
+        <v>75528</v>
+      </c>
+      <c r="H37">
+        <v>1648</v>
+      </c>
+      <c r="I37">
+        <v>4050</v>
+      </c>
+      <c r="J37">
+        <v>14620</v>
+      </c>
+      <c r="K37">
+        <v>11591</v>
+      </c>
+      <c r="L37">
+        <v>101739</v>
+      </c>
+      <c r="M37">
+        <v>477359</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="1"/>
+        <v>812</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="2"/>
+        <v>1590</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="3"/>
+        <v>23329</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="0"/>
+        <v>0.17360366925286125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>28192</v>
+      </c>
+      <c r="D38">
+        <v>4023</v>
+      </c>
+      <c r="E38">
+        <v>32215</v>
+      </c>
+      <c r="F38">
+        <v>45420</v>
+      </c>
+      <c r="G38">
+        <v>77635</v>
+      </c>
+      <c r="H38">
+        <v>2107</v>
+      </c>
+      <c r="I38">
+        <v>4053</v>
+      </c>
+      <c r="J38">
+        <v>15729</v>
+      </c>
+      <c r="K38">
+        <v>12428</v>
+      </c>
+      <c r="L38">
+        <v>105792</v>
+      </c>
+      <c r="M38">
+        <v>506968</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="1"/>
+        <v>837</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="2"/>
+        <v>1109</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="3"/>
+        <v>29609</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="0"/>
+        <v>0.13688405552365834</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>28403</v>
+      </c>
+      <c r="D39">
+        <v>4035</v>
+      </c>
+      <c r="E39">
+        <v>32438</v>
+      </c>
+      <c r="F39">
+        <v>48134</v>
+      </c>
+      <c r="G39">
+        <v>80572</v>
+      </c>
+      <c r="H39">
+        <v>2937</v>
+      </c>
+      <c r="I39">
+        <v>4782</v>
+      </c>
+      <c r="J39">
+        <v>16847</v>
+      </c>
+      <c r="K39">
+        <v>13155</v>
+      </c>
+      <c r="L39">
+        <v>110574</v>
+      </c>
+      <c r="M39">
+        <v>541423</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="1"/>
+        <v>727</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="2"/>
+        <v>1118</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="3"/>
+        <v>34455</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="0"/>
+        <v>0.13878972572921203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>28540</v>
+      </c>
+      <c r="D40">
+        <v>4053</v>
+      </c>
+      <c r="E40">
+        <v>32593</v>
+      </c>
+      <c r="F40">
+        <v>50456</v>
+      </c>
+      <c r="G40">
+        <v>83049</v>
+      </c>
+      <c r="H40">
+        <v>2477</v>
+      </c>
+      <c r="I40">
+        <v>4668</v>
+      </c>
+      <c r="J40">
+        <v>18278</v>
+      </c>
+      <c r="K40">
+        <v>13915</v>
+      </c>
+      <c r="L40">
+        <v>115242</v>
+      </c>
+      <c r="M40">
+        <v>581232</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="1"/>
+        <v>760</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="2"/>
+        <v>1431</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="3"/>
+        <v>39809</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="0"/>
+        <v>0.11725991609937451</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>28741</v>
+      </c>
+      <c r="D41">
+        <v>4068</v>
+      </c>
+      <c r="E41">
+        <v>32809</v>
+      </c>
+      <c r="F41">
+        <v>52579</v>
+      </c>
+      <c r="G41">
+        <v>85388</v>
+      </c>
+      <c r="H41">
+        <v>2339</v>
+      </c>
+      <c r="I41">
+        <v>4585</v>
+      </c>
+      <c r="J41">
+        <v>19758</v>
+      </c>
+      <c r="K41">
+        <v>14681</v>
+      </c>
+      <c r="L41">
+        <v>119827</v>
+      </c>
+      <c r="M41">
+        <v>619849</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="1"/>
+        <v>766</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="2"/>
+        <v>1480</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="3"/>
+        <v>38617</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="0"/>
+        <v>0.11873009296423855</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>29010</v>
+      </c>
+      <c r="D42">
+        <v>3994</v>
+      </c>
+      <c r="E42">
+        <v>33004</v>
+      </c>
+      <c r="F42">
+        <v>55270</v>
+      </c>
+      <c r="G42">
+        <v>88274</v>
+      </c>
+      <c r="H42">
+        <v>2886</v>
+      </c>
+      <c r="I42">
+        <v>4805</v>
+      </c>
+      <c r="J42">
+        <v>20996</v>
+      </c>
+      <c r="K42">
+        <v>15362</v>
+      </c>
+      <c r="L42">
+        <v>124632</v>
+      </c>
+      <c r="M42">
+        <v>657224</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="1"/>
+        <v>681</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="2"/>
+        <v>1238</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="3"/>
+        <v>37375</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="0"/>
+        <v>0.128561872909699</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>28949</v>
+      </c>
+      <c r="D43">
+        <v>3977</v>
+      </c>
+      <c r="E43">
+        <v>32926</v>
+      </c>
+      <c r="F43">
+        <v>58320</v>
+      </c>
+      <c r="G43">
+        <v>91246</v>
+      </c>
+      <c r="H43">
+        <v>2972</v>
+      </c>
+      <c r="I43">
+        <v>4316</v>
+      </c>
+      <c r="J43">
+        <v>21815</v>
+      </c>
+      <c r="K43">
+        <v>15887</v>
+      </c>
+      <c r="L43">
+        <v>128948</v>
+      </c>
+      <c r="M43">
+        <v>691461</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="2"/>
+        <v>819</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="3"/>
+        <v>34237</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="0"/>
+        <v>0.12606244706019804</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>28976</v>
+      </c>
+      <c r="D44">
+        <v>3898</v>
+      </c>
+      <c r="E44">
+        <v>32874</v>
+      </c>
+      <c r="F44">
+        <v>60313</v>
+      </c>
+      <c r="G44">
+        <v>93187</v>
+      </c>
+      <c r="H44">
+        <v>1941</v>
+      </c>
+      <c r="I44">
+        <v>3599</v>
+      </c>
+      <c r="J44">
+        <v>22837</v>
+      </c>
+      <c r="K44">
+        <v>16523</v>
+      </c>
+      <c r="L44">
+        <v>132547</v>
+      </c>
+      <c r="M44">
+        <v>721732</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="1"/>
+        <v>636</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="2"/>
+        <v>1022</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="3"/>
+        <v>30271</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="0"/>
+        <v>0.11889266955171617</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>28718</v>
+      </c>
+      <c r="D45">
+        <v>3792</v>
+      </c>
+      <c r="E45">
+        <v>32510</v>
+      </c>
+      <c r="F45">
+        <v>61557</v>
+      </c>
+      <c r="G45">
+        <v>94067</v>
+      </c>
+      <c r="H45">
+        <v>880</v>
+      </c>
+      <c r="I45">
+        <v>3039</v>
+      </c>
+      <c r="J45">
+        <v>24392</v>
+      </c>
+      <c r="K45">
+        <v>17127</v>
+      </c>
+      <c r="L45">
+        <v>135586</v>
+      </c>
+      <c r="M45">
+        <v>755445</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="1"/>
+        <v>604</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="2"/>
+        <v>1555</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="3"/>
+        <v>33713</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="0"/>
+        <v>9.0143268175481267E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>28485</v>
+      </c>
+      <c r="D46">
+        <v>3693</v>
+      </c>
+      <c r="E46">
+        <v>32178</v>
+      </c>
+      <c r="F46">
+        <v>63084</v>
+      </c>
+      <c r="G46">
+        <v>95262</v>
+      </c>
+      <c r="H46">
+        <v>1195</v>
+      </c>
+      <c r="I46">
+        <v>3836</v>
+      </c>
+      <c r="J46">
+        <v>26491</v>
+      </c>
+      <c r="K46">
+        <v>17669</v>
+      </c>
+      <c r="L46">
+        <v>139422</v>
+      </c>
+      <c r="M46">
+        <v>807125</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="1"/>
+        <v>542</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="2"/>
+        <v>2099</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="3"/>
+        <v>51680</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="0"/>
+        <v>7.4226006191950467E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>28399</v>
+      </c>
+      <c r="D47">
+        <v>3605</v>
+      </c>
+      <c r="E47">
+        <v>32004</v>
+      </c>
+      <c r="F47">
+        <v>64873</v>
+      </c>
+      <c r="G47">
+        <v>96877</v>
+      </c>
+      <c r="H47">
+        <v>1615</v>
+      </c>
+      <c r="I47">
+        <v>4204</v>
+      </c>
+      <c r="J47">
+        <v>28470</v>
+      </c>
+      <c r="K47">
+        <v>18279</v>
+      </c>
+      <c r="L47">
+        <v>143626</v>
+      </c>
+      <c r="M47">
+        <v>853369</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="1"/>
+        <v>610</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="2"/>
+        <v>1979</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="3"/>
+        <v>46244</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>28242</v>
+      </c>
+      <c r="D48">
+        <v>3497</v>
+      </c>
+      <c r="E48">
+        <v>31739</v>
+      </c>
+      <c r="F48">
+        <v>66534</v>
+      </c>
+      <c r="G48">
+        <v>98273</v>
+      </c>
+      <c r="H48">
+        <v>1396</v>
+      </c>
+      <c r="I48">
+        <v>3951</v>
+      </c>
+      <c r="J48">
+        <v>30455</v>
+      </c>
+      <c r="K48">
+        <v>18849</v>
+      </c>
+      <c r="L48">
+        <v>147577</v>
+      </c>
+      <c r="M48">
+        <v>906864</v>
+      </c>
+      <c r="O48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="2"/>
+        <v>1985</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="3"/>
+        <v>53495</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="0"/>
+        <v>7.3857369847649318E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>28144</v>
+      </c>
+      <c r="D49">
+        <v>3381</v>
+      </c>
+      <c r="E49">
+        <v>31525</v>
+      </c>
+      <c r="F49">
+        <v>68744</v>
+      </c>
+      <c r="G49">
+        <v>100269</v>
+      </c>
+      <c r="H49">
+        <v>1996</v>
+      </c>
+      <c r="I49">
+        <v>4694</v>
+      </c>
+      <c r="J49">
+        <v>32534</v>
+      </c>
+      <c r="K49">
+        <v>19468</v>
+      </c>
+      <c r="L49">
+        <v>152271</v>
+      </c>
+      <c r="M49">
+        <v>963473</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="1"/>
+        <v>619</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="2"/>
+        <v>2079</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="3"/>
+        <v>56609</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="0"/>
+        <v>8.2919677083149318E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>27847</v>
+      </c>
+      <c r="D50">
+        <v>3343</v>
+      </c>
+      <c r="E50">
+        <v>31190</v>
+      </c>
+      <c r="F50">
+        <v>71063</v>
+      </c>
+      <c r="G50">
+        <v>102253</v>
+      </c>
+      <c r="H50">
+        <v>1984</v>
+      </c>
+      <c r="I50">
+        <v>4092</v>
+      </c>
+      <c r="J50">
+        <v>34211</v>
+      </c>
+      <c r="K50">
+        <v>19899</v>
+      </c>
+      <c r="L50">
+        <v>156363</v>
+      </c>
+      <c r="M50">
+        <v>1010193</v>
+      </c>
+      <c r="O50" t="s">
+        <v>83</v>
+      </c>
+      <c r="P50" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="1"/>
+        <v>431</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="2"/>
+        <v>1677</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="3"/>
+        <v>46720</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="0"/>
+        <v>8.7585616438356162E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>28023</v>
+      </c>
+      <c r="D51">
+        <v>3260</v>
+      </c>
+      <c r="E51">
+        <v>31283</v>
+      </c>
+      <c r="F51">
+        <v>72333</v>
+      </c>
+      <c r="G51">
+        <v>103616</v>
+      </c>
+      <c r="H51">
+        <v>1363</v>
+      </c>
+      <c r="I51">
+        <v>3153</v>
+      </c>
+      <c r="J51">
+        <v>35435</v>
+      </c>
+      <c r="K51">
+        <v>20465</v>
+      </c>
+      <c r="L51">
+        <v>159516</v>
+      </c>
+      <c r="M51">
+        <v>1046910</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="1"/>
+        <v>566</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="2"/>
+        <v>1224</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="3"/>
+        <v>36717</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="0"/>
+        <v>8.5873028842225668E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>28011</v>
+      </c>
+      <c r="D52">
+        <v>3186</v>
+      </c>
+      <c r="E52">
+        <v>31197</v>
+      </c>
+      <c r="F52">
+        <v>73094</v>
+      </c>
+      <c r="G52">
+        <v>104291</v>
+      </c>
+      <c r="H52">
+        <v>675</v>
+      </c>
+      <c r="I52">
+        <v>2972</v>
+      </c>
+      <c r="J52">
+        <v>37130</v>
+      </c>
+      <c r="K52">
+        <v>21067</v>
+      </c>
+      <c r="L52">
+        <v>162488</v>
+      </c>
+      <c r="M52">
+        <v>1073689</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="1"/>
+        <v>602</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="2"/>
+        <v>1695</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="3"/>
+        <v>26779</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="0"/>
+        <v>0.11098248627655999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>27643</v>
+      </c>
+      <c r="D53">
+        <v>3079</v>
+      </c>
+      <c r="E53">
+        <v>30722</v>
+      </c>
+      <c r="F53">
+        <v>74696</v>
+      </c>
+      <c r="G53">
+        <v>105418</v>
+      </c>
+      <c r="H53">
+        <v>1127</v>
+      </c>
+      <c r="I53">
+        <v>2667</v>
+      </c>
+      <c r="J53">
+        <v>38092</v>
+      </c>
+      <c r="K53">
+        <v>21645</v>
+      </c>
+      <c r="L53">
+        <v>165155</v>
+      </c>
+      <c r="M53">
+        <v>1117404</v>
+      </c>
+      <c r="O53" t="s">
+        <v>88</v>
+      </c>
+      <c r="P53" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="1"/>
+        <v>578</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="2"/>
+        <v>962</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="3"/>
+        <v>43715</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="0"/>
+        <v>6.1008807045636507E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>26893</v>
+      </c>
+      <c r="D54">
+        <v>2936</v>
+      </c>
+      <c r="E54">
+        <v>29829</v>
+      </c>
+      <c r="F54">
+        <v>76778</v>
+      </c>
+      <c r="G54">
+        <v>106607</v>
+      </c>
+      <c r="H54">
+        <v>1189</v>
+      </c>
+      <c r="I54">
+        <v>3786</v>
+      </c>
+      <c r="J54">
+        <v>40164</v>
+      </c>
+      <c r="K54">
+        <v>22170</v>
+      </c>
+      <c r="L54">
+        <v>168941</v>
+      </c>
+      <c r="M54">
+        <v>1178403</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>525</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="2"/>
+        <v>2072</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="3"/>
+        <v>60999</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="0"/>
+        <v>6.2066591255594356E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>25786</v>
+      </c>
+      <c r="D55">
+        <v>2812</v>
+      </c>
+      <c r="E55">
+        <v>28598</v>
+      </c>
+      <c r="F55">
+        <v>78364</v>
+      </c>
+      <c r="G55">
+        <v>106962</v>
+      </c>
+      <c r="H55">
+        <v>355</v>
+      </c>
+      <c r="I55">
+        <v>3493</v>
+      </c>
+      <c r="J55">
+        <v>42727</v>
+      </c>
+      <c r="K55">
+        <v>22745</v>
+      </c>
+      <c r="L55">
+        <v>172434</v>
+      </c>
+      <c r="M55">
+        <v>1244108</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>575</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="2"/>
+        <v>2563</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="3"/>
+        <v>65705</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="0"/>
+        <v>5.316185982801918E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>25007</v>
+      </c>
+      <c r="D56">
+        <v>2733</v>
+      </c>
+      <c r="E56">
+        <v>27740</v>
+      </c>
+      <c r="F56">
+        <v>80031</v>
+      </c>
+      <c r="G56">
+        <v>107771</v>
+      </c>
+      <c r="H56">
+        <v>809</v>
+      </c>
+      <c r="I56">
+        <v>3491</v>
+      </c>
+      <c r="J56">
+        <v>44927</v>
+      </c>
+      <c r="K56">
+        <v>23227</v>
+      </c>
+      <c r="L56">
+        <v>175925</v>
+      </c>
+      <c r="M56">
+        <v>1305833</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>482</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="2"/>
+        <v>2200</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="3"/>
+        <v>61725</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="0"/>
+        <v>5.6557310652085864E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>25033</v>
+      </c>
+      <c r="D57">
+        <v>2635</v>
+      </c>
+      <c r="E57">
+        <v>27668</v>
+      </c>
+      <c r="F57">
+        <v>80589</v>
+      </c>
+      <c r="G57">
+        <v>108257</v>
+      </c>
+      <c r="H57">
+        <v>486</v>
+      </c>
+      <c r="I57">
+        <v>3047</v>
+      </c>
+      <c r="J57">
+        <v>47055</v>
+      </c>
+      <c r="K57">
+        <v>23660</v>
+      </c>
+      <c r="L57">
+        <v>178972</v>
+      </c>
+      <c r="M57">
+        <v>1356541</v>
+      </c>
+      <c r="N57">
+        <v>935310</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>433</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="2"/>
+        <v>2128</v>
+      </c>
+      <c r="S57">
+        <f t="shared" si="3"/>
+        <v>50708</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="0"/>
+        <v>6.0089137808629803E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>24906</v>
+      </c>
+      <c r="D58">
+        <v>2573</v>
+      </c>
+      <c r="E58">
+        <v>27479</v>
+      </c>
+      <c r="F58">
+        <v>80758</v>
+      </c>
+      <c r="G58">
+        <v>108237</v>
+      </c>
+      <c r="H58">
+        <v>-20</v>
+      </c>
+      <c r="I58">
+        <v>2256</v>
+      </c>
+      <c r="J58">
+        <v>48877</v>
+      </c>
+      <c r="K58">
+        <v>24114</v>
+      </c>
+      <c r="L58">
+        <v>181228</v>
+      </c>
+      <c r="M58">
+        <v>1398024</v>
+      </c>
+      <c r="N58">
+        <v>943151</v>
+      </c>
+      <c r="O58" t="s">
+        <v>96</v>
+      </c>
+      <c r="P58" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>454</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="2"/>
+        <v>1822</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="3"/>
+        <v>41483</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="0"/>
+        <v>5.4383723452980738E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>24134</v>
+      </c>
+      <c r="D59">
+        <v>2471</v>
+      </c>
+      <c r="E59">
+        <v>26605</v>
+      </c>
+      <c r="F59">
+        <v>81104</v>
+      </c>
+      <c r="G59">
+        <v>107709</v>
+      </c>
+      <c r="H59">
+        <v>-528</v>
+      </c>
+      <c r="I59">
+        <v>2729</v>
+      </c>
+      <c r="J59">
+        <v>51600</v>
+      </c>
+      <c r="K59">
+        <v>24648</v>
+      </c>
+      <c r="L59">
+        <v>183957</v>
+      </c>
+      <c r="M59">
+        <v>1450150</v>
+      </c>
+      <c r="N59">
+        <v>971246</v>
+      </c>
+      <c r="O59" t="s">
+        <v>99</v>
+      </c>
+      <c r="P59" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>534</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="2"/>
+        <v>2723</v>
+      </c>
+      <c r="S59">
+        <f t="shared" si="3"/>
+        <v>52126</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="0"/>
+        <v>5.2353911675555385E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>23805</v>
+      </c>
+      <c r="D60">
+        <v>2384</v>
+      </c>
+      <c r="E60">
+        <v>26189</v>
+      </c>
+      <c r="F60">
+        <v>81510</v>
+      </c>
+      <c r="G60">
+        <v>107699</v>
+      </c>
+      <c r="H60">
+        <v>-10</v>
+      </c>
+      <c r="I60">
+        <v>3370</v>
+      </c>
+      <c r="J60">
+        <v>54543</v>
+      </c>
+      <c r="K60">
+        <v>25085</v>
+      </c>
+      <c r="L60">
+        <v>187327</v>
+      </c>
+      <c r="M60">
+        <v>1513251</v>
+      </c>
+      <c r="N60">
+        <v>1015494</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="1"/>
+        <v>437</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="2"/>
+        <v>2943</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="3"/>
+        <v>63101</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="0"/>
+        <v>5.3406443637977211E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>22871</v>
+      </c>
+      <c r="D61">
+        <v>2267</v>
+      </c>
+      <c r="E61">
+        <v>25138</v>
+      </c>
+      <c r="F61">
+        <v>81710</v>
+      </c>
+      <c r="G61">
+        <v>106848</v>
+      </c>
+      <c r="H61">
+        <v>-851</v>
+      </c>
+      <c r="I61">
+        <v>2646</v>
+      </c>
+      <c r="J61">
+        <v>57576</v>
+      </c>
+      <c r="K61">
+        <v>25549</v>
+      </c>
+      <c r="L61">
+        <v>189973</v>
+      </c>
+      <c r="M61">
+        <v>1579909</v>
+      </c>
+      <c r="N61">
+        <v>1052577</v>
+      </c>
+      <c r="O61" t="s">
+        <v>103</v>
+      </c>
+      <c r="P61" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="1"/>
+        <v>464</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="2"/>
+        <v>3033</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="3"/>
+        <v>66658</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="0"/>
+        <v>3.9695160370848213E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>22068</v>
+      </c>
+      <c r="D62">
+        <v>2173</v>
+      </c>
+      <c r="E62">
+        <v>24241</v>
+      </c>
+      <c r="F62">
+        <v>82286</v>
+      </c>
+      <c r="G62">
+        <v>106527</v>
+      </c>
+      <c r="H62">
+        <v>-321</v>
+      </c>
+      <c r="I62">
+        <v>3021</v>
+      </c>
+      <c r="J62">
+        <v>60498</v>
+      </c>
+      <c r="K62">
+        <v>25969</v>
+      </c>
+      <c r="L62">
+        <v>192994</v>
+      </c>
+      <c r="M62">
+        <v>1642356</v>
+      </c>
+      <c r="N62">
+        <v>1147850</v>
+      </c>
+      <c r="O62" t="s">
+        <v>108</v>
+      </c>
+      <c r="P62" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q62">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="2"/>
+        <v>2922</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="3"/>
+        <v>62447</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="0"/>
+        <v>4.8377023716111266E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>21533</v>
+      </c>
+      <c r="D63">
+        <v>2102</v>
+      </c>
+      <c r="E63">
+        <v>23635</v>
+      </c>
+      <c r="F63">
+        <v>82212</v>
+      </c>
+      <c r="G63">
+        <v>105847</v>
+      </c>
+      <c r="H63">
+        <v>-680</v>
+      </c>
+      <c r="I63">
+        <v>2357</v>
+      </c>
+      <c r="J63">
+        <v>63120</v>
+      </c>
+      <c r="K63">
+        <v>26384</v>
+      </c>
+      <c r="L63">
+        <v>195351</v>
+      </c>
+      <c r="M63">
+        <v>1707743</v>
+      </c>
+      <c r="N63">
+        <v>1186526</v>
+      </c>
+      <c r="Q63">
         <f t="shared" si="1"/>
         <v>415</v>
       </c>
-      <c r="S26">
+      <c r="R63">
         <f t="shared" si="2"/>
-        <v>17236</v>
+        <v>2622</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="3"/>
+        <v>65387</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="0"/>
+        <v>3.6046920641717772E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <v>16020</v>
-      </c>
-      <c r="D27">
-        <v>2655</v>
-      </c>
-      <c r="E27">
-        <v>18675</v>
-      </c>
-      <c r="F27">
-        <v>19185</v>
-      </c>
-      <c r="G27">
-        <v>37860</v>
-      </c>
-      <c r="H27">
-        <v>4670</v>
-      </c>
-      <c r="I27">
-        <v>5986</v>
-      </c>
-      <c r="J27">
-        <v>5129</v>
-      </c>
-      <c r="K27">
-        <v>4032</v>
-      </c>
-      <c r="L27">
-        <v>47021</v>
-      </c>
-      <c r="M27">
-        <v>206886</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="0"/>
-        <v>627</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="1"/>
-        <v>689</v>
-      </c>
-      <c r="S27">
-        <f t="shared" si="2"/>
-        <v>24109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <v>17708</v>
-      </c>
-      <c r="D28">
-        <v>2857</v>
-      </c>
-      <c r="E28">
-        <v>20565</v>
-      </c>
-      <c r="F28">
-        <v>22116</v>
-      </c>
-      <c r="G28">
-        <v>42681</v>
-      </c>
-      <c r="H28">
-        <v>4821</v>
-      </c>
-      <c r="I28">
-        <v>6557</v>
-      </c>
-      <c r="J28">
-        <v>6072</v>
-      </c>
-      <c r="K28">
-        <v>4825</v>
-      </c>
-      <c r="L28">
-        <v>53578</v>
-      </c>
-      <c r="M28">
-        <v>233222</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="0"/>
-        <v>793</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="1"/>
-        <v>943</v>
-      </c>
-      <c r="S28">
-        <f t="shared" si="2"/>
-        <v>26336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>19846</v>
-      </c>
-      <c r="D29">
-        <v>3009</v>
-      </c>
-      <c r="E29">
-        <v>22855</v>
-      </c>
-      <c r="F29">
-        <v>23783</v>
-      </c>
-      <c r="G29">
-        <v>46638</v>
-      </c>
-      <c r="H29">
-        <v>3957</v>
-      </c>
-      <c r="I29">
-        <v>5560</v>
-      </c>
-      <c r="J29">
-        <v>7024</v>
-      </c>
-      <c r="K29">
-        <v>5476</v>
-      </c>
-      <c r="L29">
-        <v>59138</v>
-      </c>
-      <c r="M29">
-        <v>258402</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="0"/>
-        <v>651</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="1"/>
-        <v>952</v>
-      </c>
-      <c r="S29">
-        <f t="shared" si="2"/>
-        <v>25180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>20692</v>
-      </c>
-      <c r="D30">
-        <v>3204</v>
-      </c>
-      <c r="E30">
-        <v>23896</v>
-      </c>
-      <c r="F30">
-        <v>26522</v>
-      </c>
-      <c r="G30">
-        <v>50418</v>
-      </c>
-      <c r="H30">
-        <v>3780</v>
-      </c>
-      <c r="I30">
-        <v>4789</v>
-      </c>
-      <c r="J30">
-        <v>7432</v>
-      </c>
-      <c r="K30">
-        <v>6077</v>
-      </c>
-      <c r="L30">
-        <v>63927</v>
-      </c>
-      <c r="M30">
-        <v>275468</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="0"/>
-        <v>601</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="1"/>
-        <v>408</v>
-      </c>
-      <c r="S30">
-        <f t="shared" si="2"/>
-        <v>17066</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <v>21937</v>
-      </c>
-      <c r="D31">
-        <v>3396</v>
-      </c>
-      <c r="E31">
-        <v>25333</v>
-      </c>
-      <c r="F31">
-        <v>28697</v>
-      </c>
-      <c r="G31">
-        <v>54030</v>
-      </c>
-      <c r="H31">
-        <v>3612</v>
-      </c>
-      <c r="I31">
-        <v>5249</v>
-      </c>
-      <c r="J31">
-        <v>8326</v>
-      </c>
-      <c r="K31">
-        <v>6820</v>
-      </c>
-      <c r="L31">
-        <v>69176</v>
-      </c>
-      <c r="M31">
-        <v>296964</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="0"/>
-        <v>743</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="1"/>
-        <v>894</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="2"/>
-        <v>21496</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>23112</v>
-      </c>
-      <c r="D32">
-        <v>3489</v>
-      </c>
-      <c r="E32">
-        <v>26601</v>
-      </c>
-      <c r="F32">
-        <v>30920</v>
-      </c>
-      <c r="G32">
-        <v>57521</v>
-      </c>
-      <c r="H32">
-        <v>3491</v>
-      </c>
-      <c r="I32">
-        <v>5210</v>
-      </c>
-      <c r="J32">
-        <v>9362</v>
-      </c>
-      <c r="K32">
-        <v>7503</v>
-      </c>
-      <c r="L32">
-        <v>74386</v>
-      </c>
-      <c r="M32">
-        <v>324445</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="0"/>
-        <v>683</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="1"/>
-        <v>1036</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="2"/>
-        <v>27481</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>24753</v>
-      </c>
-      <c r="D33">
-        <v>3612</v>
-      </c>
-      <c r="E33">
-        <v>28365</v>
-      </c>
-      <c r="F33">
-        <v>33648</v>
-      </c>
-      <c r="G33">
-        <v>62013</v>
-      </c>
-      <c r="H33">
-        <v>4492</v>
-      </c>
-      <c r="I33">
-        <v>6153</v>
-      </c>
-      <c r="J33">
-        <v>10361</v>
-      </c>
-      <c r="K33">
-        <v>8165</v>
-      </c>
-      <c r="L33">
-        <v>80539</v>
-      </c>
-      <c r="M33">
-        <v>361060</v>
-      </c>
-      <c r="O33" t="s">
-        <v>60</v>
-      </c>
-      <c r="P33" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="0"/>
-        <v>662</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="1"/>
-        <v>999</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="2"/>
-        <v>36615</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>26029</v>
-      </c>
-      <c r="D34">
-        <v>3732</v>
-      </c>
-      <c r="E34">
-        <v>29761</v>
-      </c>
-      <c r="F34">
-        <v>36653</v>
-      </c>
-      <c r="G34">
-        <v>66414</v>
-      </c>
-      <c r="H34">
-        <v>4401</v>
-      </c>
-      <c r="I34">
-        <v>5959</v>
-      </c>
-      <c r="J34">
-        <v>10950</v>
-      </c>
-      <c r="K34">
-        <v>9134</v>
-      </c>
-      <c r="L34">
-        <v>86498</v>
-      </c>
-      <c r="M34">
-        <v>394079</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="0"/>
-        <v>969</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="1"/>
-        <v>589</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="2"/>
-        <v>33019</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <v>26676</v>
-      </c>
-      <c r="D35">
-        <v>3856</v>
-      </c>
-      <c r="E35">
-        <v>30532</v>
-      </c>
-      <c r="F35">
-        <v>39533</v>
-      </c>
-      <c r="G35">
-        <v>70065</v>
-      </c>
-      <c r="H35">
-        <v>3651</v>
-      </c>
-      <c r="I35">
-        <v>5974</v>
-      </c>
-      <c r="J35">
-        <v>12384</v>
-      </c>
-      <c r="K35">
-        <v>10023</v>
-      </c>
-      <c r="L35">
-        <v>92472</v>
-      </c>
-      <c r="M35">
-        <v>429526</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="0"/>
-        <v>889</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="1"/>
-        <v>1434</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="2"/>
-        <v>35447</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <v>27386</v>
-      </c>
-      <c r="D36">
-        <v>3906</v>
-      </c>
-      <c r="E36">
-        <v>31292</v>
-      </c>
-      <c r="F36">
-        <v>42588</v>
-      </c>
-      <c r="G36">
-        <v>73880</v>
-      </c>
-      <c r="H36">
-        <v>3815</v>
-      </c>
-      <c r="I36">
-        <v>5217</v>
-      </c>
-      <c r="J36">
-        <v>13030</v>
-      </c>
-      <c r="K36">
-        <v>10779</v>
-      </c>
-      <c r="L36">
-        <v>97689</v>
-      </c>
-      <c r="M36">
-        <v>454030</v>
-      </c>
-      <c r="O36" t="s">
-        <v>65</v>
-      </c>
-      <c r="P36" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="0"/>
-        <v>756</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="1"/>
-        <v>646</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="2"/>
-        <v>24504</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37">
-        <v>27795</v>
-      </c>
-      <c r="D37">
-        <v>3981</v>
-      </c>
-      <c r="E37">
-        <v>31776</v>
-      </c>
-      <c r="F37">
-        <v>43752</v>
-      </c>
-      <c r="G37">
-        <v>75528</v>
-      </c>
-      <c r="H37">
-        <v>1648</v>
-      </c>
-      <c r="I37">
-        <v>4050</v>
-      </c>
-      <c r="J37">
-        <v>14620</v>
-      </c>
-      <c r="K37">
-        <v>11591</v>
-      </c>
-      <c r="L37">
-        <v>101739</v>
-      </c>
-      <c r="M37">
-        <v>477359</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" si="0"/>
-        <v>812</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="1"/>
-        <v>1590</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="2"/>
-        <v>23329</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38">
-        <v>28192</v>
-      </c>
-      <c r="D38">
-        <v>4023</v>
-      </c>
-      <c r="E38">
-        <v>32215</v>
-      </c>
-      <c r="F38">
-        <v>45420</v>
-      </c>
-      <c r="G38">
-        <v>77635</v>
-      </c>
-      <c r="H38">
-        <v>2107</v>
-      </c>
-      <c r="I38">
-        <v>4053</v>
-      </c>
-      <c r="J38">
-        <v>15729</v>
-      </c>
-      <c r="K38">
-        <v>12428</v>
-      </c>
-      <c r="L38">
-        <v>105792</v>
-      </c>
-      <c r="M38">
-        <v>506968</v>
-      </c>
-      <c r="Q38">
-        <f t="shared" si="0"/>
-        <v>837</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="1"/>
-        <v>1109</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="2"/>
-        <v>29609</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39">
-        <v>28403</v>
-      </c>
-      <c r="D39">
-        <v>4035</v>
-      </c>
-      <c r="E39">
-        <v>32438</v>
-      </c>
-      <c r="F39">
-        <v>48134</v>
-      </c>
-      <c r="G39">
-        <v>80572</v>
-      </c>
-      <c r="H39">
-        <v>2937</v>
-      </c>
-      <c r="I39">
-        <v>4782</v>
-      </c>
-      <c r="J39">
-        <v>16847</v>
-      </c>
-      <c r="K39">
-        <v>13155</v>
-      </c>
-      <c r="L39">
-        <v>110574</v>
-      </c>
-      <c r="M39">
-        <v>541423</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" si="0"/>
-        <v>727</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="1"/>
-        <v>1118</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="2"/>
-        <v>34455</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40">
-        <v>28540</v>
-      </c>
-      <c r="D40">
-        <v>4053</v>
-      </c>
-      <c r="E40">
-        <v>32593</v>
-      </c>
-      <c r="F40">
-        <v>50456</v>
-      </c>
-      <c r="G40">
-        <v>83049</v>
-      </c>
-      <c r="H40">
-        <v>2477</v>
-      </c>
-      <c r="I40">
-        <v>4668</v>
-      </c>
-      <c r="J40">
-        <v>18278</v>
-      </c>
-      <c r="K40">
-        <v>13915</v>
-      </c>
-      <c r="L40">
-        <v>115242</v>
-      </c>
-      <c r="M40">
-        <v>581232</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" si="0"/>
-        <v>760</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="1"/>
-        <v>1431</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="2"/>
-        <v>39809</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41">
-        <v>28741</v>
-      </c>
-      <c r="D41">
-        <v>4068</v>
-      </c>
-      <c r="E41">
-        <v>32809</v>
-      </c>
-      <c r="F41">
-        <v>52579</v>
-      </c>
-      <c r="G41">
-        <v>85388</v>
-      </c>
-      <c r="H41">
-        <v>2339</v>
-      </c>
-      <c r="I41">
-        <v>4585</v>
-      </c>
-      <c r="J41">
-        <v>19758</v>
-      </c>
-      <c r="K41">
-        <v>14681</v>
-      </c>
-      <c r="L41">
-        <v>119827</v>
-      </c>
-      <c r="M41">
-        <v>619849</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" si="0"/>
-        <v>766</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="1"/>
-        <v>1480</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="2"/>
-        <v>38617</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42">
-        <v>29010</v>
-      </c>
-      <c r="D42">
-        <v>3994</v>
-      </c>
-      <c r="E42">
-        <v>33004</v>
-      </c>
-      <c r="F42">
-        <v>55270</v>
-      </c>
-      <c r="G42">
-        <v>88274</v>
-      </c>
-      <c r="H42">
-        <v>2886</v>
-      </c>
-      <c r="I42">
-        <v>4805</v>
-      </c>
-      <c r="J42">
-        <v>20996</v>
-      </c>
-      <c r="K42">
-        <v>15362</v>
-      </c>
-      <c r="L42">
-        <v>124632</v>
-      </c>
-      <c r="M42">
-        <v>657224</v>
-      </c>
-      <c r="Q42">
-        <f t="shared" si="0"/>
-        <v>681</v>
-      </c>
-      <c r="R42">
-        <f t="shared" si="1"/>
-        <v>1238</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="2"/>
-        <v>37375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43">
-        <v>28949</v>
-      </c>
-      <c r="D43">
-        <v>3977</v>
-      </c>
-      <c r="E43">
-        <v>32926</v>
-      </c>
-      <c r="F43">
-        <v>58320</v>
-      </c>
-      <c r="G43">
-        <v>91246</v>
-      </c>
-      <c r="H43">
-        <v>2972</v>
-      </c>
-      <c r="I43">
-        <v>4316</v>
-      </c>
-      <c r="J43">
-        <v>21815</v>
-      </c>
-      <c r="K43">
-        <v>15887</v>
-      </c>
-      <c r="L43">
-        <v>128948</v>
-      </c>
-      <c r="M43">
-        <v>691461</v>
-      </c>
-      <c r="Q43">
-        <f t="shared" si="0"/>
-        <v>525</v>
-      </c>
-      <c r="R43">
-        <f t="shared" si="1"/>
-        <v>819</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="2"/>
-        <v>34237</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44">
-        <v>28976</v>
-      </c>
-      <c r="D44">
-        <v>3898</v>
-      </c>
-      <c r="E44">
-        <v>32874</v>
-      </c>
-      <c r="F44">
-        <v>60313</v>
-      </c>
-      <c r="G44">
-        <v>93187</v>
-      </c>
-      <c r="H44">
-        <v>1941</v>
-      </c>
-      <c r="I44">
-        <v>3599</v>
-      </c>
-      <c r="J44">
-        <v>22837</v>
-      </c>
-      <c r="K44">
-        <v>16523</v>
-      </c>
-      <c r="L44">
-        <v>132547</v>
-      </c>
-      <c r="M44">
-        <v>721732</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="0"/>
-        <v>636</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="1"/>
-        <v>1022</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="2"/>
-        <v>30271</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45">
-        <v>28718</v>
-      </c>
-      <c r="D45">
-        <v>3792</v>
-      </c>
-      <c r="E45">
-        <v>32510</v>
-      </c>
-      <c r="F45">
-        <v>61557</v>
-      </c>
-      <c r="G45">
-        <v>94067</v>
-      </c>
-      <c r="H45">
-        <v>880</v>
-      </c>
-      <c r="I45">
-        <v>3039</v>
-      </c>
-      <c r="J45">
-        <v>24392</v>
-      </c>
-      <c r="K45">
-        <v>17127</v>
-      </c>
-      <c r="L45">
-        <v>135586</v>
-      </c>
-      <c r="M45">
-        <v>755445</v>
-      </c>
-      <c r="Q45">
-        <f t="shared" si="0"/>
-        <v>604</v>
-      </c>
-      <c r="R45">
-        <f t="shared" si="1"/>
-        <v>1555</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="2"/>
-        <v>33713</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46">
-        <v>28485</v>
-      </c>
-      <c r="D46">
-        <v>3693</v>
-      </c>
-      <c r="E46">
-        <v>32178</v>
-      </c>
-      <c r="F46">
-        <v>63084</v>
-      </c>
-      <c r="G46">
-        <v>95262</v>
-      </c>
-      <c r="H46">
-        <v>1195</v>
-      </c>
-      <c r="I46">
-        <v>3836</v>
-      </c>
-      <c r="J46">
-        <v>26491</v>
-      </c>
-      <c r="K46">
-        <v>17669</v>
-      </c>
-      <c r="L46">
-        <v>139422</v>
-      </c>
-      <c r="M46">
-        <v>807125</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="0"/>
-        <v>542</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="1"/>
-        <v>2099</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="2"/>
-        <v>51680</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47">
-        <v>28399</v>
-      </c>
-      <c r="D47">
-        <v>3605</v>
-      </c>
-      <c r="E47">
-        <v>32004</v>
-      </c>
-      <c r="F47">
-        <v>64873</v>
-      </c>
-      <c r="G47">
-        <v>96877</v>
-      </c>
-      <c r="H47">
-        <v>1615</v>
-      </c>
-      <c r="I47">
-        <v>4204</v>
-      </c>
-      <c r="J47">
-        <v>28470</v>
-      </c>
-      <c r="K47">
-        <v>18279</v>
-      </c>
-      <c r="L47">
-        <v>143626</v>
-      </c>
-      <c r="M47">
-        <v>853369</v>
-      </c>
-      <c r="Q47">
-        <f t="shared" si="0"/>
-        <v>610</v>
-      </c>
-      <c r="R47">
-        <f t="shared" si="1"/>
-        <v>1979</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="2"/>
-        <v>46244</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <v>28242</v>
-      </c>
-      <c r="D48">
-        <v>3497</v>
-      </c>
-      <c r="E48">
-        <v>31739</v>
-      </c>
-      <c r="F48">
-        <v>66534</v>
-      </c>
-      <c r="G48">
-        <v>98273</v>
-      </c>
-      <c r="H48">
-        <v>1396</v>
-      </c>
-      <c r="I48">
-        <v>3951</v>
-      </c>
-      <c r="J48">
-        <v>30455</v>
-      </c>
-      <c r="K48">
-        <v>18849</v>
-      </c>
-      <c r="L48">
-        <v>147577</v>
-      </c>
-      <c r="M48">
-        <v>906864</v>
-      </c>
-      <c r="O48" t="s">
-        <v>79</v>
-      </c>
-      <c r="P48" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" si="0"/>
-        <v>570</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="1"/>
-        <v>1985</v>
-      </c>
-      <c r="S48">
-        <f t="shared" si="2"/>
-        <v>53495</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49">
-        <v>28144</v>
-      </c>
-      <c r="D49">
-        <v>3381</v>
-      </c>
-      <c r="E49">
-        <v>31525</v>
-      </c>
-      <c r="F49">
-        <v>68744</v>
-      </c>
-      <c r="G49">
-        <v>100269</v>
-      </c>
-      <c r="H49">
-        <v>1996</v>
-      </c>
-      <c r="I49">
-        <v>4694</v>
-      </c>
-      <c r="J49">
-        <v>32534</v>
-      </c>
-      <c r="K49">
-        <v>19468</v>
-      </c>
-      <c r="L49">
-        <v>152271</v>
-      </c>
-      <c r="M49">
-        <v>963473</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" si="0"/>
-        <v>619</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="1"/>
-        <v>2079</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="2"/>
-        <v>56609</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50">
-        <v>27847</v>
-      </c>
-      <c r="D50">
-        <v>3343</v>
-      </c>
-      <c r="E50">
-        <v>31190</v>
-      </c>
-      <c r="F50">
-        <v>71063</v>
-      </c>
-      <c r="G50">
-        <v>102253</v>
-      </c>
-      <c r="H50">
-        <v>1984</v>
-      </c>
-      <c r="I50">
-        <v>4092</v>
-      </c>
-      <c r="J50">
-        <v>34211</v>
-      </c>
-      <c r="K50">
-        <v>19899</v>
-      </c>
-      <c r="L50">
-        <v>156363</v>
-      </c>
-      <c r="M50">
-        <v>1010193</v>
-      </c>
-      <c r="O50" t="s">
-        <v>83</v>
-      </c>
-      <c r="P50" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" si="0"/>
-        <v>431</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="1"/>
-        <v>1677</v>
-      </c>
-      <c r="S50">
-        <f t="shared" si="2"/>
-        <v>46720</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B51" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51">
-        <v>28023</v>
-      </c>
-      <c r="D51">
-        <v>3260</v>
-      </c>
-      <c r="E51">
-        <v>31283</v>
-      </c>
-      <c r="F51">
-        <v>72333</v>
-      </c>
-      <c r="G51">
-        <v>103616</v>
-      </c>
-      <c r="H51">
-        <v>1363</v>
-      </c>
-      <c r="I51">
-        <v>3153</v>
-      </c>
-      <c r="J51">
-        <v>35435</v>
-      </c>
-      <c r="K51">
-        <v>20465</v>
-      </c>
-      <c r="L51">
-        <v>159516</v>
-      </c>
-      <c r="M51">
-        <v>1046910</v>
-      </c>
-      <c r="Q51">
-        <f t="shared" si="0"/>
-        <v>566</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="1"/>
-        <v>1224</v>
-      </c>
-      <c r="S51">
-        <f t="shared" si="2"/>
-        <v>36717</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52">
-        <v>28011</v>
-      </c>
-      <c r="D52">
-        <v>3186</v>
-      </c>
-      <c r="E52">
-        <v>31197</v>
-      </c>
-      <c r="F52">
-        <v>73094</v>
-      </c>
-      <c r="G52">
-        <v>104291</v>
-      </c>
-      <c r="H52">
-        <v>675</v>
-      </c>
-      <c r="I52">
-        <v>2972</v>
-      </c>
-      <c r="J52">
-        <v>37130</v>
-      </c>
-      <c r="K52">
-        <v>21067</v>
-      </c>
-      <c r="L52">
-        <v>162488</v>
-      </c>
-      <c r="M52">
-        <v>1073689</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" si="0"/>
-        <v>602</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="1"/>
-        <v>1695</v>
-      </c>
-      <c r="S52">
-        <f t="shared" si="2"/>
-        <v>26779</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53">
-        <v>27643</v>
-      </c>
-      <c r="D53">
-        <v>3079</v>
-      </c>
-      <c r="E53">
-        <v>30722</v>
-      </c>
-      <c r="F53">
-        <v>74696</v>
-      </c>
-      <c r="G53">
-        <v>105418</v>
-      </c>
-      <c r="H53">
-        <v>1127</v>
-      </c>
-      <c r="I53">
-        <v>2667</v>
-      </c>
-      <c r="J53">
-        <v>38092</v>
-      </c>
-      <c r="K53">
-        <v>21645</v>
-      </c>
-      <c r="L53">
-        <v>165155</v>
-      </c>
-      <c r="M53">
-        <v>1117404</v>
-      </c>
-      <c r="O53" t="s">
-        <v>88</v>
-      </c>
-      <c r="P53" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="0"/>
-        <v>578</v>
-      </c>
-      <c r="R53">
-        <f t="shared" si="1"/>
-        <v>962</v>
-      </c>
-      <c r="S53">
-        <f t="shared" si="2"/>
-        <v>43715</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B54" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54">
-        <v>26893</v>
-      </c>
-      <c r="D54">
-        <v>2936</v>
-      </c>
-      <c r="E54">
-        <v>29829</v>
-      </c>
-      <c r="F54">
-        <v>76778</v>
-      </c>
-      <c r="G54">
-        <v>106607</v>
-      </c>
-      <c r="H54">
-        <v>1189</v>
-      </c>
-      <c r="I54">
-        <v>3786</v>
-      </c>
-      <c r="J54">
-        <v>40164</v>
-      </c>
-      <c r="K54">
-        <v>22170</v>
-      </c>
-      <c r="L54">
-        <v>168941</v>
-      </c>
-      <c r="M54">
-        <v>1178403</v>
-      </c>
-      <c r="Q54">
-        <f t="shared" si="0"/>
-        <v>525</v>
-      </c>
-      <c r="R54">
-        <f t="shared" si="1"/>
-        <v>2072</v>
-      </c>
-      <c r="S54">
-        <f t="shared" si="2"/>
-        <v>60999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55">
-        <v>25786</v>
-      </c>
-      <c r="D55">
-        <v>2812</v>
-      </c>
-      <c r="E55">
-        <v>28598</v>
-      </c>
-      <c r="F55">
-        <v>78364</v>
-      </c>
-      <c r="G55">
-        <v>106962</v>
-      </c>
-      <c r="H55">
-        <v>355</v>
-      </c>
-      <c r="I55">
-        <v>3493</v>
-      </c>
-      <c r="J55">
-        <v>42727</v>
-      </c>
-      <c r="K55">
-        <v>22745</v>
-      </c>
-      <c r="L55">
-        <v>172434</v>
-      </c>
-      <c r="M55">
-        <v>1244108</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" si="0"/>
-        <v>575</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="1"/>
-        <v>2563</v>
-      </c>
-      <c r="S55">
-        <f t="shared" si="2"/>
-        <v>65705</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56">
-        <v>25007</v>
-      </c>
-      <c r="D56">
-        <v>2733</v>
-      </c>
-      <c r="E56">
-        <v>27740</v>
-      </c>
-      <c r="F56">
-        <v>80031</v>
-      </c>
-      <c r="G56">
-        <v>107771</v>
-      </c>
-      <c r="H56">
-        <v>809</v>
-      </c>
-      <c r="I56">
-        <v>3491</v>
-      </c>
-      <c r="J56">
-        <v>44927</v>
-      </c>
-      <c r="K56">
-        <v>23227</v>
-      </c>
-      <c r="L56">
-        <v>175925</v>
-      </c>
-      <c r="M56">
-        <v>1305833</v>
-      </c>
-      <c r="Q56">
-        <f t="shared" si="0"/>
-        <v>482</v>
-      </c>
-      <c r="R56">
-        <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-      <c r="S56">
-        <f t="shared" si="2"/>
-        <v>61725</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57">
-        <v>25033</v>
-      </c>
-      <c r="D57">
-        <v>2635</v>
-      </c>
-      <c r="E57">
-        <v>27668</v>
-      </c>
-      <c r="F57">
-        <v>80589</v>
-      </c>
-      <c r="G57">
-        <v>108257</v>
-      </c>
-      <c r="H57">
-        <v>486</v>
-      </c>
-      <c r="I57">
-        <v>3047</v>
-      </c>
-      <c r="J57">
-        <v>47055</v>
-      </c>
-      <c r="K57">
-        <v>23660</v>
-      </c>
-      <c r="L57">
-        <v>178972</v>
-      </c>
-      <c r="M57">
-        <v>1356541</v>
-      </c>
-      <c r="N57">
-        <v>935310</v>
-      </c>
-      <c r="Q57">
-        <f t="shared" si="0"/>
-        <v>433</v>
-      </c>
-      <c r="R57">
-        <f t="shared" si="1"/>
-        <v>2128</v>
-      </c>
-      <c r="S57">
-        <f t="shared" si="2"/>
-        <v>50708</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58">
-        <v>24906</v>
-      </c>
-      <c r="D58">
-        <v>2573</v>
-      </c>
-      <c r="E58">
-        <v>27479</v>
-      </c>
-      <c r="F58">
-        <v>80758</v>
-      </c>
-      <c r="G58">
-        <v>108237</v>
-      </c>
-      <c r="H58">
-        <v>-20</v>
-      </c>
-      <c r="I58">
-        <v>2256</v>
-      </c>
-      <c r="J58">
-        <v>48877</v>
-      </c>
-      <c r="K58">
-        <v>24114</v>
-      </c>
-      <c r="L58">
-        <v>181228</v>
-      </c>
-      <c r="M58">
-        <v>1398024</v>
-      </c>
-      <c r="N58">
-        <v>943151</v>
-      </c>
-      <c r="O58" t="s">
-        <v>96</v>
-      </c>
-      <c r="P58" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q58">
-        <f t="shared" si="0"/>
-        <v>454</v>
-      </c>
-      <c r="R58">
-        <f t="shared" si="1"/>
-        <v>1822</v>
-      </c>
-      <c r="S58">
-        <f t="shared" si="2"/>
-        <v>41483</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59">
-        <v>24134</v>
-      </c>
-      <c r="D59">
-        <v>2471</v>
-      </c>
-      <c r="E59">
-        <v>26605</v>
-      </c>
-      <c r="F59">
-        <v>81104</v>
-      </c>
-      <c r="G59">
-        <v>107709</v>
-      </c>
-      <c r="H59">
-        <v>-528</v>
-      </c>
-      <c r="I59">
-        <v>2729</v>
-      </c>
-      <c r="J59">
-        <v>51600</v>
-      </c>
-      <c r="K59">
-        <v>24648</v>
-      </c>
-      <c r="L59">
-        <v>183957</v>
-      </c>
-      <c r="M59">
-        <v>1450150</v>
-      </c>
-      <c r="N59">
-        <v>971246</v>
-      </c>
-      <c r="O59" t="s">
-        <v>99</v>
-      </c>
-      <c r="P59" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q59">
-        <f t="shared" si="0"/>
-        <v>534</v>
-      </c>
-      <c r="R59">
-        <f t="shared" si="1"/>
-        <v>2723</v>
-      </c>
-      <c r="S59">
-        <f t="shared" si="2"/>
-        <v>52126</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60">
-        <v>23805</v>
-      </c>
-      <c r="D60">
-        <v>2384</v>
-      </c>
-      <c r="E60">
-        <v>26189</v>
-      </c>
-      <c r="F60">
-        <v>81510</v>
-      </c>
-      <c r="G60">
-        <v>107699</v>
-      </c>
-      <c r="H60">
-        <v>-10</v>
-      </c>
-      <c r="I60">
-        <v>3370</v>
-      </c>
-      <c r="J60">
-        <v>54543</v>
-      </c>
-      <c r="K60">
-        <v>25085</v>
-      </c>
-      <c r="L60">
-        <v>187327</v>
-      </c>
-      <c r="M60">
-        <v>1513251</v>
-      </c>
-      <c r="N60">
-        <v>1015494</v>
-      </c>
-      <c r="Q60">
-        <f t="shared" si="0"/>
-        <v>437</v>
-      </c>
-      <c r="R60">
-        <f t="shared" si="1"/>
-        <v>2943</v>
-      </c>
-      <c r="S60">
-        <f t="shared" si="2"/>
-        <v>63101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61">
-        <v>22871</v>
-      </c>
-      <c r="D61">
-        <v>2267</v>
-      </c>
-      <c r="E61">
-        <v>25138</v>
-      </c>
-      <c r="F61">
-        <v>81710</v>
-      </c>
-      <c r="G61">
-        <v>106848</v>
-      </c>
-      <c r="H61">
-        <v>-851</v>
-      </c>
-      <c r="I61">
-        <v>2646</v>
-      </c>
-      <c r="J61">
-        <v>57576</v>
-      </c>
-      <c r="K61">
-        <v>25549</v>
-      </c>
-      <c r="L61">
-        <v>189973</v>
-      </c>
-      <c r="M61">
-        <v>1579909</v>
-      </c>
-      <c r="N61">
-        <v>1052577</v>
-      </c>
-      <c r="O61" t="s">
-        <v>103</v>
-      </c>
-      <c r="P61" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q61">
-        <f t="shared" si="0"/>
-        <v>464</v>
-      </c>
-      <c r="R61">
-        <f t="shared" si="1"/>
-        <v>3033</v>
-      </c>
-      <c r="S61">
-        <f t="shared" si="2"/>
-        <v>66658</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62">
-        <v>22068</v>
-      </c>
-      <c r="D62">
-        <v>2173</v>
-      </c>
-      <c r="E62">
-        <v>24241</v>
-      </c>
-      <c r="F62">
-        <v>82286</v>
-      </c>
-      <c r="G62">
-        <v>106527</v>
-      </c>
-      <c r="H62">
-        <v>-321</v>
-      </c>
-      <c r="I62">
-        <v>3021</v>
-      </c>
-      <c r="J62">
-        <v>60498</v>
-      </c>
-      <c r="K62">
-        <v>25969</v>
-      </c>
-      <c r="L62">
-        <v>192994</v>
-      </c>
-      <c r="M62">
-        <v>1642356</v>
-      </c>
-      <c r="N62">
-        <v>1147850</v>
-      </c>
-      <c r="O62" t="s">
-        <v>108</v>
-      </c>
-      <c r="P62" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q62">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="R62">
-        <f t="shared" si="1"/>
-        <v>2922</v>
-      </c>
-      <c r="S62">
-        <f t="shared" si="2"/>
-        <v>62447</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B63" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63">
-        <v>21533</v>
-      </c>
-      <c r="D63">
-        <v>2102</v>
-      </c>
-      <c r="E63">
-        <v>23635</v>
-      </c>
-      <c r="F63">
-        <v>82212</v>
-      </c>
-      <c r="G63">
-        <v>105847</v>
-      </c>
-      <c r="H63">
-        <v>-680</v>
-      </c>
-      <c r="I63">
-        <v>2357</v>
-      </c>
-      <c r="J63">
-        <v>63120</v>
-      </c>
-      <c r="K63">
-        <v>26384</v>
-      </c>
-      <c r="L63">
-        <v>195351</v>
-      </c>
-      <c r="M63">
-        <v>1707743</v>
-      </c>
-      <c r="N63">
-        <v>1186526</v>
-      </c>
-      <c r="Q63">
-        <f t="shared" si="0"/>
-        <v>415</v>
-      </c>
-      <c r="R63">
-        <f t="shared" si="1"/>
-        <v>2622</v>
-      </c>
-      <c r="S63">
-        <f t="shared" si="2"/>
-        <v>65387</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>110</v>
       </c>
@@ -39400,19 +41149,23 @@
         <v>112</v>
       </c>
       <c r="Q64">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="2"/>
+        <v>1808</v>
+      </c>
+      <c r="S64">
+        <f t="shared" si="3"/>
+        <v>49916</v>
+      </c>
+      <c r="T64">
         <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="R64">
-        <f t="shared" si="1"/>
-        <v>1808</v>
-      </c>
-      <c r="S64">
-        <f t="shared" si="2"/>
-        <v>49916</v>
+        <v>4.6558217805913939E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>114</v>
       </c>
@@ -39456,19 +41209,23 @@
         <v>1237317</v>
       </c>
       <c r="Q65">
+        <f t="shared" si="1"/>
+        <v>333</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="2"/>
+        <v>1696</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="3"/>
+        <v>32003</v>
+      </c>
+      <c r="T65">
         <f t="shared" si="0"/>
-        <v>333</v>
-      </c>
-      <c r="R65">
-        <f t="shared" si="1"/>
-        <v>1696</v>
-      </c>
-      <c r="S65">
-        <f t="shared" si="2"/>
-        <v>32003</v>
+        <v>5.433865575102334E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>115</v>
       </c>
@@ -39512,19 +41269,23 @@
         <v>1274871</v>
       </c>
       <c r="Q66">
+        <f t="shared" si="1"/>
+        <v>382</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="2"/>
+        <v>2317</v>
+      </c>
+      <c r="S66">
+        <f t="shared" si="3"/>
+        <v>57272</v>
+      </c>
+      <c r="T66">
         <f t="shared" si="0"/>
-        <v>382</v>
-      </c>
-      <c r="R66">
-        <f t="shared" si="1"/>
-        <v>2317</v>
-      </c>
-      <c r="S66">
-        <f t="shared" si="2"/>
-        <v>57272</v>
+        <v>3.6509987428411786E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>116</v>
       </c>
@@ -39568,19 +41329,23 @@
         <v>1313460</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>323</v>
       </c>
       <c r="R67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2311</v>
       </c>
       <c r="S67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>63827</v>
       </c>
+      <c r="T67">
+        <f t="shared" ref="T67:T81" si="4">I67/S67</f>
+        <v>3.2682093784761931E-2</v>
+      </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>117</v>
       </c>
@@ -39624,19 +41389,23 @@
         <v>1354901</v>
       </c>
       <c r="Q68">
-        <f t="shared" ref="Q68:Q80" si="3">K68-K67</f>
+        <f t="shared" ref="Q68:Q81" si="5">K68-K67</f>
         <v>285</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R80" si="4">J68-J67</f>
+        <f t="shared" ref="R68:R81" si="6">J68-J67</f>
         <v>4693</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S80" si="5">M68-M67</f>
+        <f t="shared" ref="S68:S81" si="7">M68-M67</f>
         <v>68456</v>
       </c>
+      <c r="T68">
+        <f t="shared" si="4"/>
+        <v>2.7346032488021504E-2</v>
+      </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>118</v>
       </c>
@@ -39686,19 +41455,23 @@
         <v>120</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>269</v>
       </c>
       <c r="R69">
+        <f t="shared" si="6"/>
+        <v>2304</v>
+      </c>
+      <c r="S69">
+        <f t="shared" si="7"/>
+        <v>74208</v>
+      </c>
+      <c r="T69">
         <f t="shared" si="4"/>
-        <v>2304</v>
-      </c>
-      <c r="S69">
-        <f t="shared" si="5"/>
-        <v>74208</v>
+        <v>2.6479624838292366E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>121</v>
       </c>
@@ -39748,19 +41521,23 @@
         <v>123</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>474</v>
       </c>
       <c r="R70">
+        <f t="shared" si="6"/>
+        <v>1665</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="7"/>
+        <v>55412</v>
+      </c>
+      <c r="T70">
         <f t="shared" si="4"/>
-        <v>1665</v>
-      </c>
-      <c r="S70">
-        <f t="shared" si="5"/>
-        <v>55412</v>
+        <v>3.4288601746914026E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>124</v>
       </c>
@@ -39804,19 +41581,23 @@
         <v>1456911</v>
       </c>
       <c r="Q71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>174</v>
       </c>
       <c r="R71">
+        <f t="shared" si="6"/>
+        <v>1740</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="7"/>
+        <v>44935</v>
+      </c>
+      <c r="T71">
         <f t="shared" si="4"/>
-        <v>1740</v>
-      </c>
-      <c r="S71">
-        <f t="shared" si="5"/>
-        <v>44935</v>
+        <v>3.091131634583287E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>125</v>
       </c>
@@ -39866,19 +41647,23 @@
         <v>127</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>195</v>
       </c>
       <c r="R72">
+        <f t="shared" si="6"/>
+        <v>1225</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="7"/>
+        <v>37631</v>
+      </c>
+      <c r="T72">
         <f t="shared" si="4"/>
-        <v>1225</v>
-      </c>
-      <c r="S72">
-        <f t="shared" si="5"/>
-        <v>37631</v>
+        <v>3.2446653025431163E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>128</v>
       </c>
@@ -39922,19 +41707,23 @@
         <v>1512121</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>236</v>
       </c>
       <c r="R73">
+        <f t="shared" si="6"/>
+        <v>2352</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="7"/>
+        <v>55263</v>
+      </c>
+      <c r="T73">
         <f t="shared" si="4"/>
-        <v>2352</v>
-      </c>
-      <c r="S73">
-        <f t="shared" si="5"/>
-        <v>55263</v>
+        <v>1.9452436530771042E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>129</v>
       </c>
@@ -39984,19 +41773,23 @@
         <v>131</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>369</v>
       </c>
       <c r="R74">
+        <f t="shared" si="6"/>
+        <v>8014</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="7"/>
+        <v>64263</v>
+      </c>
+      <c r="T74">
         <f t="shared" si="4"/>
-        <v>8014</v>
-      </c>
-      <c r="S74">
-        <f t="shared" si="5"/>
-        <v>64263</v>
+        <v>2.2470161679348927E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>132</v>
       </c>
@@ -40046,19 +41839,23 @@
         <v>134</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>274</v>
       </c>
       <c r="R75">
+        <f t="shared" si="6"/>
+        <v>3031</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="7"/>
+        <v>70359</v>
+      </c>
+      <c r="T75">
         <f t="shared" si="4"/>
-        <v>3031</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="5"/>
-        <v>70359</v>
+        <v>1.9912164755041997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>135</v>
       </c>
@@ -40108,19 +41905,23 @@
         <v>137</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>243</v>
       </c>
       <c r="R76">
+        <f t="shared" si="6"/>
+        <v>2747</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="7"/>
+        <v>63775</v>
+      </c>
+      <c r="T76">
         <f t="shared" si="4"/>
-        <v>2747</v>
-      </c>
-      <c r="S76">
-        <f t="shared" si="5"/>
-        <v>63775</v>
+        <v>2.0807526460211681E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>138</v>
       </c>
@@ -40164,19 +41965,23 @@
         <v>1645076</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>194</v>
       </c>
       <c r="R77">
+        <f t="shared" si="6"/>
+        <v>4008</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="7"/>
+        <v>69171</v>
+      </c>
+      <c r="T77">
         <f t="shared" si="4"/>
-        <v>4008</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="5"/>
-        <v>69171</v>
+        <v>1.5656850414190918E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>139</v>
       </c>
@@ -40220,19 +42025,23 @@
         <v>1676460</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>165</v>
       </c>
       <c r="R78">
+        <f t="shared" si="6"/>
+        <v>2155</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="7"/>
+        <v>51678</v>
+      </c>
+      <c r="T78">
         <f t="shared" si="4"/>
-        <v>2155</v>
-      </c>
-      <c r="S78">
-        <f t="shared" si="5"/>
-        <v>51678</v>
+        <v>1.5519176438716668E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>140</v>
       </c>
@@ -40276,19 +42085,23 @@
         <v>1702283</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>179</v>
       </c>
       <c r="R79">
+        <f t="shared" si="6"/>
+        <v>1401</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="7"/>
+        <v>40740</v>
+      </c>
+      <c r="T79">
         <f t="shared" si="4"/>
-        <v>1401</v>
-      </c>
-      <c r="S79">
-        <f t="shared" si="5"/>
-        <v>40740</v>
+        <v>1.8262150220913109E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>142</v>
       </c>
@@ -40338,16 +42151,80 @@
         <v>144</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>172</v>
       </c>
       <c r="R80">
+        <f t="shared" si="6"/>
+        <v>2452</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="7"/>
+        <v>67003</v>
+      </c>
+      <c r="T80">
         <f t="shared" si="4"/>
-        <v>2452</v>
-      </c>
-      <c r="S80">
+        <v>2.0924436219273763E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>12172</v>
+      </c>
+      <c r="D81">
+        <v>893</v>
+      </c>
+      <c r="E81">
+        <v>13065</v>
+      </c>
+      <c r="F81">
+        <v>65392</v>
+      </c>
+      <c r="G81">
+        <v>78457</v>
+      </c>
+      <c r="H81">
+        <v>-2809</v>
+      </c>
+      <c r="I81">
+        <v>888</v>
+      </c>
+      <c r="J81">
+        <v>112541</v>
+      </c>
+      <c r="K81">
+        <v>31106</v>
+      </c>
+      <c r="L81">
+        <v>222104</v>
+      </c>
+      <c r="M81">
+        <v>2735628</v>
+      </c>
+      <c r="N81">
+        <v>1778952</v>
+      </c>
+      <c r="Q81">
         <f t="shared" si="5"/>
-        <v>67003</v>
+        <v>195</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="6"/>
+        <v>3502</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="7"/>
+        <v>61973</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="4"/>
+        <v>1.43288206154293E-2</v>
       </c>
     </row>
   </sheetData>
@@ -40364,8 +42241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/andamento_nazionale.xlsx
+++ b/andamento_nazionale.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Grafici log" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$A$1:$P$81</definedName>
+    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$A$1:$P$85</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="154">
   <si>
     <t>data</t>
   </si>
@@ -494,6 +494,27 @@
   <si>
     <t>nuovi pos/tamponi</t>
   </si>
+  <si>
+    <t>2020-05-14T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0029</t>
+  </si>
+  <si>
+    <t>dc-EN-0029</t>
+  </si>
+  <si>
+    <t>2020-05-15T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0031</t>
+  </si>
+  <si>
+    <t>dc-EN-0031</t>
+  </si>
+  <si>
+    <t>2020-05-16T17:00:00</t>
+  </si>
 </sst>
 </file>
 
@@ -638,9 +659,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -880,16 +901,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$C$2:$C$81</c:f>
+              <c:f>'dati PCM-DPC'!$C$2:$C$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1129,6 +1159,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>12172</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11453</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10792</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,9 +1422,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1625,16 +1664,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$81</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -1874,6 +1922,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>222104</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>223096</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>223885</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>224760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2128,9 +2185,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -2370,16 +2427,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$81</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -2619,6 +2685,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2735628</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2807504</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2875680</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2944859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2903,9 +2978,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3145,16 +3220,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$81</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3394,6 +3478,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>112541</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>115288</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>120205</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>122810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3433,9 +3526,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3675,16 +3768,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$81</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -3924,6 +4026,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>31106</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>31368</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>31610</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>31763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4209,9 +4320,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -4451,16 +4562,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$Q$2:$Q$81</c:f>
+              <c:f>'dati PCM-DPC'!$Q$2:$Q$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4700,6 +4820,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4952,9 +5081,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5194,16 +5323,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$R$2:$R$81</c:f>
+              <c:f>'dati PCM-DPC'!$R$2:$R$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5443,6 +5581,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>3502</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2747</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4917</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5695,9 +5842,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5937,16 +6084,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$S$2:$S$81</c:f>
+              <c:f>'dati PCM-DPC'!$S$2:$S$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -6186,6 +6342,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>61973</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>71876</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>68176</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>69179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6438,9 +6603,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -6680,16 +6845,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$T$2:$T$81</c:f>
+              <c:f>'dati PCM-DPC'!$T$2:$T$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>5.1110083256244221E-2</c:v>
                 </c:pt>
@@ -6929,6 +7103,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>1.43288206154293E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3801547108909788E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.1572987561605257E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.2648347041732318E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,6 +7302,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7182,9 +7366,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -7424,16 +7608,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$C$2:$C$81</c:f>
+              <c:f>'dati PCM-DPC'!$C$2:$C$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -7673,6 +7866,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>12172</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>11453</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>10792</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7864,6 +8066,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7927,9 +8130,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -8169,16 +8372,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$81</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -8418,6 +8630,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8609,6 +8830,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8672,9 +8894,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -8914,16 +9136,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$81</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -9163,6 +9394,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>13065</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12308</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>11175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9418,9 +9658,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -9660,16 +9900,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$81</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -9909,6 +10158,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10099,6 +10357,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10162,9 +10421,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -10404,16 +10663,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$81</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -10653,6 +10921,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>65392</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>64132</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>60470</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>59012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10844,6 +11121,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10907,9 +11185,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -11149,16 +11427,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$81</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -11398,6 +11685,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>78457</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>76440</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>72070</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>70187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11589,6 +11885,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11652,9 +11949,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -11894,16 +12191,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$81</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12143,6 +12449,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>-2809</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2017</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-4370</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12334,6 +12649,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12397,9 +12713,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -12639,16 +12955,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$81</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -12888,6 +13213,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13079,6 +13413,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13142,9 +13477,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13384,16 +13719,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$81</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -13633,6 +13977,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>112541</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>115288</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>120205</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>122810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13824,6 +14177,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13887,9 +14241,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14129,16 +14483,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$81</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -14378,6 +14741,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>31106</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>31368</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>31610</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>31763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14569,6 +14941,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14632,9 +15005,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14874,16 +15247,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$81</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -15123,6 +15505,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>222104</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>223096</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>223885</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>224760</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15314,6 +15705,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15377,9 +15769,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -15619,16 +16011,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$81</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -15868,6 +16269,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2735628</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2807504</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2875680</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2944859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16123,9 +16533,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -16365,16 +16775,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$81</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -16614,6 +17033,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>13065</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>12308</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11600</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>11175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16868,9 +17296,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -17110,16 +17538,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$81</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -17359,6 +17796,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>65392</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>64132</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>60470</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>59012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17613,9 +18059,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -17855,16 +18301,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$81</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -18104,6 +18559,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>78457</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>76440</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>72070</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>70187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18357,9 +18821,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -18599,16 +19063,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$81</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -18848,6 +19321,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>-2809</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-2017</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-4370</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-1883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19100,9 +19582,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19342,16 +19824,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$81</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -19591,6 +20082,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>888</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19844,9 +20344,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -20086,16 +20586,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$81</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -20335,6 +20844,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>112541</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>115288</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>120205</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>122810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20589,9 +21107,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$81</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
               <c:strCache>
-                <c:ptCount val="80"/>
+                <c:ptCount val="83"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -20831,16 +21349,25 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>2020-05-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2020-05-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2020-05-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2020-05-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$81</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$85</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="80"/>
+                <c:ptCount val="84"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -21080,6 +21607,15 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>31106</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>31368</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>31610</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>31763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -37363,10 +37899,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCellId="1" sqref="T1:T1048576 A1:A1048576"/>
+    <sheetView topLeftCell="E49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41341,7 +41877,7 @@
         <v>63827</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67:T81" si="4">I67/S67</f>
+        <f t="shared" ref="T67:T84" si="4">I67/S67</f>
         <v>3.2682093784761931E-2</v>
       </c>
     </row>
@@ -41389,15 +41925,15 @@
         <v>1354901</v>
       </c>
       <c r="Q68">
-        <f t="shared" ref="Q68:Q81" si="5">K68-K67</f>
+        <f t="shared" ref="Q68:Q84" si="5">K68-K67</f>
         <v>285</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R81" si="6">J68-J67</f>
+        <f t="shared" ref="R68:R84" si="6">J68-J67</f>
         <v>4693</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S81" si="7">M68-M67</f>
+        <f t="shared" ref="S68:S84" si="7">M68-M67</f>
         <v>68456</v>
       </c>
       <c r="T68">
@@ -42226,6 +42762,201 @@
         <f t="shared" si="4"/>
         <v>1.43288206154293E-2</v>
       </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>11453</v>
+      </c>
+      <c r="D82">
+        <v>855</v>
+      </c>
+      <c r="E82">
+        <v>12308</v>
+      </c>
+      <c r="F82">
+        <v>64132</v>
+      </c>
+      <c r="G82">
+        <v>76440</v>
+      </c>
+      <c r="H82">
+        <v>-2017</v>
+      </c>
+      <c r="I82">
+        <v>992</v>
+      </c>
+      <c r="J82">
+        <v>115288</v>
+      </c>
+      <c r="K82">
+        <v>31368</v>
+      </c>
+      <c r="L82">
+        <v>223096</v>
+      </c>
+      <c r="M82">
+        <v>2807504</v>
+      </c>
+      <c r="N82">
+        <v>1820083</v>
+      </c>
+      <c r="O82" t="s">
+        <v>148</v>
+      </c>
+      <c r="P82" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q82">
+        <f t="shared" si="5"/>
+        <v>262</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="6"/>
+        <v>2747</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="7"/>
+        <v>71876</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="4"/>
+        <v>1.3801547108909788E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>10792</v>
+      </c>
+      <c r="D83">
+        <v>808</v>
+      </c>
+      <c r="E83">
+        <v>11600</v>
+      </c>
+      <c r="F83">
+        <v>60470</v>
+      </c>
+      <c r="G83">
+        <v>72070</v>
+      </c>
+      <c r="H83">
+        <v>-4370</v>
+      </c>
+      <c r="I83">
+        <v>789</v>
+      </c>
+      <c r="J83">
+        <v>120205</v>
+      </c>
+      <c r="K83">
+        <v>31610</v>
+      </c>
+      <c r="L83">
+        <v>223885</v>
+      </c>
+      <c r="M83">
+        <v>2875680</v>
+      </c>
+      <c r="N83">
+        <v>1859110</v>
+      </c>
+      <c r="O83" t="s">
+        <v>151</v>
+      </c>
+      <c r="P83" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="5"/>
+        <v>242</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="6"/>
+        <v>4917</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="7"/>
+        <v>68176</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="4"/>
+        <v>1.1572987561605257E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>10400</v>
+      </c>
+      <c r="D84">
+        <v>775</v>
+      </c>
+      <c r="E84">
+        <v>11175</v>
+      </c>
+      <c r="F84">
+        <v>59012</v>
+      </c>
+      <c r="G84">
+        <v>70187</v>
+      </c>
+      <c r="H84">
+        <v>-1883</v>
+      </c>
+      <c r="I84">
+        <v>875</v>
+      </c>
+      <c r="J84">
+        <v>122810</v>
+      </c>
+      <c r="K84">
+        <v>31763</v>
+      </c>
+      <c r="L84">
+        <v>224760</v>
+      </c>
+      <c r="M84">
+        <v>2944859</v>
+      </c>
+      <c r="N84">
+        <v>1899767</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="5"/>
+        <v>153</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="6"/>
+        <v>2605</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="7"/>
+        <v>69179</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="4"/>
+        <v>1.2648347041732318E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
@@ -42241,7 +42972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
@@ -42256,7 +42987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>

--- a/andamento_nazionale.xlsx
+++ b/andamento_nazionale.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Grafici log" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$A$1:$P$85</definedName>
+    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$A$1:$P$87</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="158">
   <si>
     <t>data</t>
   </si>
@@ -515,6 +515,18 @@
   <si>
     <t>2020-05-16T17:00:00</t>
   </si>
+  <si>
+    <t>2020-05-17T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-05-18T17:00:00</t>
+  </si>
+  <si>
+    <t>pd-IT-0019</t>
+  </si>
+  <si>
+    <t>pd-EN-0019</t>
+  </si>
 </sst>
 </file>
 
@@ -659,9 +671,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -910,16 +922,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$C$2:$C$85</c:f>
+              <c:f>'dati PCM-DPC'!$C$2:$C$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1168,6 +1186,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10311</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1422,9 +1446,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1673,16 +1697,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$85</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -1931,6 +1961,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>224760</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>225435</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>225886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2185,9 +2221,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -2436,16 +2472,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$85</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -2694,6 +2736,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2944859</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3004960</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3041366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2978,9 +3026,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3229,16 +3277,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$85</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3487,6 +3541,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>122810</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>125176</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>127326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3526,9 +3586,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3777,16 +3837,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$85</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4035,6 +4101,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>31763</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>31908</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>32007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4320,9 +4392,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -4571,16 +4643,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$Q$2:$Q$84</c:f>
+              <c:f>'dati PCM-DPC'!$Q$2:$Q$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4829,6 +4907,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5081,9 +5165,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5332,16 +5416,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$R$2:$R$84</c:f>
+              <c:f>'dati PCM-DPC'!$R$2:$R$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5590,6 +5680,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2605</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2366</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5842,9 +5938,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -6093,16 +6189,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$S$2:$S$84</c:f>
+              <c:f>'dati PCM-DPC'!$S$2:$S$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -6351,6 +6453,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>69179</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>60101</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>36406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6603,9 +6711,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -6854,16 +6962,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$T$2:$T$84</c:f>
+              <c:f>'dati PCM-DPC'!$T$2:$T$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>5.1110083256244221E-2</c:v>
                 </c:pt>
@@ -7112,6 +7226,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1.2648347041732318E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.1231094324553667E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2388067900895456E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7302,7 +7422,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7366,9 +7485,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -7617,16 +7736,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$C$2:$C$85</c:f>
+              <c:f>'dati PCM-DPC'!$C$2:$C$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -7875,6 +8000,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>10400</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>10311</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8066,7 +8197,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8130,9 +8260,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -8381,16 +8511,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$85</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -8639,6 +8775,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8830,7 +8972,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8894,9 +9035,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -9145,16 +9286,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$85</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -9403,6 +9550,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>11175</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11073</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9658,9 +9811,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -9909,16 +10062,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$85</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -10167,6 +10326,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10357,7 +10522,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10421,9 +10585,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -10672,16 +10836,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$85</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -10930,6 +11100,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>59012</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>57278</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>55597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11121,7 +11297,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11185,9 +11360,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -11436,16 +11611,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$85</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -11694,6 +11875,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>70187</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>68351</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>66553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11885,7 +12072,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11949,9 +12135,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -12200,16 +12386,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$85</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12458,6 +12650,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-1883</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1836</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12649,7 +12847,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12713,9 +12910,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -12964,16 +13161,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$85</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -13222,6 +13425,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13413,7 +13622,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13477,9 +13685,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13728,16 +13936,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$85</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -13986,6 +14200,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>122810</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>125176</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>127326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14177,7 +14397,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14241,9 +14460,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14492,16 +14711,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$85</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -14750,6 +14975,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>31763</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>31908</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>32007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14941,7 +15172,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15005,9 +15235,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -15256,16 +15486,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$85</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -15514,6 +15750,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>224760</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>225435</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>225886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15705,7 +15947,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15769,9 +16010,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -16020,16 +16261,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$85</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -16278,6 +16525,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2944859</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3004960</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3041366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16533,9 +16786,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -16784,16 +17037,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$85</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -17042,6 +17301,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>11175</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11073</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>10956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17296,9 +17561,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -17547,16 +17812,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$85</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -17805,6 +18076,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>59012</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>57278</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>55597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18059,9 +18336,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -18310,16 +18587,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$85</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -18568,6 +18851,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>70187</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>68351</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>66553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18821,9 +19110,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19072,16 +19361,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$85</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -19330,6 +19625,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>-1883</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-1836</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-1798</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19582,9 +19883,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19833,16 +20134,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$85</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -20091,6 +20398,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>451</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20344,9 +20657,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -20595,16 +20908,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$85</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -20853,6 +21172,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>122810</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>125176</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>127326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21107,9 +21432,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$85</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
               <c:strCache>
-                <c:ptCount val="83"/>
+                <c:ptCount val="85"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -21358,16 +21683,22 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>2020-05-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2020-05-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020-05-18T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$85</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$87</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="86"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -21616,6 +21947,12 @@
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>31763</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>31908</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>32007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -37899,10 +38236,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T85"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView topLeftCell="E49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T75" sqref="T75:T86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41877,7 +42214,7 @@
         <v>63827</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67:T84" si="4">I67/S67</f>
+        <f t="shared" ref="T67:T86" si="4">I67/S67</f>
         <v>3.2682093784761931E-2</v>
       </c>
     </row>
@@ -41925,15 +42262,15 @@
         <v>1354901</v>
       </c>
       <c r="Q68">
-        <f t="shared" ref="Q68:Q84" si="5">K68-K67</f>
+        <f t="shared" ref="Q68:Q86" si="5">K68-K67</f>
         <v>285</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R84" si="6">J68-J67</f>
+        <f t="shared" ref="R68:R86" si="6">J68-J67</f>
         <v>4693</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S84" si="7">M68-M67</f>
+        <f t="shared" ref="S68:S86" si="7">M68-M67</f>
         <v>68456</v>
       </c>
       <c r="T68">
@@ -42956,7 +43293,133 @@
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>10311</v>
+      </c>
+      <c r="D85">
+        <v>762</v>
+      </c>
+      <c r="E85">
+        <v>11073</v>
+      </c>
+      <c r="F85">
+        <v>57278</v>
+      </c>
+      <c r="G85">
+        <v>68351</v>
+      </c>
+      <c r="H85">
+        <v>-1836</v>
+      </c>
+      <c r="I85">
+        <v>675</v>
+      </c>
+      <c r="J85">
+        <v>125176</v>
+      </c>
+      <c r="K85">
+        <v>31908</v>
+      </c>
+      <c r="L85">
+        <v>225435</v>
+      </c>
+      <c r="M85">
+        <v>3004960</v>
+      </c>
+      <c r="N85">
+        <v>1933272</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="6"/>
+        <v>2366</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="7"/>
+        <v>60101</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="4"/>
+        <v>1.1231094324553667E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>10207</v>
+      </c>
+      <c r="D86">
+        <v>749</v>
+      </c>
+      <c r="E86">
+        <v>10956</v>
+      </c>
+      <c r="F86">
+        <v>55597</v>
+      </c>
+      <c r="G86">
+        <v>66553</v>
+      </c>
+      <c r="H86">
+        <v>-1798</v>
+      </c>
+      <c r="I86">
+        <v>451</v>
+      </c>
+      <c r="J86">
+        <v>127326</v>
+      </c>
+      <c r="K86">
+        <v>32007</v>
+      </c>
+      <c r="L86">
+        <v>225886</v>
+      </c>
+      <c r="M86">
+        <v>3041366</v>
+      </c>
+      <c r="N86">
+        <v>1959373</v>
+      </c>
+      <c r="O86" t="s">
+        <v>156</v>
+      </c>
+      <c r="P86" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="6"/>
+        <v>2150</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="7"/>
+        <v>36406</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="4"/>
+        <v>1.2388067900895456E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">

--- a/andamento_nazionale.xlsx
+++ b/andamento_nazionale.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Grafici log" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$A$1:$P$87</definedName>
+    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$A$1:$P$93</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="168">
   <si>
     <t>data</t>
   </si>
@@ -527,6 +527,36 @@
   <si>
     <t>pd-EN-0019</t>
   </si>
+  <si>
+    <t>2020-05-19T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0033</t>
+  </si>
+  <si>
+    <t>dc-EN-0033</t>
+  </si>
+  <si>
+    <t>2020-05-20T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-05-21T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-05-22T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-05-23T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-05-24T17:00:00</t>
+  </si>
+  <si>
+    <t>pd-IT-0021</t>
+  </si>
+  <si>
+    <t>pd-EN-0021</t>
+  </si>
 </sst>
 </file>
 
@@ -671,9 +701,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -928,16 +958,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$C$2:$C$87</c:f>
+              <c:f>'dati PCM-DPC'!$C$2:$C$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1192,6 +1240,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>10207</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9991</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9624</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9269</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8957</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8695</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1446,9 +1512,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1703,16 +1769,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$87</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -1967,6 +2051,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>225886</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>226699</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>227364</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>228006</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>228658</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>229327</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>229858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2221,9 +2323,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -2478,16 +2580,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$87</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -2742,6 +2862,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>3041366</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3104524</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3171719</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3243398</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3318778</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3391188</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3447012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3026,9 +3164,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3283,16 +3421,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$87</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3547,6 +3703,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>127326</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>129401</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>132282</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>134560</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>136720</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>138840</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>140479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3586,9 +3760,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3843,16 +4017,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$87</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4107,6 +4299,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>32007</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>32169</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>32330</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>32486</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>32616</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>32735</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>32785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4392,9 +4602,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -4649,16 +4859,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$Q$2:$Q$86</c:f>
+              <c:f>'dati PCM-DPC'!$Q$2:$Q$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4913,6 +5141,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5165,9 +5411,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5422,16 +5668,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$R$2:$R$86</c:f>
+              <c:f>'dati PCM-DPC'!$R$2:$R$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5686,6 +5950,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2075</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2881</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2278</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5938,9 +6220,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -6195,6 +6477,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6711,9 +7011,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -6968,16 +7268,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$T$2:$T$86</c:f>
+              <c:f>'dati PCM-DPC'!$T$2:$T$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>5.1110083256244221E-2</c:v>
                 </c:pt>
@@ -7232,6 +7550,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>1.2388067900895456E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.2872478545869091E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.8965696852444385E-3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.9565981668271039E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.6495091536216498E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.2390553790912856E-3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.5120378331900266E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7485,9 +7821,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -7742,16 +8078,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$C$2:$C$87</c:f>
+              <c:f>'dati PCM-DPC'!$C$2:$C$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -8006,6 +8360,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>10207</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9991</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9624</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9269</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8957</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8695</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8260,9 +8632,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -8517,16 +8889,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$87</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -8781,6 +9171,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9035,9 +9443,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -9292,16 +9700,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$87</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -9556,6 +9982,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>10956</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10707</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10300</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9909</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9552</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9267</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9811,9 +10255,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -10068,16 +10512,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$87</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -10332,6 +10794,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>676</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>572</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>553</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10585,9 +11065,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -10842,16 +11322,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$87</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -11106,6 +11604,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>55597</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>54422</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>52452</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>51051</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>49770</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>48485</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>47428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11360,9 +11876,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -11617,16 +12133,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$87</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -11881,6 +12415,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>66553</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>65129</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>62752</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>60960</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>59322</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>57752</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>56594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12135,9 +12687,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -12392,16 +12944,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$87</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -12656,6 +13226,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>-1798</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1424</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2377</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1792</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1638</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-1570</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12910,9 +13498,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13167,16 +13755,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$87</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -13431,6 +14037,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13685,9 +14309,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13942,16 +14566,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$87</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -14206,6 +14848,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>127326</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>129401</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>132282</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>134560</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>136720</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>138840</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>140479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14460,9 +15120,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14717,16 +15377,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$87</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -14981,6 +15659,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>32007</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>32169</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>32330</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>32486</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>32616</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>32735</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>32785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15235,9 +15931,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -15492,16 +16188,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$87</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -15756,6 +16470,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>225886</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>226699</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>227364</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>228006</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>228658</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>229327</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>229858</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16010,9 +16742,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -16267,16 +16999,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$87</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -16531,6 +17281,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>3041366</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3104524</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3171719</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3243398</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3318778</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3391188</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3447012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16786,9 +17554,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -17043,16 +17811,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$87</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -17307,6 +18093,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>10956</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10707</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10300</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9909</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9552</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9267</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17561,9 +18365,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -17818,16 +18622,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$87</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -18082,6 +18904,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>55597</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>54422</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>52452</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>51051</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>49770</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>48485</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>47428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18336,9 +19176,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -18593,16 +19433,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$87</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -18857,6 +19715,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>66553</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>65129</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>62752</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>60960</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>59322</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>57752</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>56594</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19110,9 +19986,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19367,16 +20243,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$87</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -19631,6 +20525,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>-1798</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-1424</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-2377</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-1792</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-1638</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-1570</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-1158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19883,9 +20795,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -20140,16 +21052,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$87</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -20404,6 +21334,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>669</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20657,9 +21605,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -20914,16 +21862,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$87</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -21178,6 +22144,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>127326</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>129401</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>132282</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>134560</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>136720</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>138840</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>140479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21432,9 +22416,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$87</c:f>
+              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
               <c:strCache>
-                <c:ptCount val="85"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -21689,16 +22673,34 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2020-05-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020-05-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020-05-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020-05-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2020-05-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2020-05-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2020-05-24T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$87</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$93</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="86"/>
+                <c:ptCount val="92"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -21953,6 +22955,24 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>32007</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>32169</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>32330</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>32486</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>32616</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>32735</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>32785</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -38236,10 +39256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T87"/>
+  <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T75" sqref="T75:T86"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q92" sqref="Q92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42214,7 +43234,7 @@
         <v>63827</v>
       </c>
       <c r="T67">
-        <f t="shared" ref="T67:T86" si="4">I67/S67</f>
+        <f t="shared" ref="T67:T92" si="4">I67/S67</f>
         <v>3.2682093784761931E-2</v>
       </c>
     </row>
@@ -42262,15 +43282,15 @@
         <v>1354901</v>
       </c>
       <c r="Q68">
-        <f t="shared" ref="Q68:Q86" si="5">K68-K67</f>
+        <f t="shared" ref="Q68:Q92" si="5">K68-K67</f>
         <v>285</v>
       </c>
       <c r="R68">
-        <f t="shared" ref="R68:R86" si="6">J68-J67</f>
+        <f t="shared" ref="R68:R92" si="6">J68-J67</f>
         <v>4693</v>
       </c>
       <c r="S68">
-        <f t="shared" ref="S68:S86" si="7">M68-M67</f>
+        <f t="shared" ref="S68:S92" si="7">M68-M67</f>
         <v>68456</v>
       </c>
       <c r="T68">
@@ -43419,7 +44439,379 @@
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>9991</v>
+      </c>
+      <c r="D87">
+        <v>716</v>
+      </c>
+      <c r="E87">
+        <v>10707</v>
+      </c>
+      <c r="F87">
+        <v>54422</v>
+      </c>
+      <c r="G87">
+        <v>65129</v>
+      </c>
+      <c r="H87">
+        <v>-1424</v>
+      </c>
+      <c r="I87">
+        <v>813</v>
+      </c>
+      <c r="J87">
+        <v>129401</v>
+      </c>
+      <c r="K87">
+        <v>32169</v>
+      </c>
+      <c r="L87">
+        <v>226699</v>
+      </c>
+      <c r="M87">
+        <v>3104524</v>
+      </c>
+      <c r="N87">
+        <v>1999599</v>
+      </c>
+      <c r="O87" t="s">
+        <v>159</v>
+      </c>
+      <c r="P87" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="6"/>
+        <v>2075</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="7"/>
+        <v>63158</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="4"/>
+        <v>1.2872478545869091E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>9624</v>
+      </c>
+      <c r="D88">
+        <v>676</v>
+      </c>
+      <c r="E88">
+        <v>10300</v>
+      </c>
+      <c r="F88">
+        <v>52452</v>
+      </c>
+      <c r="G88">
+        <v>62752</v>
+      </c>
+      <c r="H88">
+        <v>-2377</v>
+      </c>
+      <c r="I88">
+        <v>665</v>
+      </c>
+      <c r="J88">
+        <v>132282</v>
+      </c>
+      <c r="K88">
+        <v>32330</v>
+      </c>
+      <c r="L88">
+        <v>227364</v>
+      </c>
+      <c r="M88">
+        <v>3171719</v>
+      </c>
+      <c r="N88">
+        <v>2038216</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="5"/>
+        <v>161</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="6"/>
+        <v>2881</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="7"/>
+        <v>67195</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="4"/>
+        <v>9.8965696852444385E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>9269</v>
+      </c>
+      <c r="D89">
+        <v>640</v>
+      </c>
+      <c r="E89">
+        <v>9909</v>
+      </c>
+      <c r="F89">
+        <v>51051</v>
+      </c>
+      <c r="G89">
+        <v>60960</v>
+      </c>
+      <c r="H89">
+        <v>-1792</v>
+      </c>
+      <c r="I89">
+        <v>642</v>
+      </c>
+      <c r="J89">
+        <v>134560</v>
+      </c>
+      <c r="K89">
+        <v>32486</v>
+      </c>
+      <c r="L89">
+        <v>228006</v>
+      </c>
+      <c r="M89">
+        <v>3243398</v>
+      </c>
+      <c r="N89">
+        <v>2078860</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="5"/>
+        <v>156</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="6"/>
+        <v>2278</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="7"/>
+        <v>71679</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="4"/>
+        <v>8.9565981668271039E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>8957</v>
+      </c>
+      <c r="D90">
+        <v>595</v>
+      </c>
+      <c r="E90">
+        <v>9552</v>
+      </c>
+      <c r="F90">
+        <v>49770</v>
+      </c>
+      <c r="G90">
+        <v>59322</v>
+      </c>
+      <c r="H90">
+        <v>-1638</v>
+      </c>
+      <c r="I90">
+        <v>652</v>
+      </c>
+      <c r="J90">
+        <v>136720</v>
+      </c>
+      <c r="K90">
+        <v>32616</v>
+      </c>
+      <c r="L90">
+        <v>228658</v>
+      </c>
+      <c r="M90">
+        <v>3318778</v>
+      </c>
+      <c r="N90">
+        <v>2121847</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="5"/>
+        <v>130</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="6"/>
+        <v>2160</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="7"/>
+        <v>75380</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="4"/>
+        <v>8.6495091536216498E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>8695</v>
+      </c>
+      <c r="D91">
+        <v>572</v>
+      </c>
+      <c r="E91">
+        <v>9267</v>
+      </c>
+      <c r="F91">
+        <v>48485</v>
+      </c>
+      <c r="G91">
+        <v>57752</v>
+      </c>
+      <c r="H91">
+        <v>-1570</v>
+      </c>
+      <c r="I91">
+        <v>669</v>
+      </c>
+      <c r="J91">
+        <v>138840</v>
+      </c>
+      <c r="K91">
+        <v>32735</v>
+      </c>
+      <c r="L91">
+        <v>229327</v>
+      </c>
+      <c r="M91">
+        <v>3391188</v>
+      </c>
+      <c r="N91">
+        <v>2164426</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="5"/>
+        <v>119</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="6"/>
+        <v>2120</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="7"/>
+        <v>72410</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="4"/>
+        <v>9.2390553790912856E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>8613</v>
+      </c>
+      <c r="D92">
+        <v>553</v>
+      </c>
+      <c r="E92">
+        <v>9166</v>
+      </c>
+      <c r="F92">
+        <v>47428</v>
+      </c>
+      <c r="G92">
+        <v>56594</v>
+      </c>
+      <c r="H92">
+        <v>-1158</v>
+      </c>
+      <c r="I92">
+        <v>531</v>
+      </c>
+      <c r="J92">
+        <v>140479</v>
+      </c>
+      <c r="K92">
+        <v>32785</v>
+      </c>
+      <c r="L92">
+        <v>229858</v>
+      </c>
+      <c r="M92">
+        <v>3447012</v>
+      </c>
+      <c r="N92">
+        <v>2198632</v>
+      </c>
+      <c r="O92" t="s">
+        <v>166</v>
+      </c>
+      <c r="P92" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="6"/>
+        <v>1639</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="7"/>
+        <v>55824</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="4"/>
+        <v>9.5120378331900266E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
@@ -43435,7 +44827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>

--- a/andamento_nazionale.xlsx
+++ b/andamento_nazionale.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Grafici log" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$A$1:$P$93</definedName>
+    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$B$1:$Q$95</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="185">
   <si>
     <t>data</t>
   </si>
@@ -557,6 +557,57 @@
   <si>
     <t>pd-EN-0021</t>
   </si>
+  <si>
+    <t>2020-05-25T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0035</t>
+  </si>
+  <si>
+    <t>dc-EN-0035</t>
+  </si>
+  <si>
+    <t>2020-05-26T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-05-27T17:00:00</t>
+  </si>
+  <si>
+    <t>lunedí</t>
+  </si>
+  <si>
+    <t>martedí</t>
+  </si>
+  <si>
+    <t>mercoledí</t>
+  </si>
+  <si>
+    <t>giovedí</t>
+  </si>
+  <si>
+    <t>venerdí</t>
+  </si>
+  <si>
+    <t>sabato</t>
+  </si>
+  <si>
+    <t>domenica</t>
+  </si>
+  <si>
+    <t>lunedì</t>
+  </si>
+  <si>
+    <t>martedì</t>
+  </si>
+  <si>
+    <t>mercoledì</t>
+  </si>
+  <si>
+    <t>giovedì</t>
+  </si>
+  <si>
+    <t>venerdì</t>
+  </si>
 </sst>
 </file>
 
@@ -678,7 +729,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$C$1</c:f>
+              <c:f>'dati PCM-DPC'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -701,9 +752,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -976,16 +1027,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$C$2:$C$93</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1258,6 +1318,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>8613</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8185</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7917</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1489,7 +1558,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$L$1</c:f>
+              <c:f>'dati PCM-DPC'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1512,9 +1581,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1787,16 +1856,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$93</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -2069,6 +2147,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>229858</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>230158</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>230555</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>231139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2300,7 +2387,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$M$1</c:f>
+              <c:f>'dati PCM-DPC'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2323,9 +2410,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -2598,16 +2685,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$93</c:f>
+              <c:f>'dati PCM-DPC'!$N$2:$N$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -2880,6 +2976,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>3447012</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3482253</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3539927</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3607251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3141,7 +3246,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$J$1</c:f>
+              <c:f>'dati PCM-DPC'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3164,9 +3269,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3439,16 +3544,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$93</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3721,6 +3835,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>140479</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>141981</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>144658</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>147101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3737,7 +3860,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$K$1</c:f>
+              <c:f>'dati PCM-DPC'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3760,9 +3883,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -4035,16 +4158,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$93</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4317,6 +4449,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>32785</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>32877</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>32955</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>33072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4581,7 +4722,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$Q$1</c:f>
+              <c:f>'dati PCM-DPC'!$R$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4602,9 +4743,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -4877,16 +5018,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$Q$2:$Q$92</c:f>
+              <c:f>'dati PCM-DPC'!$R$2:$R$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5159,6 +5309,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5390,7 +5549,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$R$1</c:f>
+              <c:f>'dati PCM-DPC'!$S$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5411,9 +5570,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5686,16 +5845,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$R$2:$R$92</c:f>
+              <c:f>'dati PCM-DPC'!$S$2:$S$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5968,6 +6136,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1639</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1502</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2677</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2443</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6199,7 +6376,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$S$1</c:f>
+              <c:f>'dati PCM-DPC'!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6220,9 +6397,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -6495,16 +6672,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$S$2:$S$86</c:f>
+              <c:f>'dati PCM-DPC'!$T$2:$T$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="85"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -6759,6 +6945,33 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>36406</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>63158</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>67195</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>71679</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>75380</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>72410</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>55824</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>35241</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>57674</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>67324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6990,7 +7203,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$T$1</c:f>
+              <c:f>'dati PCM-DPC'!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7011,9 +7224,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -7286,16 +7499,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$T$2:$T$92</c:f>
+              <c:f>'dati PCM-DPC'!$U$2:$U$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>5.1110083256244221E-2</c:v>
                 </c:pt>
@@ -7568,6 +7790,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>9.5120378331900266E-3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.5128117817315063E-3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.8835177029510702E-3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.6744697284772149E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7798,7 +8029,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$C$1</c:f>
+              <c:f>'dati PCM-DPC'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7821,9 +8052,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -8096,16 +8327,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$C$2:$C$93</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -8378,6 +8618,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>8613</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8185</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7917</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>7729</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8609,7 +8858,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$D$1</c:f>
+              <c:f>'dati PCM-DPC'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8632,9 +8881,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -8907,16 +9156,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$93</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -9189,6 +9447,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9420,7 +9687,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$E$1</c:f>
+              <c:f>'dati PCM-DPC'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -9443,9 +9710,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -9718,16 +9985,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$93</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -10000,6 +10276,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>9166</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8726</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8438</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10232,7 +10517,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$D$1</c:f>
+              <c:f>'dati PCM-DPC'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10255,9 +10540,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -10530,16 +10815,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$93</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -10812,6 +11106,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>541</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>521</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11042,7 +11345,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$F$1</c:f>
+              <c:f>'dati PCM-DPC'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11065,9 +11368,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -11340,16 +11643,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$93</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -11622,6 +11934,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>47428</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46574</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44504</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11853,7 +12174,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$G$1</c:f>
+              <c:f>'dati PCM-DPC'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11876,9 +12197,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -12151,16 +12472,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$93</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -12433,6 +12763,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>56594</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>55300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>52942</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>50966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12664,7 +13003,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$H$1</c:f>
+              <c:f>'dati PCM-DPC'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12687,9 +13026,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -12962,16 +13301,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$93</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13244,6 +13592,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>-1158</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1294</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2358</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13475,7 +13832,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$I$1</c:f>
+              <c:f>'dati PCM-DPC'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13498,9 +13855,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13773,16 +14130,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$93</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -14055,6 +14421,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14286,7 +14661,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$J$1</c:f>
+              <c:f>'dati PCM-DPC'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -14309,9 +14684,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14584,16 +14959,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$93</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -14866,6 +15250,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>140479</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>141981</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>144658</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>147101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15097,7 +15490,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$K$1</c:f>
+              <c:f>'dati PCM-DPC'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15120,9 +15513,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -15395,16 +15788,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$93</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -15677,6 +16079,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>32785</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>32877</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>32955</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>33072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15908,7 +16319,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$L$1</c:f>
+              <c:f>'dati PCM-DPC'!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -15931,9 +16342,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -16206,16 +16617,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$93</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -16488,6 +16908,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>229858</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>230158</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>230555</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>231139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16719,7 +17148,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$M$1</c:f>
+              <c:f>'dati PCM-DPC'!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16742,9 +17171,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -17017,16 +17446,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$93</c:f>
+              <c:f>'dati PCM-DPC'!$N$2:$N$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -17299,6 +17737,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>3447012</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3482253</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3539927</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3607251</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17531,7 +17978,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$E$1</c:f>
+              <c:f>'dati PCM-DPC'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -17554,9 +18001,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -17829,16 +18276,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$93</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -18111,6 +18567,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>9166</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8726</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8438</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18342,7 +18807,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$F$1</c:f>
+              <c:f>'dati PCM-DPC'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -18365,9 +18830,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -18640,16 +19105,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$93</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -18922,6 +19396,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>47428</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46574</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44504</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42732</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19153,7 +19636,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$G$1</c:f>
+              <c:f>'dati PCM-DPC'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19176,9 +19659,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19451,16 +19934,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$93</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -19733,6 +20225,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>56594</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>55300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>52942</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>50966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19965,7 +20466,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$H$1</c:f>
+              <c:f>'dati PCM-DPC'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -19986,9 +20487,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -20261,16 +20762,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$93</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -20543,6 +21053,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>-1158</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-1294</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-2358</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-1976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20774,7 +21293,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$I$1</c:f>
+              <c:f>'dati PCM-DPC'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20795,9 +21314,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -21070,16 +21589,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$93</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -21352,6 +21880,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21582,7 +22119,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$J$1</c:f>
+              <c:f>'dati PCM-DPC'!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -21605,9 +22142,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -21880,16 +22417,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$93</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -22162,6 +22708,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>140479</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>141981</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>144658</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>147101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22393,7 +22948,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$K$1</c:f>
+              <c:f>'dati PCM-DPC'!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22416,9 +22971,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$A$2:$A$93</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
               <c:strCache>
-                <c:ptCount val="91"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -22691,16 +23246,25 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>2020-05-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2020-05-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2020-05-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2020-05-27T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$93</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$95</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="92"/>
+                <c:ptCount val="94"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -22973,6 +23537,15 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>32785</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>32877</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>32955</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>33072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -39256,5567 +39829,6033 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T93"/>
+  <dimension ref="A1:U95"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q92" sqref="Q92"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="20.140625" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" customWidth="1"/>
-    <col min="19" max="19" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>95</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>107</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>113</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>141</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>101</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>26</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>127</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>94</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>221</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>221</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>7</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>229</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>4324</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
+        <f>L2</f>
+        <v>7</v>
+      </c>
+      <c r="S2">
         <f>K2</f>
-        <v>7</v>
-      </c>
-      <c r="R2">
-        <f>J2</f>
         <v>1</v>
       </c>
-      <c r="S2">
-        <f>M2</f>
+      <c r="T2">
+        <f>N2</f>
         <v>4324</v>
       </c>
-      <c r="T2">
-        <f>I2/S2</f>
+      <c r="U2">
+        <f>J2/T2</f>
         <v>5.1110083256244221E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>114</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>35</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>150</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>162</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>311</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>90</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>93</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>10</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>322</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>8623</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
+        <f>L3-L2</f>
+        <v>3</v>
+      </c>
+      <c r="S3">
         <f>K3-K2</f>
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>N3-N2</f>
+        <v>4299</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="0">J3/T3</f>
+        <v>2.1632937892533146E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>128</v>
+      </c>
+      <c r="E4">
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <v>164</v>
+      </c>
+      <c r="G4">
+        <v>221</v>
+      </c>
+      <c r="H4">
+        <v>385</v>
+      </c>
+      <c r="I4">
+        <v>74</v>
+      </c>
+      <c r="J4">
+        <v>78</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="R3">
-        <f>J3-J2</f>
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f>M3-M2</f>
-        <v>4299</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T66" si="0">I3/S3</f>
-        <v>2.1632937892533146E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>128</v>
-      </c>
-      <c r="D4">
-        <v>36</v>
-      </c>
-      <c r="E4">
-        <v>164</v>
-      </c>
-      <c r="F4">
-        <v>221</v>
-      </c>
-      <c r="G4">
-        <v>385</v>
-      </c>
-      <c r="H4">
-        <v>74</v>
-      </c>
-      <c r="I4">
-        <v>78</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
+      <c r="L4">
         <v>12</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>400</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>9587</v>
       </c>
-      <c r="Q4">
-        <f t="shared" ref="Q4:Q67" si="1">K4-K3</f>
+      <c r="R4">
+        <f t="shared" ref="R4:R67" si="1">L4-L3</f>
         <v>2</v>
       </c>
-      <c r="R4">
-        <f t="shared" ref="R4:R67" si="2">J4-J3</f>
+      <c r="S4">
+        <f t="shared" ref="S4:S67" si="2">K4-K3</f>
         <v>2</v>
       </c>
-      <c r="S4">
-        <f t="shared" ref="S4:S67" si="3">M4-M3</f>
+      <c r="T4">
+        <f t="shared" ref="T4:T67" si="3">N4-N3</f>
         <v>964</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <f t="shared" si="0"/>
         <v>8.0912863070539423E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>248</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>56</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>304</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>284</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>588</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>203</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>250</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>45</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>17</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>650</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>12014</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <f t="shared" si="3"/>
         <v>2427</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <f t="shared" si="0"/>
         <v>0.10300782859497322</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>345</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>64</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>409</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>412</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>821</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>233</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>238</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>46</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>21</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>888</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>15695</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f t="shared" si="3"/>
         <v>3681</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f t="shared" si="0"/>
         <v>6.4656343384949744E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>401</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>105</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>506</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>543</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1049</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>228</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>240</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>50</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>29</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1128</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>18661</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <f t="shared" si="3"/>
         <v>2966</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f t="shared" si="0"/>
         <v>8.0917060013486183E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>639</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>140</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>779</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>798</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1577</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>528</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>566</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>83</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>34</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>1694</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>21127</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <f t="shared" si="3"/>
         <v>2466</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f t="shared" si="0"/>
         <v>0.22952149229521493</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>742</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>166</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>908</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>927</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1835</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>258</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>342</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>149</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>52</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2036</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>23345</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <f t="shared" si="3"/>
         <v>2218</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f t="shared" si="0"/>
         <v>0.15419296663660956</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1034</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>229</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1263</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2263</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>428</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>466</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>160</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>79</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2502</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>25856</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <f t="shared" si="3"/>
         <v>2511</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f t="shared" si="0"/>
         <v>0.18558343289526086</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1346</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>295</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>1641</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1065</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>2706</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>443</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>587</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>276</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>107</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>3089</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>29837</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <f t="shared" si="3"/>
         <v>3981</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f t="shared" si="0"/>
         <v>0.14745038934940968</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>1790</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>351</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2141</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>1155</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>3296</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>590</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>769</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>414</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>148</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>3858</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>32362</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <f t="shared" si="3"/>
         <v>2525</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="0"/>
         <v>0.30455445544554455</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>2394</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>462</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2856</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1060</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3916</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>620</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>778</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>523</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>197</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>4636</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>36359</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <f t="shared" si="3"/>
         <v>3997</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f t="shared" si="0"/>
         <v>0.19464598448836629</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>2651</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>567</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>3218</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>1843</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>5061</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>1145</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1247</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>589</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>233</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>5883</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>42062</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>29</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>30</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <f t="shared" si="3"/>
         <v>5703</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f t="shared" si="0"/>
         <v>0.2186568472733649</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>3557</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>650</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4207</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2180</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>6387</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>1326</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1492</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>622</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>366</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>7375</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>49937</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <f t="shared" si="3"/>
         <v>7875</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <f t="shared" si="0"/>
         <v>0.18946031746031747</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>4316</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>733</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>5049</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>2936</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>7985</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1598</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>1797</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>724</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>463</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>9172</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>53826</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <f t="shared" si="3"/>
         <v>3889</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <f t="shared" si="0"/>
         <v>0.46207251221393675</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>5038</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>877</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5915</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>2599</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>8514</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>529</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>977</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1004</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>631</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>10149</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>60761</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>34</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>35</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <f t="shared" si="3"/>
         <v>6935</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <f t="shared" si="0"/>
         <v>0.14087959625090121</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>10</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>5838</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1028</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>6866</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3724</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>10590</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2076</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2313</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1045</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>827</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>12462</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>73154</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>37</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>38</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <f t="shared" si="3"/>
         <v>12393</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <f t="shared" si="0"/>
         <v>0.18663761801016704</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>10</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>6650</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1153</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>7803</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>5036</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>12839</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2249</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2651</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1258</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1016</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>15113</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>86011</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <f t="shared" si="1"/>
         <v>189</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f t="shared" si="2"/>
         <v>213</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <f t="shared" si="3"/>
         <v>12857</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <f t="shared" si="0"/>
         <v>0.20619117990199892</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>10</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>7426</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1328</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>8754</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>6201</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>14955</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>2116</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2547</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1439</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1266</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>17660</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>97488</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <f t="shared" si="3"/>
         <v>11477</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <f t="shared" si="0"/>
         <v>0.22192210507972468</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>8372</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1518</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>9890</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>7860</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>17750</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>2795</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>3497</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1966</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>1441</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>21157</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>109170</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <f t="shared" si="2"/>
         <v>527</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <f t="shared" si="3"/>
         <v>11682</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <f t="shared" si="0"/>
         <v>0.29934942646807056</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>9663</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1672</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>11335</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>9268</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>20603</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>2853</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3590</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>2335</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>1809</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>24747</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>124899</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <f t="shared" si="1"/>
         <v>368</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <f t="shared" si="2"/>
         <v>369</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <f t="shared" si="3"/>
         <v>15729</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <f t="shared" si="0"/>
         <v>0.22824082904189713</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>10</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>11025</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1851</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>12876</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>10197</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>23073</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>2470</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>3233</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>2749</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>2158</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>27980</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>137962</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>44</v>
       </c>
-      <c r="P23" t="s">
+      <c r="Q23" t="s">
         <v>45</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <f t="shared" si="1"/>
         <v>349</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f t="shared" si="2"/>
         <v>414</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <f t="shared" si="3"/>
         <v>13063</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <f t="shared" si="0"/>
         <v>0.24749291893133277</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>10</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>12894</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2060</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>14954</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>11108</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>26062</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>2989</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3526</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>2941</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>2503</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>31506</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>148657</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>47</v>
       </c>
-      <c r="P24" t="s">
+      <c r="Q24" t="s">
         <v>48</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <f t="shared" si="3"/>
         <v>10695</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f t="shared" si="0"/>
         <v>0.32968676951846659</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>10</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>14363</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>2257</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>16620</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>12090</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>28710</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2648</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>4207</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>4025</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>2978</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>35713</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>165541</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>50</v>
       </c>
-      <c r="P25" t="s">
+      <c r="Q25" t="s">
         <v>51</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <f t="shared" si="1"/>
         <v>475</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <f t="shared" si="2"/>
         <v>1084</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <f t="shared" si="3"/>
         <v>16884</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <f t="shared" si="0"/>
         <v>0.24917081260364843</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>15757</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2498</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>18255</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>14935</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>33190</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>4480</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>5322</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>4440</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>3405</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>41035</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>182777</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <f t="shared" si="1"/>
         <v>427</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <f t="shared" si="2"/>
         <v>415</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <f t="shared" si="3"/>
         <v>17236</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <f t="shared" si="0"/>
         <v>0.30877233696913436</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>184</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>16020</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2655</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>18675</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>19185</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>37860</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>4670</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>5986</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>5129</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>4032</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>47021</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>206886</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <f t="shared" si="1"/>
         <v>627</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <f t="shared" si="2"/>
         <v>689</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <f t="shared" si="3"/>
         <v>24109</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <f t="shared" si="0"/>
         <v>0.24828902069766479</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>10</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>17708</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>2857</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>20565</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>22116</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>42681</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>4821</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>6557</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>6072</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>4825</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>53578</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>233222</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <f t="shared" si="1"/>
         <v>793</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <f t="shared" si="2"/>
         <v>943</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <f t="shared" si="3"/>
         <v>26336</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <f t="shared" si="0"/>
         <v>0.24897478736330497</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>10</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>19846</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>3009</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>22855</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>23783</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>46638</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>3957</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>5560</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>7024</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>5476</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>59138</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>258402</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <f t="shared" si="1"/>
         <v>651</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <f t="shared" si="2"/>
         <v>952</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <f t="shared" si="3"/>
         <v>25180</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <f t="shared" si="0"/>
         <v>0.22081016679904686</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>180</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>10</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>20692</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>3204</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>23896</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>26522</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>50418</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>3780</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>4789</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>7432</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>6077</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>63927</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>275468</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <f t="shared" si="1"/>
         <v>601</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <f t="shared" si="2"/>
         <v>408</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <f t="shared" si="3"/>
         <v>17066</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <f t="shared" si="0"/>
         <v>0.28061643032930972</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>10</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>21937</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>3396</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>25333</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>28697</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>54030</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>3612</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>5249</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>8326</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>6820</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>69176</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>296964</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <f t="shared" si="1"/>
         <v>743</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <f t="shared" si="2"/>
         <v>894</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <f t="shared" si="3"/>
         <v>21496</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <f t="shared" si="0"/>
         <v>0.24418496464458503</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>10</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>23112</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>3489</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>26601</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>30920</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>57521</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>3491</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>5210</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>9362</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>7503</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>74386</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>324445</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <f t="shared" si="1"/>
         <v>683</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <f t="shared" si="2"/>
         <v>1036</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <f t="shared" si="3"/>
         <v>27481</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <f t="shared" si="0"/>
         <v>0.18958553182198609</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>10</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>24753</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>3612</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>28365</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>33648</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>62013</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>4492</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>6153</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>10361</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>8165</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>80539</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>361060</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>60</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>61</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <f t="shared" si="1"/>
         <v>662</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <f t="shared" si="2"/>
         <v>999</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <f t="shared" si="3"/>
         <v>36615</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <f t="shared" si="0"/>
         <v>0.16804588283490374</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>10</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>26029</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>3732</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>29761</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>36653</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>66414</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>4401</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>5959</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>10950</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>9134</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>86498</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>394079</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <f t="shared" si="1"/>
         <v>969</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <f t="shared" si="2"/>
         <v>589</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <f t="shared" si="3"/>
         <v>33019</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <f t="shared" si="0"/>
         <v>0.18047184954117326</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>10</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>26676</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>3856</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>30532</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>39533</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>70065</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>3651</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>5974</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>12384</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>10023</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>92472</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>429526</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <f t="shared" si="1"/>
         <v>889</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <f t="shared" si="2"/>
         <v>1434</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <f t="shared" si="3"/>
         <v>35447</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <f t="shared" si="0"/>
         <v>0.16853330324145907</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>10</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>27386</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>3906</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>31292</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>42588</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>73880</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>3815</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>5217</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>13030</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>10779</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>97689</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>454030</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>65</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>66</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <f t="shared" si="1"/>
         <v>756</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <f t="shared" si="2"/>
         <v>646</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <f t="shared" si="3"/>
         <v>24504</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <f t="shared" si="0"/>
         <v>0.21290401567091088</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>10</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>27795</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>3981</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>31776</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>43752</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>75528</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>1648</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>4050</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>14620</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>11591</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>101739</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>477359</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <f t="shared" si="1"/>
         <v>812</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <f t="shared" si="2"/>
         <v>1590</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <f t="shared" si="3"/>
         <v>23329</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <f t="shared" si="0"/>
         <v>0.17360366925286125</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>10</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>28192</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>4023</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>32215</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>45420</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>77635</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>2107</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>4053</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>15729</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>12428</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>105792</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>506968</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <f t="shared" si="1"/>
         <v>837</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <f t="shared" si="2"/>
         <v>1109</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <f t="shared" si="3"/>
         <v>29609</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <f t="shared" si="0"/>
         <v>0.13688405552365834</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>10</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>28403</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>4035</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>32438</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>48134</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>80572</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>2937</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>4782</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>16847</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>13155</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>110574</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>541423</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <f t="shared" si="1"/>
         <v>727</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <f t="shared" si="2"/>
         <v>1118</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <f t="shared" si="3"/>
         <v>34455</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <f t="shared" si="0"/>
         <v>0.13878972572921203</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>10</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>28540</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>4053</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>32593</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>50456</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>83049</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>2477</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>4668</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>18278</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>13915</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>115242</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>581232</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <f t="shared" si="1"/>
         <v>760</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <f t="shared" si="2"/>
         <v>1431</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <f t="shared" si="3"/>
         <v>39809</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <f t="shared" si="0"/>
         <v>0.11725991609937451</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>10</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>28741</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>4068</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>32809</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>52579</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>85388</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>2339</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>4585</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>19758</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>14681</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>119827</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>619849</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <f t="shared" si="1"/>
         <v>766</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <f t="shared" si="2"/>
         <v>1480</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <f t="shared" si="3"/>
         <v>38617</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <f t="shared" si="0"/>
         <v>0.11873009296423855</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>10</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>29010</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>3994</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>33004</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>55270</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>88274</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>2886</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>4805</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>20996</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>15362</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>124632</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>657224</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <f t="shared" si="1"/>
         <v>681</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <f t="shared" si="2"/>
         <v>1238</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <f t="shared" si="3"/>
         <v>37375</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <f t="shared" si="0"/>
         <v>0.128561872909699</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>10</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>28949</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>3977</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>32926</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>58320</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>91246</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>2972</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>4316</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>21815</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>15887</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>128948</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>691461</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <f t="shared" si="1"/>
         <v>525</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <f t="shared" si="2"/>
         <v>819</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <f t="shared" si="3"/>
         <v>34237</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <f t="shared" si="0"/>
         <v>0.12606244706019804</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>10</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>28976</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>3898</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>32874</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>60313</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>93187</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>1941</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>3599</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>22837</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>16523</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>132547</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>721732</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <f t="shared" si="1"/>
         <v>636</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <f t="shared" si="2"/>
         <v>1022</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <f t="shared" si="3"/>
         <v>30271</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <f t="shared" si="0"/>
         <v>0.11889266955171617</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>10</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>28718</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>3792</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>32510</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>61557</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>94067</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>880</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>3039</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>24392</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>17127</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>135586</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>755445</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <f t="shared" si="1"/>
         <v>604</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <f t="shared" si="2"/>
         <v>1555</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <f t="shared" si="3"/>
         <v>33713</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <f t="shared" si="0"/>
         <v>9.0143268175481267E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>10</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>28485</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>3693</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>32178</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>63084</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>95262</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>1195</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>3836</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>26491</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>17669</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>139422</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>807125</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <f t="shared" si="1"/>
         <v>542</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <f t="shared" si="2"/>
         <v>2099</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <f t="shared" si="3"/>
         <v>51680</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <f t="shared" si="0"/>
         <v>7.4226006191950467E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>10</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>28399</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>3605</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>32004</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>64873</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>96877</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>1615</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>4204</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>28470</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>18279</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>143626</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>853369</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <f t="shared" si="1"/>
         <v>610</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <f t="shared" si="2"/>
         <v>1979</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <f t="shared" si="3"/>
         <v>46244</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>10</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>28242</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>3497</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>31739</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>66534</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>98273</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>1396</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>3951</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>30455</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>18849</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>147577</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>906864</v>
       </c>
-      <c r="O48" t="s">
+      <c r="P48" t="s">
         <v>79</v>
       </c>
-      <c r="P48" t="s">
+      <c r="Q48" t="s">
         <v>80</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <f t="shared" si="1"/>
         <v>570</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <f t="shared" si="2"/>
         <v>1985</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <f t="shared" si="3"/>
         <v>53495</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <f t="shared" si="0"/>
         <v>7.3857369847649318E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>10</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>28144</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>3381</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>31525</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>68744</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>100269</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>1996</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>4694</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>32534</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>19468</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>152271</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>963473</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <f t="shared" si="1"/>
         <v>619</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <f t="shared" si="2"/>
         <v>2079</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <f t="shared" si="3"/>
         <v>56609</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <f t="shared" si="0"/>
         <v>8.2919677083149318E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>10</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>27847</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>3343</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>31190</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>71063</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>102253</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>1984</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>4092</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>34211</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>19899</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>156363</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>1010193</v>
       </c>
-      <c r="O50" t="s">
+      <c r="P50" t="s">
         <v>83</v>
       </c>
-      <c r="P50" t="s">
+      <c r="Q50" t="s">
         <v>84</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <f t="shared" si="1"/>
         <v>431</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <f t="shared" si="2"/>
         <v>1677</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <f t="shared" si="3"/>
         <v>46720</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <f t="shared" si="0"/>
         <v>8.7585616438356162E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>10</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>28023</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>3260</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>31283</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>72333</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>103616</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>1363</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>3153</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>35435</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>20465</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>159516</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>1046910</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <f t="shared" si="1"/>
         <v>566</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <f t="shared" si="2"/>
         <v>1224</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <f t="shared" si="3"/>
         <v>36717</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <f t="shared" si="0"/>
         <v>8.5873028842225668E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>10</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>28011</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>3186</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>31197</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>73094</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>104291</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>675</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>2972</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>37130</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>21067</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>162488</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>1073689</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <f t="shared" si="1"/>
         <v>602</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <f t="shared" si="2"/>
         <v>1695</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <f t="shared" si="3"/>
         <v>26779</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <f t="shared" si="0"/>
         <v>0.11098248627655999</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>10</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>27643</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>3079</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>30722</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>74696</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>105418</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>1127</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>2667</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>38092</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>21645</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>165155</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>1117404</v>
       </c>
-      <c r="O53" t="s">
+      <c r="P53" t="s">
         <v>88</v>
       </c>
-      <c r="P53" t="s">
+      <c r="Q53" t="s">
         <v>89</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <f t="shared" si="1"/>
         <v>578</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <f t="shared" si="2"/>
         <v>962</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <f t="shared" si="3"/>
         <v>43715</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <f t="shared" si="0"/>
         <v>6.1008807045636507E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>10</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>26893</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>2936</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>29829</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>76778</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>106607</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>1189</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>3786</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>40164</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>22170</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>168941</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>1178403</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <f t="shared" si="1"/>
         <v>525</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <f t="shared" si="2"/>
         <v>2072</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <f t="shared" si="3"/>
         <v>60999</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <f t="shared" si="0"/>
         <v>6.2066591255594356E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>10</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>25786</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>2812</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>28598</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>78364</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>106962</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>355</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>3493</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>42727</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>22745</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>172434</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>1244108</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <f t="shared" si="1"/>
         <v>575</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <f t="shared" si="2"/>
         <v>2563</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <f t="shared" si="3"/>
         <v>65705</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <f t="shared" si="0"/>
         <v>5.316185982801918E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>178</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>10</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>25007</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>2733</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>27740</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>80031</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>107771</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>809</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>3491</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>44927</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>23227</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>175925</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>1305833</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <f t="shared" si="1"/>
         <v>482</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <f t="shared" si="2"/>
         <v>2200</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <f t="shared" si="3"/>
         <v>61725</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <f t="shared" si="0"/>
         <v>5.6557310652085864E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>10</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>25033</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>2635</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>27668</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>80589</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>108257</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>486</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>3047</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>47055</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>23660</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>178972</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>1356541</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>935310</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <f t="shared" si="1"/>
         <v>433</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <f t="shared" si="2"/>
         <v>2128</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <f t="shared" si="3"/>
         <v>50708</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <f t="shared" si="0"/>
         <v>6.0089137808629803E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>10</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>24906</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>2573</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>27479</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>80758</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>108237</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>-20</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>2256</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>48877</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>24114</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>181228</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>1398024</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>943151</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>96</v>
       </c>
-      <c r="P58" t="s">
+      <c r="Q58" t="s">
         <v>97</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <f t="shared" si="2"/>
         <v>1822</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <f t="shared" si="3"/>
         <v>41483</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <f t="shared" si="0"/>
         <v>5.4383723452980738E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>10</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>24134</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>2471</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>26605</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>81104</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>107709</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>-528</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>2729</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>51600</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>24648</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>183957</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>1450150</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>971246</v>
       </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>99</v>
       </c>
-      <c r="P59" t="s">
+      <c r="Q59" t="s">
         <v>100</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <f t="shared" si="1"/>
         <v>534</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <f t="shared" si="2"/>
         <v>2723</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <f t="shared" si="3"/>
         <v>52126</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <f t="shared" si="0"/>
         <v>5.2353911675555385E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>10</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>23805</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>2384</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>26189</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>81510</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>107699</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>-10</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>3370</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>54543</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>25085</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>187327</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>1513251</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>1015494</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <f t="shared" si="1"/>
         <v>437</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <f t="shared" si="2"/>
         <v>2943</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <f t="shared" si="3"/>
         <v>63101</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <f t="shared" si="0"/>
         <v>5.3406443637977211E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>10</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>22871</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>2267</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>25138</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>81710</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>106848</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>-851</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>2646</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>57576</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>25549</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>189973</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>1579909</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>1052577</v>
       </c>
-      <c r="O61" t="s">
+      <c r="P61" t="s">
         <v>103</v>
       </c>
-      <c r="P61" t="s">
+      <c r="Q61" t="s">
         <v>104</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <f t="shared" si="1"/>
         <v>464</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <f t="shared" si="2"/>
         <v>3033</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <f t="shared" si="3"/>
         <v>66658</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <f t="shared" si="0"/>
         <v>3.9695160370848213E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>10</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>22068</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>2173</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>24241</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>82286</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>106527</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>-321</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>3021</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>60498</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>25969</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>192994</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>1642356</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>1147850</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>108</v>
       </c>
-      <c r="P62" t="s">
+      <c r="Q62" t="s">
         <v>109</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <f t="shared" si="2"/>
         <v>2922</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <f t="shared" si="3"/>
         <v>62447</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <f t="shared" si="0"/>
         <v>4.8377023716111266E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>10</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>21533</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>2102</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>23635</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>82212</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>105847</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>-680</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>2357</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>63120</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>26384</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>195351</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>1707743</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>1186526</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <f t="shared" si="1"/>
         <v>415</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <f t="shared" si="2"/>
         <v>2622</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <f t="shared" si="3"/>
         <v>65387</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <f t="shared" si="0"/>
         <v>3.6046920641717772E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>10</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>21372</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>2009</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>23381</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>82722</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>106103</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>256</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>2324</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>64928</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>26644</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>197675</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>1757659</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>1210639</v>
       </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>111</v>
       </c>
-      <c r="P64" t="s">
+      <c r="Q64" t="s">
         <v>112</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <f t="shared" si="2"/>
         <v>1808</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <f t="shared" si="3"/>
         <v>49916</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <f t="shared" si="0"/>
         <v>4.6558217805913939E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>10</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>20353</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>1956</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>22309</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>83504</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>105813</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>-290</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>1739</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>66624</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>26977</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>199414</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>1789662</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>1237317</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <f t="shared" si="2"/>
         <v>1696</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <f t="shared" si="3"/>
         <v>32003</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <f t="shared" si="0"/>
         <v>5.433865575102334E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>10</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>19723</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>1863</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>21586</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>83619</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>105205</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>-608</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>2091</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>68941</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>27359</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>201505</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>1846934</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>1274871</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <f t="shared" si="1"/>
         <v>382</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <f t="shared" si="2"/>
         <v>2317</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <f t="shared" si="3"/>
         <v>57272</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <f t="shared" si="0"/>
         <v>3.6509987428411786E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>182</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>10</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>19210</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>1795</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>21005</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>83652</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>104657</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>-548</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>2086</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>71252</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>27682</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>203591</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>1910761</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>1313460</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <f t="shared" si="1"/>
         <v>323</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <f t="shared" si="2"/>
         <v>2311</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <f t="shared" si="3"/>
         <v>63827</v>
       </c>
-      <c r="T67">
-        <f t="shared" ref="T67:T92" si="4">I67/S67</f>
+      <c r="U67">
+        <f t="shared" ref="U67:U95" si="4">J67/T67</f>
         <v>3.2682093784761931E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>10</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>18149</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>1694</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>19843</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>81708</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>101551</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>-3106</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>1872</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>75945</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>27967</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>205463</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>1979217</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>1354901</v>
       </c>
-      <c r="Q68">
-        <f t="shared" ref="Q68:Q92" si="5">K68-K67</f>
+      <c r="R68">
+        <f t="shared" ref="R68:R95" si="5">L68-L67</f>
         <v>285</v>
       </c>
-      <c r="R68">
-        <f t="shared" ref="R68:R92" si="6">J68-J67</f>
+      <c r="S68">
+        <f t="shared" ref="S68:S95" si="6">K68-K67</f>
         <v>4693</v>
       </c>
-      <c r="S68">
-        <f t="shared" ref="S68:S92" si="7">M68-M67</f>
+      <c r="T68">
+        <f t="shared" ref="T68:T95" si="7">N68-N67</f>
         <v>68456</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <f t="shared" si="4"/>
         <v>2.7346032488021504E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>10</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>17569</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>1578</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>19147</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>81796</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>100943</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>-608</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>1965</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>78249</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>28236</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>207428</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>2053425</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>1398633</v>
       </c>
-      <c r="O69" t="s">
+      <c r="P69" t="s">
         <v>119</v>
       </c>
-      <c r="P69" t="s">
+      <c r="Q69" t="s">
         <v>120</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <f t="shared" si="5"/>
         <v>269</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <f t="shared" si="6"/>
         <v>2304</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <f t="shared" si="7"/>
         <v>74208</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <f t="shared" si="4"/>
         <v>2.6479624838292366E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>10</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>17357</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>1539</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>18896</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>81808</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>100704</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>-239</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>1900</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>79914</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>28710</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>209328</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>2108837</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>1429864</v>
       </c>
-      <c r="O70" t="s">
+      <c r="P70" t="s">
         <v>122</v>
       </c>
-      <c r="P70" t="s">
+      <c r="Q70" t="s">
         <v>123</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <f t="shared" si="5"/>
         <v>474</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <f t="shared" si="6"/>
         <v>1665</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <f t="shared" si="7"/>
         <v>55412</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <f t="shared" si="4"/>
         <v>3.4288601746914026E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>10</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>17242</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>1501</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>18743</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>81436</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>100179</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>-525</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>1389</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>81654</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>28884</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>210717</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>2153772</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>1456911</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <f t="shared" si="5"/>
         <v>174</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <f t="shared" si="6"/>
         <v>1740</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <f t="shared" si="7"/>
         <v>44935</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <f t="shared" si="4"/>
         <v>3.091131634583287E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>10</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>16823</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>1479</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>18302</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>81678</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>99980</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>-199</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>1221</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>82879</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>29079</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>211938</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>2191403</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>1479910</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>126</v>
       </c>
-      <c r="P72" t="s">
+      <c r="Q72" t="s">
         <v>127</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <f t="shared" si="5"/>
         <v>195</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <f t="shared" si="6"/>
         <v>1225</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <f t="shared" si="7"/>
         <v>37631</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <f t="shared" si="4"/>
         <v>3.2446653025431163E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>10</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>16270</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>1427</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>17697</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>80770</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>98467</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>-1513</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>1075</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>85231</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>29315</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>213013</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>2246666</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>1512121</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <f t="shared" si="5"/>
         <v>236</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <f t="shared" si="6"/>
         <v>2352</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <f t="shared" si="7"/>
         <v>55263</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <f t="shared" si="4"/>
         <v>1.9452436530771042E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>10</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>15769</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>1333</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>17102</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>74426</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>91528</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>-6939</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>1444</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>93245</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>29684</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>214457</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>2310929</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>1549892</v>
       </c>
-      <c r="O74" t="s">
+      <c r="P74" t="s">
         <v>130</v>
       </c>
-      <c r="P74" t="s">
+      <c r="Q74" t="s">
         <v>131</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <f t="shared" si="5"/>
         <v>369</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <f t="shared" si="6"/>
         <v>8014</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <f t="shared" si="7"/>
         <v>64263</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <f t="shared" si="4"/>
         <v>2.2470161679348927E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>10</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>15174</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>1311</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>16485</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>73139</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>89624</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>-1904</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>1401</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>96276</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>29958</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>215858</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>2381288</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>1563557</v>
       </c>
-      <c r="O75" t="s">
+      <c r="P75" t="s">
         <v>133</v>
       </c>
-      <c r="P75" t="s">
+      <c r="Q75" t="s">
         <v>134</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <f t="shared" si="5"/>
         <v>274</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <f t="shared" si="6"/>
         <v>3031</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <f t="shared" si="7"/>
         <v>70359</v>
       </c>
-      <c r="T75">
+      <c r="U75">
         <f t="shared" si="4"/>
         <v>1.9912164755041997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>184</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>10</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>14636</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>1168</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>15804</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>72157</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>87961</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>-1663</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>1327</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>99023</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>30201</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>217185</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>2445063</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>1608985</v>
       </c>
-      <c r="O76" t="s">
+      <c r="P76" t="s">
         <v>136</v>
       </c>
-      <c r="P76" t="s">
+      <c r="Q76" t="s">
         <v>137</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <f t="shared" si="5"/>
         <v>243</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <f t="shared" si="6"/>
         <v>2747</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <f t="shared" si="7"/>
         <v>63775</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <f t="shared" si="4"/>
         <v>2.0807526460211681E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>178</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>10</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>13834</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>1034</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>14868</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>69974</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>84842</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>-3119</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>1083</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>103031</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>30395</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>218268</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>2514234</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>1645076</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <f t="shared" si="5"/>
         <v>194</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <f t="shared" si="6"/>
         <v>4008</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <f t="shared" si="7"/>
         <v>69171</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <f t="shared" si="4"/>
         <v>1.5656850414190918E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>10</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>13618</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>1027</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>14645</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>68679</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>83324</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>-1518</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>802</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>105186</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>30560</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>219070</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>2565912</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>1676460</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <f t="shared" si="6"/>
         <v>2155</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <f t="shared" si="7"/>
         <v>51678</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <f t="shared" si="4"/>
         <v>1.5519176438716668E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>10</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>13539</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>999</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>14538</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>67950</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>82488</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>-836</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>744</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>106587</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>30739</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>219814</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>2606652</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>1702283</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <f t="shared" si="5"/>
         <v>179</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <f t="shared" si="6"/>
         <v>1401</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <f t="shared" si="7"/>
         <v>40740</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <f t="shared" si="4"/>
         <v>1.8262150220913109E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>181</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>10</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>12865</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>952</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>13817</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>67449</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>81266</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>-1222</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>1402</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>109039</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>30911</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>221216</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>2673655</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>1741903</v>
       </c>
-      <c r="O80" t="s">
+      <c r="P80" t="s">
         <v>143</v>
       </c>
-      <c r="P80" t="s">
+      <c r="Q80" t="s">
         <v>144</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <f t="shared" si="5"/>
         <v>172</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <f t="shared" si="6"/>
         <v>2452</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <f t="shared" si="7"/>
         <v>67003</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <f t="shared" si="4"/>
         <v>2.0924436219273763E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>182</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>10</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>12172</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>893</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>13065</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>65392</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>78457</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>-2809</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>888</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>112541</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>31106</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>222104</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>2735628</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>1778952</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <f t="shared" si="5"/>
         <v>195</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <f t="shared" si="6"/>
         <v>3502</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <f t="shared" si="7"/>
         <v>61973</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <f t="shared" si="4"/>
         <v>1.43288206154293E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>10</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>11453</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>855</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>12308</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>64132</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>76440</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>-2017</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>992</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>115288</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>31368</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>223096</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>2807504</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>1820083</v>
       </c>
-      <c r="O82" t="s">
+      <c r="P82" t="s">
         <v>148</v>
       </c>
-      <c r="P82" t="s">
+      <c r="Q82" t="s">
         <v>149</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <f t="shared" si="5"/>
         <v>262</v>
       </c>
-      <c r="R82">
+      <c r="S82">
         <f t="shared" si="6"/>
         <v>2747</v>
       </c>
-      <c r="S82">
+      <c r="T82">
         <f t="shared" si="7"/>
         <v>71876</v>
       </c>
-      <c r="T82">
+      <c r="U82">
         <f t="shared" si="4"/>
         <v>1.3801547108909788E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>184</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>10</v>
       </c>
-      <c r="C83">
+      <c r="D83">
         <v>10792</v>
       </c>
-      <c r="D83">
+      <c r="E83">
         <v>808</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>11600</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>60470</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>72070</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>-4370</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>789</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>120205</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>31610</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>223885</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>2875680</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>1859110</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>151</v>
       </c>
-      <c r="P83" t="s">
+      <c r="Q83" t="s">
         <v>152</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <f t="shared" si="5"/>
         <v>242</v>
       </c>
-      <c r="R83">
+      <c r="S83">
         <f t="shared" si="6"/>
         <v>4917</v>
       </c>
-      <c r="S83">
+      <c r="T83">
         <f t="shared" si="7"/>
         <v>68176</v>
       </c>
-      <c r="T83">
+      <c r="U83">
         <f t="shared" si="4"/>
         <v>1.1572987561605257E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>178</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>10</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>10400</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>775</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>11175</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>59012</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>70187</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>-1883</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>875</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>122810</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>31763</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>224760</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>2944859</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>1899767</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <f t="shared" si="5"/>
         <v>153</v>
       </c>
-      <c r="R84">
+      <c r="S84">
         <f t="shared" si="6"/>
         <v>2605</v>
       </c>
-      <c r="S84">
+      <c r="T84">
         <f t="shared" si="7"/>
         <v>69179</v>
       </c>
-      <c r="T84">
+      <c r="U84">
         <f t="shared" si="4"/>
         <v>1.2648347041732318E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>179</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>10</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>10311</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>762</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>11073</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>57278</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>68351</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>-1836</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>675</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>125176</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>31908</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>225435</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>3004960</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>1933272</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <f t="shared" si="5"/>
         <v>145</v>
       </c>
-      <c r="R85">
+      <c r="S85">
         <f t="shared" si="6"/>
         <v>2366</v>
       </c>
-      <c r="S85">
+      <c r="T85">
         <f t="shared" si="7"/>
         <v>60101</v>
       </c>
-      <c r="T85">
+      <c r="U85">
         <f t="shared" si="4"/>
         <v>1.1231094324553667E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>10</v>
       </c>
-      <c r="C86">
+      <c r="D86">
         <v>10207</v>
       </c>
-      <c r="D86">
+      <c r="E86">
         <v>749</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>10956</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>55597</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>66553</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>-1798</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>451</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>127326</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>32007</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>225886</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>3041366</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>1959373</v>
       </c>
-      <c r="O86" t="s">
+      <c r="P86" t="s">
         <v>156</v>
       </c>
-      <c r="P86" t="s">
+      <c r="Q86" t="s">
         <v>157</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="R86">
+      <c r="S86">
         <f t="shared" si="6"/>
         <v>2150</v>
       </c>
-      <c r="S86">
+      <c r="T86">
         <f t="shared" si="7"/>
         <v>36406</v>
       </c>
-      <c r="T86">
+      <c r="U86">
         <f t="shared" si="4"/>
         <v>1.2388067900895456E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>181</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>10</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>9991</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>716</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>10707</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>54422</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>65129</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>-1424</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>813</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>129401</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>32169</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>226699</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>3104524</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>1999599</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>159</v>
       </c>
-      <c r="P87" t="s">
+      <c r="Q87" t="s">
         <v>160</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <f t="shared" si="5"/>
         <v>162</v>
       </c>
-      <c r="R87">
+      <c r="S87">
         <f t="shared" si="6"/>
         <v>2075</v>
       </c>
-      <c r="S87">
+      <c r="T87">
         <f t="shared" si="7"/>
         <v>63158</v>
       </c>
-      <c r="T87">
+      <c r="U87">
         <f t="shared" si="4"/>
         <v>1.2872478545869091E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>182</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>10</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>9624</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>676</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>10300</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>52452</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>62752</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>-2377</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>665</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>132282</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>32330</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>227364</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>3171719</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>2038216</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <f t="shared" si="5"/>
         <v>161</v>
       </c>
-      <c r="R88">
+      <c r="S88">
         <f t="shared" si="6"/>
         <v>2881</v>
       </c>
-      <c r="S88">
+      <c r="T88">
         <f t="shared" si="7"/>
         <v>67195</v>
       </c>
-      <c r="T88">
+      <c r="U88">
         <f t="shared" si="4"/>
         <v>9.8965696852444385E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>10</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>9269</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>640</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>9909</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>51051</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>60960</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>-1792</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>642</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>134560</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>32486</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>228006</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>3243398</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>2078860</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <f t="shared" si="5"/>
         <v>156</v>
       </c>
-      <c r="R89">
+      <c r="S89">
         <f t="shared" si="6"/>
         <v>2278</v>
       </c>
-      <c r="S89">
+      <c r="T89">
         <f t="shared" si="7"/>
         <v>71679</v>
       </c>
-      <c r="T89">
+      <c r="U89">
         <f t="shared" si="4"/>
         <v>8.9565981668271039E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>184</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>10</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>8957</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>595</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>9552</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>49770</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>59322</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>-1638</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>652</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>136720</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>32616</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>228658</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>3318778</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>2121847</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="R90">
+      <c r="S90">
         <f t="shared" si="6"/>
         <v>2160</v>
       </c>
-      <c r="S90">
+      <c r="T90">
         <f t="shared" si="7"/>
         <v>75380</v>
       </c>
-      <c r="T90">
+      <c r="U90">
         <f t="shared" si="4"/>
         <v>8.6495091536216498E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>10</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>8695</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>572</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>9267</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>48485</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>57752</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>-1570</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>669</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>138840</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>32735</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>229327</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>3391188</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>2164426</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <f t="shared" si="5"/>
         <v>119</v>
       </c>
-      <c r="R91">
+      <c r="S91">
         <f t="shared" si="6"/>
         <v>2120</v>
       </c>
-      <c r="S91">
+      <c r="T91">
         <f t="shared" si="7"/>
         <v>72410</v>
       </c>
-      <c r="T91">
+      <c r="U91">
         <f t="shared" si="4"/>
         <v>9.2390553790912856E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>179</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>10</v>
       </c>
-      <c r="C92">
+      <c r="D92">
         <v>8613</v>
       </c>
-      <c r="D92">
+      <c r="E92">
         <v>553</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>9166</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>47428</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>56594</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>-1158</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>531</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>140479</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>32785</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>229858</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>3447012</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>2198632</v>
       </c>
-      <c r="O92" t="s">
+      <c r="P92" t="s">
         <v>166</v>
       </c>
-      <c r="P92" t="s">
+      <c r="Q92" t="s">
         <v>167</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="R92">
+      <c r="S92">
         <f t="shared" si="6"/>
         <v>1639</v>
       </c>
-      <c r="S92">
+      <c r="T92">
         <f t="shared" si="7"/>
         <v>55824</v>
       </c>
-      <c r="T92">
+      <c r="U92">
         <f t="shared" si="4"/>
         <v>9.5120378331900266E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <v>8185</v>
+      </c>
+      <c r="E93">
+        <v>541</v>
+      </c>
+      <c r="F93">
+        <v>8726</v>
+      </c>
+      <c r="G93">
+        <v>46574</v>
+      </c>
+      <c r="H93">
+        <v>55300</v>
+      </c>
+      <c r="I93">
+        <v>-1294</v>
+      </c>
+      <c r="J93">
+        <v>300</v>
+      </c>
+      <c r="K93">
+        <v>141981</v>
+      </c>
+      <c r="L93">
+        <v>32877</v>
+      </c>
+      <c r="M93">
+        <v>230158</v>
+      </c>
+      <c r="N93">
+        <v>3482253</v>
+      </c>
+      <c r="O93">
+        <v>2219308</v>
+      </c>
+      <c r="P93" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>170</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="6"/>
+        <v>1502</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="7"/>
+        <v>35241</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="4"/>
+        <v>8.5128117817315063E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>7917</v>
+      </c>
+      <c r="E94">
+        <v>521</v>
+      </c>
+      <c r="F94">
+        <v>8438</v>
+      </c>
+      <c r="G94">
+        <v>44504</v>
+      </c>
+      <c r="H94">
+        <v>52942</v>
+      </c>
+      <c r="I94">
+        <v>-2358</v>
+      </c>
+      <c r="J94">
+        <v>397</v>
+      </c>
+      <c r="K94">
+        <v>144658</v>
+      </c>
+      <c r="L94">
+        <v>32955</v>
+      </c>
+      <c r="M94">
+        <v>230555</v>
+      </c>
+      <c r="N94">
+        <v>3539927</v>
+      </c>
+      <c r="O94">
+        <v>2253252</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="6"/>
+        <v>2677</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="7"/>
+        <v>57674</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="4"/>
+        <v>6.8835177029510702E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>7729</v>
+      </c>
+      <c r="E95">
+        <v>505</v>
+      </c>
+      <c r="F95">
+        <v>8234</v>
+      </c>
+      <c r="G95">
+        <v>42732</v>
+      </c>
+      <c r="H95">
+        <v>50966</v>
+      </c>
+      <c r="I95">
+        <v>-1976</v>
+      </c>
+      <c r="J95">
+        <v>584</v>
+      </c>
+      <c r="K95">
+        <v>147101</v>
+      </c>
+      <c r="L95">
+        <v>33072</v>
+      </c>
+      <c r="M95">
+        <v>231139</v>
+      </c>
+      <c r="N95">
+        <v>3607251</v>
+      </c>
+      <c r="O95">
+        <v>2290551</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="5"/>
+        <v>117</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="6"/>
+        <v>2443</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="7"/>
+        <v>67324</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="4"/>
+        <v>8.6744697284772149E-3</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="J2">
     <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
-      <formula>$H$2</formula>
+      <formula>$I$2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/andamento_nazionale.xlsx
+++ b/andamento_nazionale.xlsx
@@ -17,7 +17,7 @@
     <sheet name="Grafici log" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$B$1:$Q$95</definedName>
+    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$B$1:$Q$101</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="197">
   <si>
     <t>data</t>
   </si>
@@ -608,6 +608,42 @@
   <si>
     <t>venerdì</t>
   </si>
+  <si>
+    <t>2020-05-28T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-05-29T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0037</t>
+  </si>
+  <si>
+    <t>dc-EN-0037</t>
+  </si>
+  <si>
+    <t>2020-05-30T17:00:00</t>
+  </si>
+  <si>
+    <t>nd-IT-0016</t>
+  </si>
+  <si>
+    <t>nd-EN-0016</t>
+  </si>
+  <si>
+    <t>2020-05-31T17:00:00</t>
+  </si>
+  <si>
+    <t>pd-IT-0023</t>
+  </si>
+  <si>
+    <t>pd-EN-0023</t>
+  </si>
+  <si>
+    <t>2020-06-01T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-06-02T17:00:00</t>
+  </si>
 </sst>
 </file>
 
@@ -752,9 +788,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1036,16 +1072,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$95</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1327,6 +1381,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>7729</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7379</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7094</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6680</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6387</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6099</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1581,9 +1653,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1865,16 +1937,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$95</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -2156,6 +2246,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>231139</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>231732</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>232248</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>232664</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>233019</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>233197</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>233515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2410,9 +2518,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -2694,16 +2802,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$N$2:$N$95</c:f>
+              <c:f>'dati PCM-DPC'!$N$2:$N$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -2985,6 +3111,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>3607251</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3683144</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3755279</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3824621</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3878739</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3910133</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3962292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3269,9 +3413,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3553,16 +3697,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$95</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3844,6 +4006,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>147101</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>150604</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>152844</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>155633</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>157507</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>158355</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>160092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3883,9 +4063,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -4167,16 +4347,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$95</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4458,6 +4656,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>33072</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>33142</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>33229</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>33340</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>33415</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33475</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>33530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4722,7 +4938,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$R$1</c:f>
+              <c:f>'dati PCM-DPC'!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4743,9 +4959,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5027,16 +5243,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$R$2:$R$95</c:f>
+              <c:f>'dati PCM-DPC'!$T$2:$T$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5318,6 +5552,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5549,7 +5801,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$S$1</c:f>
+              <c:f>'dati PCM-DPC'!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5570,9 +5822,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5854,16 +6106,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$S$2:$S$95</c:f>
+              <c:f>'dati PCM-DPC'!$U$2:$U$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -6145,6 +6415,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2443</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3503</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2240</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2789</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1874</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>848</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1737</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6376,7 +6664,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$T$1</c:f>
+              <c:f>'dati PCM-DPC'!$V$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6397,9 +6685,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -6681,16 +6969,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$T$2:$T$95</c:f>
+              <c:f>'dati PCM-DPC'!$V$2:$V$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -6972,6 +7278,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>67324</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>75893</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>72135</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>69342</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>54118</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>31394</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>52159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7203,7 +7527,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$U$1</c:f>
+              <c:f>'dati PCM-DPC'!$W$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7224,9 +7548,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -7508,16 +7832,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$U$2:$U$95</c:f>
+              <c:f>'dati PCM-DPC'!$W$2:$W$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>5.1110083256244221E-2</c:v>
                 </c:pt>
@@ -7799,6 +8141,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>8.6744697284772149E-3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7.813632350809693E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7.1532543148263676E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.999250093738283E-3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.5597398277837315E-3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.6698732241829645E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.0967426522747755E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8052,9 +8412,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -8336,16 +8696,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$95</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -8627,6 +9005,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>7729</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7379</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7094</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6680</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6387</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6099</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5916</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8881,9 +9277,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -9165,16 +9561,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$95</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -9456,6 +9870,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9710,9 +10142,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -9994,16 +10426,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$95</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -10285,6 +10735,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>8234</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7868</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7569</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7130</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6822</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6523</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10540,9 +11008,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -10824,16 +11292,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$95</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -11115,6 +11601,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11368,9 +11872,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -11652,16 +12156,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$95</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -11943,6 +12465,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>42732</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>40118</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>38606</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36561</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>35275</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>34844</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>33569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12197,9 +12737,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -12481,16 +13021,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$95</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -12772,6 +13330,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>50966</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47986</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>46175</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43691</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42097</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41367</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>39893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13026,9 +13602,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13310,16 +13886,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$95</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -13601,6 +14195,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>-1976</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2980</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1811</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2484</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1594</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-730</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13855,9 +14467,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14139,16 +14751,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$95</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -14430,6 +15060,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14684,9 +15332,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14968,16 +15616,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$95</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -15259,6 +15925,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>147101</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>150604</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>152844</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>155633</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>157507</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>158355</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>160092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15513,9 +16197,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -15797,16 +16481,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$95</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -16088,6 +16790,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>33072</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>33142</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>33229</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>33340</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>33415</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33475</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>33530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16342,9 +17062,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -16626,16 +17346,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$95</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -16917,6 +17655,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>231139</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>231732</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>232248</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>232664</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>233019</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>233197</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>233515</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17171,9 +17927,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -17455,16 +18211,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$N$2:$N$95</c:f>
+              <c:f>'dati PCM-DPC'!$N$2:$N$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -17746,6 +18520,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>3607251</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3683144</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3755279</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3824621</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3878739</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3910133</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3962292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18001,9 +18793,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -18285,16 +19077,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$95</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -18576,6 +19386,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>8234</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7868</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>7569</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7130</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6822</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6523</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18830,9 +19658,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19114,16 +19942,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$95</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -19405,6 +20251,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>42732</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>40118</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>38606</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>36561</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>35275</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>34844</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>33569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19659,9 +20523,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19943,16 +20807,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$95</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -20234,6 +21116,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>50966</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47986</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>46175</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43691</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42097</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41367</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>39893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20487,9 +21387,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -20771,16 +21671,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$95</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -21062,6 +21980,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>-1976</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-2980</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-1811</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2484</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1594</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-730</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-1474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21314,9 +22250,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -21598,16 +22534,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$95</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -21889,6 +22843,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>584</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22142,9 +23114,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -22426,16 +23398,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$95</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -22717,6 +23707,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>147101</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>150604</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>152844</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>155633</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>157507</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>158355</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>160092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22971,9 +23979,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$95</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
               <c:strCache>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -23255,16 +24263,34 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2020-05-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2020-05-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2020-05-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2020-05-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2020-05-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2020-06-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2020-06-02T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$95</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="94"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -23546,6 +24572,24 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>33072</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>33142</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>33229</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>33340</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>33415</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33475</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>33530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -39829,16 +40873,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U95"/>
+  <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView topLeftCell="H2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W91" sqref="W91:W101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -39853,13 +40897,13 @@
     <col min="14" max="14" width="8.42578125" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.140625" customWidth="1"/>
-    <col min="19" max="19" width="18.28515625" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" customWidth="1"/>
+    <col min="17" max="19" width="22.28515625" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" customWidth="1"/>
+    <col min="21" max="21" width="18.28515625" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -39908,20 +40952,20 @@
       <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>107</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>113</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>141</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -39964,24 +41008,24 @@
       <c r="N2">
         <v>4324</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <f>L2</f>
         <v>7</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <f>K2</f>
         <v>1</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <f>N2</f>
         <v>4324</v>
       </c>
-      <c r="U2">
-        <f>J2/T2</f>
+      <c r="W2">
+        <f>J2/V2</f>
         <v>5.1110083256244221E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>174</v>
       </c>
@@ -40024,24 +41068,24 @@
       <c r="N3">
         <v>8623</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <f>L3-L2</f>
         <v>3</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <f>K3-K2</f>
         <v>0</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <f>N3-N2</f>
         <v>4299</v>
       </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U66" si="0">J3/T3</f>
+      <c r="W3">
+        <f t="shared" ref="W3:W66" si="0">J3/V3</f>
         <v>2.1632937892533146E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -40084,24 +41128,24 @@
       <c r="N4">
         <v>9587</v>
       </c>
-      <c r="R4">
-        <f t="shared" ref="R4:R67" si="1">L4-L3</f>
+      <c r="T4">
+        <f t="shared" ref="T4:T67" si="1">L4-L3</f>
         <v>2</v>
       </c>
-      <c r="S4">
-        <f t="shared" ref="S4:S67" si="2">K4-K3</f>
+      <c r="U4">
+        <f t="shared" ref="U4:U67" si="2">K4-K3</f>
         <v>2</v>
       </c>
-      <c r="T4">
-        <f t="shared" ref="T4:T67" si="3">N4-N3</f>
+      <c r="V4">
+        <f t="shared" ref="V4:V67" si="3">N4-N3</f>
         <v>964</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <f t="shared" si="0"/>
         <v>8.0912863070539423E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>176</v>
       </c>
@@ -40144,24 +41188,24 @@
       <c r="N5">
         <v>12014</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <f t="shared" si="3"/>
         <v>2427</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <f t="shared" si="0"/>
         <v>0.10300782859497322</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>177</v>
       </c>
@@ -40204,24 +41248,24 @@
       <c r="N6">
         <v>15695</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <f t="shared" si="3"/>
         <v>3681</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <f t="shared" si="0"/>
         <v>6.4656343384949744E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>178</v>
       </c>
@@ -40264,24 +41308,24 @@
       <c r="N7">
         <v>18661</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <f t="shared" si="3"/>
         <v>2966</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <f t="shared" si="0"/>
         <v>8.0917060013486183E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>179</v>
       </c>
@@ -40324,24 +41368,24 @@
       <c r="N8">
         <v>21127</v>
       </c>
-      <c r="R8">
+      <c r="T8">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <f t="shared" si="3"/>
         <v>2466</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <f t="shared" si="0"/>
         <v>0.22952149229521493</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>173</v>
       </c>
@@ -40384,24 +41428,24 @@
       <c r="N9">
         <v>23345</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <f t="shared" si="3"/>
         <v>2218</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <f t="shared" si="0"/>
         <v>0.15419296663660956</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -40444,24 +41488,24 @@
       <c r="N10">
         <v>25856</v>
       </c>
-      <c r="R10">
+      <c r="T10">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <f t="shared" si="3"/>
         <v>2511</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <f t="shared" si="0"/>
         <v>0.18558343289526086</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -40504,24 +41548,24 @@
       <c r="N11">
         <v>29837</v>
       </c>
-      <c r="R11">
+      <c r="T11">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <f t="shared" si="3"/>
         <v>3981</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <f t="shared" si="0"/>
         <v>0.14745038934940968</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>176</v>
       </c>
@@ -40564,24 +41608,24 @@
       <c r="N12">
         <v>32362</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <f t="shared" si="3"/>
         <v>2525</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <f t="shared" si="0"/>
         <v>0.30455445544554455</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>177</v>
       </c>
@@ -40624,24 +41668,24 @@
       <c r="N13">
         <v>36359</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <f t="shared" si="3"/>
         <v>3997</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <f t="shared" si="0"/>
         <v>0.19464598448836629</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -40690,24 +41734,24 @@
       <c r="Q14" t="s">
         <v>30</v>
       </c>
-      <c r="R14">
+      <c r="T14">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <f t="shared" si="3"/>
         <v>5703</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <f t="shared" si="0"/>
         <v>0.2186568472733649</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>179</v>
       </c>
@@ -40750,24 +41794,24 @@
       <c r="N15">
         <v>49937</v>
       </c>
-      <c r="R15">
+      <c r="T15">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <f t="shared" si="3"/>
         <v>7875</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <f t="shared" si="0"/>
         <v>0.18946031746031747</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>180</v>
       </c>
@@ -40810,24 +41854,24 @@
       <c r="N16">
         <v>53826</v>
       </c>
-      <c r="R16">
+      <c r="T16">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <f t="shared" si="3"/>
         <v>3889</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <f t="shared" si="0"/>
         <v>0.46207251221393675</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>181</v>
       </c>
@@ -40876,24 +41920,24 @@
       <c r="Q17" t="s">
         <v>35</v>
       </c>
-      <c r="R17">
+      <c r="T17">
         <f t="shared" si="1"/>
         <v>168</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <f t="shared" si="2"/>
         <v>280</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <f t="shared" si="3"/>
         <v>6935</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <f t="shared" si="0"/>
         <v>0.14087959625090121</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>182</v>
       </c>
@@ -40942,24 +41986,24 @@
       <c r="Q18" t="s">
         <v>38</v>
       </c>
-      <c r="R18">
+      <c r="T18">
         <f t="shared" si="1"/>
         <v>196</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <f t="shared" si="3"/>
         <v>12393</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <f t="shared" si="0"/>
         <v>0.18663761801016704</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>183</v>
       </c>
@@ -41002,24 +42046,24 @@
       <c r="N19">
         <v>86011</v>
       </c>
-      <c r="R19">
+      <c r="T19">
         <f t="shared" si="1"/>
         <v>189</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <f t="shared" si="2"/>
         <v>213</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <f t="shared" si="3"/>
         <v>12857</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <f t="shared" si="0"/>
         <v>0.20619117990199892</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>184</v>
       </c>
@@ -41062,24 +42106,24 @@
       <c r="N20">
         <v>97488</v>
       </c>
-      <c r="R20">
+      <c r="T20">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <f t="shared" si="2"/>
         <v>181</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <f t="shared" si="3"/>
         <v>11477</v>
       </c>
-      <c r="U20">
+      <c r="W20">
         <f t="shared" si="0"/>
         <v>0.22192210507972468</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>178</v>
       </c>
@@ -41122,24 +42166,24 @@
       <c r="N21">
         <v>109170</v>
       </c>
-      <c r="R21">
+      <c r="T21">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <f t="shared" si="2"/>
         <v>527</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <f t="shared" si="3"/>
         <v>11682</v>
       </c>
-      <c r="U21">
+      <c r="W21">
         <f t="shared" si="0"/>
         <v>0.29934942646807056</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>179</v>
       </c>
@@ -41182,24 +42226,24 @@
       <c r="N22">
         <v>124899</v>
       </c>
-      <c r="R22">
+      <c r="T22">
         <f t="shared" si="1"/>
         <v>368</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <f t="shared" si="2"/>
         <v>369</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <f t="shared" si="3"/>
         <v>15729</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <f t="shared" si="0"/>
         <v>0.22824082904189713</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>180</v>
       </c>
@@ -41248,24 +42292,24 @@
       <c r="Q23" t="s">
         <v>45</v>
       </c>
-      <c r="R23">
+      <c r="T23">
         <f t="shared" si="1"/>
         <v>349</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <f t="shared" si="2"/>
         <v>414</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <f t="shared" si="3"/>
         <v>13063</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <f t="shared" si="0"/>
         <v>0.24749291893133277</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>181</v>
       </c>
@@ -41314,24 +42358,24 @@
       <c r="Q24" t="s">
         <v>48</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <f t="shared" si="3"/>
         <v>10695</v>
       </c>
-      <c r="U24">
+      <c r="W24">
         <f t="shared" si="0"/>
         <v>0.32968676951846659</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>182</v>
       </c>
@@ -41380,24 +42424,24 @@
       <c r="Q25" t="s">
         <v>51</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <f t="shared" si="1"/>
         <v>475</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <f t="shared" si="2"/>
         <v>1084</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <f t="shared" si="3"/>
         <v>16884</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <f t="shared" si="0"/>
         <v>0.24917081260364843</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -41440,24 +42484,24 @@
       <c r="N26">
         <v>182777</v>
       </c>
-      <c r="R26">
+      <c r="T26">
         <f t="shared" si="1"/>
         <v>427</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <f t="shared" si="2"/>
         <v>415</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <f t="shared" si="3"/>
         <v>17236</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <f t="shared" si="0"/>
         <v>0.30877233696913436</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>184</v>
       </c>
@@ -41500,24 +42544,24 @@
       <c r="N27">
         <v>206886</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <f t="shared" si="1"/>
         <v>627</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <f t="shared" si="2"/>
         <v>689</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <f t="shared" si="3"/>
         <v>24109</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <f t="shared" si="0"/>
         <v>0.24828902069766479</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>178</v>
       </c>
@@ -41560,24 +42604,24 @@
       <c r="N28">
         <v>233222</v>
       </c>
-      <c r="R28">
+      <c r="T28">
         <f t="shared" si="1"/>
         <v>793</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <f t="shared" si="2"/>
         <v>943</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <f t="shared" si="3"/>
         <v>26336</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <f t="shared" si="0"/>
         <v>0.24897478736330497</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>179</v>
       </c>
@@ -41620,24 +42664,24 @@
       <c r="N29">
         <v>258402</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <f t="shared" si="1"/>
         <v>651</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <f t="shared" si="2"/>
         <v>952</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <f t="shared" si="3"/>
         <v>25180</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <f t="shared" si="0"/>
         <v>0.22081016679904686</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>180</v>
       </c>
@@ -41680,24 +42724,24 @@
       <c r="N30">
         <v>275468</v>
       </c>
-      <c r="R30">
+      <c r="T30">
         <f t="shared" si="1"/>
         <v>601</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <f t="shared" si="2"/>
         <v>408</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <f t="shared" si="3"/>
         <v>17066</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <f t="shared" si="0"/>
         <v>0.28061643032930972</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>181</v>
       </c>
@@ -41740,24 +42784,24 @@
       <c r="N31">
         <v>296964</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <f t="shared" si="1"/>
         <v>743</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <f t="shared" si="2"/>
         <v>894</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <f t="shared" si="3"/>
         <v>21496</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <f t="shared" si="0"/>
         <v>0.24418496464458503</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>182</v>
       </c>
@@ -41800,24 +42844,24 @@
       <c r="N32">
         <v>324445</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <f t="shared" si="1"/>
         <v>683</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <f t="shared" si="2"/>
         <v>1036</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <f t="shared" si="3"/>
         <v>27481</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <f t="shared" si="0"/>
         <v>0.18958553182198609</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>183</v>
       </c>
@@ -41866,24 +42910,24 @@
       <c r="Q33" t="s">
         <v>61</v>
       </c>
-      <c r="R33">
+      <c r="T33">
         <f t="shared" si="1"/>
         <v>662</v>
       </c>
-      <c r="S33">
+      <c r="U33">
         <f t="shared" si="2"/>
         <v>999</v>
       </c>
-      <c r="T33">
+      <c r="V33">
         <f t="shared" si="3"/>
         <v>36615</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <f t="shared" si="0"/>
         <v>0.16804588283490374</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>184</v>
       </c>
@@ -41926,24 +42970,24 @@
       <c r="N34">
         <v>394079</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <f t="shared" si="1"/>
         <v>969</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <f t="shared" si="2"/>
         <v>589</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <f t="shared" si="3"/>
         <v>33019</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <f t="shared" si="0"/>
         <v>0.18047184954117326</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>178</v>
       </c>
@@ -41986,24 +43030,24 @@
       <c r="N35">
         <v>429526</v>
       </c>
-      <c r="R35">
+      <c r="T35">
         <f t="shared" si="1"/>
         <v>889</v>
       </c>
-      <c r="S35">
+      <c r="U35">
         <f t="shared" si="2"/>
         <v>1434</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <f t="shared" si="3"/>
         <v>35447</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <f t="shared" si="0"/>
         <v>0.16853330324145907</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>179</v>
       </c>
@@ -42052,24 +43096,24 @@
       <c r="Q36" t="s">
         <v>66</v>
       </c>
-      <c r="R36">
+      <c r="T36">
         <f t="shared" si="1"/>
         <v>756</v>
       </c>
-      <c r="S36">
+      <c r="U36">
         <f t="shared" si="2"/>
         <v>646</v>
       </c>
-      <c r="T36">
+      <c r="V36">
         <f t="shared" si="3"/>
         <v>24504</v>
       </c>
-      <c r="U36">
+      <c r="W36">
         <f t="shared" si="0"/>
         <v>0.21290401567091088</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>180</v>
       </c>
@@ -42112,24 +43156,24 @@
       <c r="N37">
         <v>477359</v>
       </c>
-      <c r="R37">
+      <c r="T37">
         <f t="shared" si="1"/>
         <v>812</v>
       </c>
-      <c r="S37">
+      <c r="U37">
         <f t="shared" si="2"/>
         <v>1590</v>
       </c>
-      <c r="T37">
+      <c r="V37">
         <f t="shared" si="3"/>
         <v>23329</v>
       </c>
-      <c r="U37">
+      <c r="W37">
         <f t="shared" si="0"/>
         <v>0.17360366925286125</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>181</v>
       </c>
@@ -42172,24 +43216,24 @@
       <c r="N38">
         <v>506968</v>
       </c>
-      <c r="R38">
+      <c r="T38">
         <f t="shared" si="1"/>
         <v>837</v>
       </c>
-      <c r="S38">
+      <c r="U38">
         <f t="shared" si="2"/>
         <v>1109</v>
       </c>
-      <c r="T38">
+      <c r="V38">
         <f t="shared" si="3"/>
         <v>29609</v>
       </c>
-      <c r="U38">
+      <c r="W38">
         <f t="shared" si="0"/>
         <v>0.13688405552365834</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>182</v>
       </c>
@@ -42232,24 +43276,24 @@
       <c r="N39">
         <v>541423</v>
       </c>
-      <c r="R39">
+      <c r="T39">
         <f t="shared" si="1"/>
         <v>727</v>
       </c>
-      <c r="S39">
+      <c r="U39">
         <f t="shared" si="2"/>
         <v>1118</v>
       </c>
-      <c r="T39">
+      <c r="V39">
         <f t="shared" si="3"/>
         <v>34455</v>
       </c>
-      <c r="U39">
+      <c r="W39">
         <f t="shared" si="0"/>
         <v>0.13878972572921203</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>183</v>
       </c>
@@ -42292,24 +43336,24 @@
       <c r="N40">
         <v>581232</v>
       </c>
-      <c r="R40">
+      <c r="T40">
         <f t="shared" si="1"/>
         <v>760</v>
       </c>
-      <c r="S40">
+      <c r="U40">
         <f t="shared" si="2"/>
         <v>1431</v>
       </c>
-      <c r="T40">
+      <c r="V40">
         <f t="shared" si="3"/>
         <v>39809</v>
       </c>
-      <c r="U40">
+      <c r="W40">
         <f t="shared" si="0"/>
         <v>0.11725991609937451</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>184</v>
       </c>
@@ -42352,24 +43396,24 @@
       <c r="N41">
         <v>619849</v>
       </c>
-      <c r="R41">
+      <c r="T41">
         <f t="shared" si="1"/>
         <v>766</v>
       </c>
-      <c r="S41">
+      <c r="U41">
         <f t="shared" si="2"/>
         <v>1480</v>
       </c>
-      <c r="T41">
+      <c r="V41">
         <f t="shared" si="3"/>
         <v>38617</v>
       </c>
-      <c r="U41">
+      <c r="W41">
         <f t="shared" si="0"/>
         <v>0.11873009296423855</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -42412,24 +43456,24 @@
       <c r="N42">
         <v>657224</v>
       </c>
-      <c r="R42">
+      <c r="T42">
         <f t="shared" si="1"/>
         <v>681</v>
       </c>
-      <c r="S42">
+      <c r="U42">
         <f t="shared" si="2"/>
         <v>1238</v>
       </c>
-      <c r="T42">
+      <c r="V42">
         <f t="shared" si="3"/>
         <v>37375</v>
       </c>
-      <c r="U42">
+      <c r="W42">
         <f t="shared" si="0"/>
         <v>0.128561872909699</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>179</v>
       </c>
@@ -42472,24 +43516,24 @@
       <c r="N43">
         <v>691461</v>
       </c>
-      <c r="R43">
+      <c r="T43">
         <f t="shared" si="1"/>
         <v>525</v>
       </c>
-      <c r="S43">
+      <c r="U43">
         <f t="shared" si="2"/>
         <v>819</v>
       </c>
-      <c r="T43">
+      <c r="V43">
         <f t="shared" si="3"/>
         <v>34237</v>
       </c>
-      <c r="U43">
+      <c r="W43">
         <f t="shared" si="0"/>
         <v>0.12606244706019804</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>180</v>
       </c>
@@ -42532,24 +43576,24 @@
       <c r="N44">
         <v>721732</v>
       </c>
-      <c r="R44">
+      <c r="T44">
         <f t="shared" si="1"/>
         <v>636</v>
       </c>
-      <c r="S44">
+      <c r="U44">
         <f t="shared" si="2"/>
         <v>1022</v>
       </c>
-      <c r="T44">
+      <c r="V44">
         <f t="shared" si="3"/>
         <v>30271</v>
       </c>
-      <c r="U44">
+      <c r="W44">
         <f t="shared" si="0"/>
         <v>0.11889266955171617</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>181</v>
       </c>
@@ -42592,24 +43636,24 @@
       <c r="N45">
         <v>755445</v>
       </c>
-      <c r="R45">
+      <c r="T45">
         <f t="shared" si="1"/>
         <v>604</v>
       </c>
-      <c r="S45">
+      <c r="U45">
         <f t="shared" si="2"/>
         <v>1555</v>
       </c>
-      <c r="T45">
+      <c r="V45">
         <f t="shared" si="3"/>
         <v>33713</v>
       </c>
-      <c r="U45">
+      <c r="W45">
         <f t="shared" si="0"/>
         <v>9.0143268175481267E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>182</v>
       </c>
@@ -42652,24 +43696,24 @@
       <c r="N46">
         <v>807125</v>
       </c>
-      <c r="R46">
+      <c r="T46">
         <f t="shared" si="1"/>
         <v>542</v>
       </c>
-      <c r="S46">
+      <c r="U46">
         <f t="shared" si="2"/>
         <v>2099</v>
       </c>
-      <c r="T46">
+      <c r="V46">
         <f t="shared" si="3"/>
         <v>51680</v>
       </c>
-      <c r="U46">
+      <c r="W46">
         <f t="shared" si="0"/>
         <v>7.4226006191950467E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>183</v>
       </c>
@@ -42712,24 +43756,24 @@
       <c r="N47">
         <v>853369</v>
       </c>
-      <c r="R47">
+      <c r="T47">
         <f t="shared" si="1"/>
         <v>610</v>
       </c>
-      <c r="S47">
+      <c r="U47">
         <f t="shared" si="2"/>
         <v>1979</v>
       </c>
-      <c r="T47">
+      <c r="V47">
         <f t="shared" si="3"/>
         <v>46244</v>
       </c>
-      <c r="U47">
+      <c r="W47">
         <f t="shared" si="0"/>
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>184</v>
       </c>
@@ -42778,24 +43822,24 @@
       <c r="Q48" t="s">
         <v>80</v>
       </c>
-      <c r="R48">
+      <c r="T48">
         <f t="shared" si="1"/>
         <v>570</v>
       </c>
-      <c r="S48">
+      <c r="U48">
         <f t="shared" si="2"/>
         <v>1985</v>
       </c>
-      <c r="T48">
+      <c r="V48">
         <f t="shared" si="3"/>
         <v>53495</v>
       </c>
-      <c r="U48">
+      <c r="W48">
         <f t="shared" si="0"/>
         <v>7.3857369847649318E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -42838,24 +43882,24 @@
       <c r="N49">
         <v>963473</v>
       </c>
-      <c r="R49">
+      <c r="T49">
         <f t="shared" si="1"/>
         <v>619</v>
       </c>
-      <c r="S49">
+      <c r="U49">
         <f t="shared" si="2"/>
         <v>2079</v>
       </c>
-      <c r="T49">
+      <c r="V49">
         <f t="shared" si="3"/>
         <v>56609</v>
       </c>
-      <c r="U49">
+      <c r="W49">
         <f t="shared" si="0"/>
         <v>8.2919677083149318E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>179</v>
       </c>
@@ -42904,24 +43948,24 @@
       <c r="Q50" t="s">
         <v>84</v>
       </c>
-      <c r="R50">
+      <c r="T50">
         <f t="shared" si="1"/>
         <v>431</v>
       </c>
-      <c r="S50">
+      <c r="U50">
         <f t="shared" si="2"/>
         <v>1677</v>
       </c>
-      <c r="T50">
+      <c r="V50">
         <f t="shared" si="3"/>
         <v>46720</v>
       </c>
-      <c r="U50">
+      <c r="W50">
         <f t="shared" si="0"/>
         <v>8.7585616438356162E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -42964,24 +44008,24 @@
       <c r="N51">
         <v>1046910</v>
       </c>
-      <c r="R51">
+      <c r="T51">
         <f t="shared" si="1"/>
         <v>566</v>
       </c>
-      <c r="S51">
+      <c r="U51">
         <f t="shared" si="2"/>
         <v>1224</v>
       </c>
-      <c r="T51">
+      <c r="V51">
         <f t="shared" si="3"/>
         <v>36717</v>
       </c>
-      <c r="U51">
+      <c r="W51">
         <f t="shared" si="0"/>
         <v>8.5873028842225668E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -43024,24 +44068,24 @@
       <c r="N52">
         <v>1073689</v>
       </c>
-      <c r="R52">
+      <c r="T52">
         <f t="shared" si="1"/>
         <v>602</v>
       </c>
-      <c r="S52">
+      <c r="U52">
         <f t="shared" si="2"/>
         <v>1695</v>
       </c>
-      <c r="T52">
+      <c r="V52">
         <f t="shared" si="3"/>
         <v>26779</v>
       </c>
-      <c r="U52">
+      <c r="W52">
         <f t="shared" si="0"/>
         <v>0.11098248627655999</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>182</v>
       </c>
@@ -43090,24 +44134,24 @@
       <c r="Q53" t="s">
         <v>89</v>
       </c>
-      <c r="R53">
+      <c r="T53">
         <f t="shared" si="1"/>
         <v>578</v>
       </c>
-      <c r="S53">
+      <c r="U53">
         <f t="shared" si="2"/>
         <v>962</v>
       </c>
-      <c r="T53">
+      <c r="V53">
         <f t="shared" si="3"/>
         <v>43715</v>
       </c>
-      <c r="U53">
+      <c r="W53">
         <f t="shared" si="0"/>
         <v>6.1008807045636507E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>183</v>
       </c>
@@ -43150,24 +44194,24 @@
       <c r="N54">
         <v>1178403</v>
       </c>
-      <c r="R54">
+      <c r="T54">
         <f t="shared" si="1"/>
         <v>525</v>
       </c>
-      <c r="S54">
+      <c r="U54">
         <f t="shared" si="2"/>
         <v>2072</v>
       </c>
-      <c r="T54">
+      <c r="V54">
         <f t="shared" si="3"/>
         <v>60999</v>
       </c>
-      <c r="U54">
+      <c r="W54">
         <f t="shared" si="0"/>
         <v>6.2066591255594356E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>184</v>
       </c>
@@ -43210,24 +44254,24 @@
       <c r="N55">
         <v>1244108</v>
       </c>
-      <c r="R55">
+      <c r="T55">
         <f t="shared" si="1"/>
         <v>575</v>
       </c>
-      <c r="S55">
+      <c r="U55">
         <f t="shared" si="2"/>
         <v>2563</v>
       </c>
-      <c r="T55">
+      <c r="V55">
         <f t="shared" si="3"/>
         <v>65705</v>
       </c>
-      <c r="U55">
+      <c r="W55">
         <f t="shared" si="0"/>
         <v>5.316185982801918E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -43270,24 +44314,24 @@
       <c r="N56">
         <v>1305833</v>
       </c>
-      <c r="R56">
+      <c r="T56">
         <f t="shared" si="1"/>
         <v>482</v>
       </c>
-      <c r="S56">
+      <c r="U56">
         <f t="shared" si="2"/>
         <v>2200</v>
       </c>
-      <c r="T56">
+      <c r="V56">
         <f t="shared" si="3"/>
         <v>61725</v>
       </c>
-      <c r="U56">
+      <c r="W56">
         <f t="shared" si="0"/>
         <v>5.6557310652085864E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>179</v>
       </c>
@@ -43333,24 +44377,24 @@
       <c r="O57">
         <v>935310</v>
       </c>
-      <c r="R57">
+      <c r="T57">
         <f t="shared" si="1"/>
         <v>433</v>
       </c>
-      <c r="S57">
+      <c r="U57">
         <f t="shared" si="2"/>
         <v>2128</v>
       </c>
-      <c r="T57">
+      <c r="V57">
         <f t="shared" si="3"/>
         <v>50708</v>
       </c>
-      <c r="U57">
+      <c r="W57">
         <f t="shared" si="0"/>
         <v>6.0089137808629803E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>180</v>
       </c>
@@ -43402,24 +44446,24 @@
       <c r="Q58" t="s">
         <v>97</v>
       </c>
-      <c r="R58">
+      <c r="T58">
         <f t="shared" si="1"/>
         <v>454</v>
       </c>
-      <c r="S58">
+      <c r="U58">
         <f t="shared" si="2"/>
         <v>1822</v>
       </c>
-      <c r="T58">
+      <c r="V58">
         <f t="shared" si="3"/>
         <v>41483</v>
       </c>
-      <c r="U58">
+      <c r="W58">
         <f t="shared" si="0"/>
         <v>5.4383723452980738E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -43471,24 +44515,24 @@
       <c r="Q59" t="s">
         <v>100</v>
       </c>
-      <c r="R59">
+      <c r="T59">
         <f t="shared" si="1"/>
         <v>534</v>
       </c>
-      <c r="S59">
+      <c r="U59">
         <f t="shared" si="2"/>
         <v>2723</v>
       </c>
-      <c r="T59">
+      <c r="V59">
         <f t="shared" si="3"/>
         <v>52126</v>
       </c>
-      <c r="U59">
+      <c r="W59">
         <f t="shared" si="0"/>
         <v>5.2353911675555385E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>182</v>
       </c>
@@ -43534,24 +44578,24 @@
       <c r="O60">
         <v>1015494</v>
       </c>
-      <c r="R60">
+      <c r="T60">
         <f t="shared" si="1"/>
         <v>437</v>
       </c>
-      <c r="S60">
+      <c r="U60">
         <f t="shared" si="2"/>
         <v>2943</v>
       </c>
-      <c r="T60">
+      <c r="V60">
         <f t="shared" si="3"/>
         <v>63101</v>
       </c>
-      <c r="U60">
+      <c r="W60">
         <f t="shared" si="0"/>
         <v>5.3406443637977211E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>183</v>
       </c>
@@ -43603,24 +44647,24 @@
       <c r="Q61" t="s">
         <v>104</v>
       </c>
-      <c r="R61">
+      <c r="T61">
         <f t="shared" si="1"/>
         <v>464</v>
       </c>
-      <c r="S61">
+      <c r="U61">
         <f t="shared" si="2"/>
         <v>3033</v>
       </c>
-      <c r="T61">
+      <c r="V61">
         <f t="shared" si="3"/>
         <v>66658</v>
       </c>
-      <c r="U61">
+      <c r="W61">
         <f t="shared" si="0"/>
         <v>3.9695160370848213E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>184</v>
       </c>
@@ -43672,24 +44716,24 @@
       <c r="Q62" t="s">
         <v>109</v>
       </c>
-      <c r="R62">
+      <c r="T62">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="S62">
+      <c r="U62">
         <f t="shared" si="2"/>
         <v>2922</v>
       </c>
-      <c r="T62">
+      <c r="V62">
         <f t="shared" si="3"/>
         <v>62447</v>
       </c>
-      <c r="U62">
+      <c r="W62">
         <f t="shared" si="0"/>
         <v>4.8377023716111266E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>178</v>
       </c>
@@ -43735,24 +44779,24 @@
       <c r="O63">
         <v>1186526</v>
       </c>
-      <c r="R63">
+      <c r="T63">
         <f t="shared" si="1"/>
         <v>415</v>
       </c>
-      <c r="S63">
+      <c r="U63">
         <f t="shared" si="2"/>
         <v>2622</v>
       </c>
-      <c r="T63">
+      <c r="V63">
         <f t="shared" si="3"/>
         <v>65387</v>
       </c>
-      <c r="U63">
+      <c r="W63">
         <f t="shared" si="0"/>
         <v>3.6046920641717772E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>179</v>
       </c>
@@ -43804,24 +44848,24 @@
       <c r="Q64" t="s">
         <v>112</v>
       </c>
-      <c r="R64">
+      <c r="T64">
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="S64">
+      <c r="U64">
         <f t="shared" si="2"/>
         <v>1808</v>
       </c>
-      <c r="T64">
+      <c r="V64">
         <f t="shared" si="3"/>
         <v>49916</v>
       </c>
-      <c r="U64">
+      <c r="W64">
         <f t="shared" si="0"/>
         <v>4.6558217805913939E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>180</v>
       </c>
@@ -43867,24 +44911,24 @@
       <c r="O65">
         <v>1237317</v>
       </c>
-      <c r="R65">
+      <c r="T65">
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
-      <c r="S65">
+      <c r="U65">
         <f t="shared" si="2"/>
         <v>1696</v>
       </c>
-      <c r="T65">
+      <c r="V65">
         <f t="shared" si="3"/>
         <v>32003</v>
       </c>
-      <c r="U65">
+      <c r="W65">
         <f t="shared" si="0"/>
         <v>5.433865575102334E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>181</v>
       </c>
@@ -43930,24 +44974,24 @@
       <c r="O66">
         <v>1274871</v>
       </c>
-      <c r="R66">
+      <c r="T66">
         <f t="shared" si="1"/>
         <v>382</v>
       </c>
-      <c r="S66">
+      <c r="U66">
         <f t="shared" si="2"/>
         <v>2317</v>
       </c>
-      <c r="T66">
+      <c r="V66">
         <f t="shared" si="3"/>
         <v>57272</v>
       </c>
-      <c r="U66">
+      <c r="W66">
         <f t="shared" si="0"/>
         <v>3.6509987428411786E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>182</v>
       </c>
@@ -43993,24 +45037,24 @@
       <c r="O67">
         <v>1313460</v>
       </c>
-      <c r="R67">
+      <c r="T67">
         <f t="shared" si="1"/>
         <v>323</v>
       </c>
-      <c r="S67">
+      <c r="U67">
         <f t="shared" si="2"/>
         <v>2311</v>
       </c>
-      <c r="T67">
+      <c r="V67">
         <f t="shared" si="3"/>
         <v>63827</v>
       </c>
-      <c r="U67">
-        <f t="shared" ref="U67:U95" si="4">J67/T67</f>
+      <c r="W67">
+        <f t="shared" ref="W67:W101" si="4">J67/V67</f>
         <v>3.2682093784761931E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>183</v>
       </c>
@@ -44056,24 +45100,24 @@
       <c r="O68">
         <v>1354901</v>
       </c>
-      <c r="R68">
-        <f t="shared" ref="R68:R95" si="5">L68-L67</f>
+      <c r="T68">
+        <f t="shared" ref="T68:T101" si="5">L68-L67</f>
         <v>285</v>
       </c>
-      <c r="S68">
-        <f t="shared" ref="S68:S95" si="6">K68-K67</f>
+      <c r="U68">
+        <f t="shared" ref="U68:U101" si="6">K68-K67</f>
         <v>4693</v>
       </c>
-      <c r="T68">
-        <f t="shared" ref="T68:T95" si="7">N68-N67</f>
+      <c r="V68">
+        <f t="shared" ref="V68:V101" si="7">N68-N67</f>
         <v>68456</v>
       </c>
-      <c r="U68">
+      <c r="W68">
         <f t="shared" si="4"/>
         <v>2.7346032488021504E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>184</v>
       </c>
@@ -44125,24 +45169,24 @@
       <c r="Q69" t="s">
         <v>120</v>
       </c>
-      <c r="R69">
+      <c r="T69">
         <f t="shared" si="5"/>
         <v>269</v>
       </c>
-      <c r="S69">
+      <c r="U69">
         <f t="shared" si="6"/>
         <v>2304</v>
       </c>
-      <c r="T69">
+      <c r="V69">
         <f t="shared" si="7"/>
         <v>74208</v>
       </c>
-      <c r="U69">
+      <c r="W69">
         <f t="shared" si="4"/>
         <v>2.6479624838292366E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>178</v>
       </c>
@@ -44194,24 +45238,24 @@
       <c r="Q70" t="s">
         <v>123</v>
       </c>
-      <c r="R70">
+      <c r="T70">
         <f t="shared" si="5"/>
         <v>474</v>
       </c>
-      <c r="S70">
+      <c r="U70">
         <f t="shared" si="6"/>
         <v>1665</v>
       </c>
-      <c r="T70">
+      <c r="V70">
         <f t="shared" si="7"/>
         <v>55412</v>
       </c>
-      <c r="U70">
+      <c r="W70">
         <f t="shared" si="4"/>
         <v>3.4288601746914026E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>179</v>
       </c>
@@ -44257,24 +45301,24 @@
       <c r="O71">
         <v>1456911</v>
       </c>
-      <c r="R71">
+      <c r="T71">
         <f t="shared" si="5"/>
         <v>174</v>
       </c>
-      <c r="S71">
+      <c r="U71">
         <f t="shared" si="6"/>
         <v>1740</v>
       </c>
-      <c r="T71">
+      <c r="V71">
         <f t="shared" si="7"/>
         <v>44935</v>
       </c>
-      <c r="U71">
+      <c r="W71">
         <f t="shared" si="4"/>
         <v>3.091131634583287E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>180</v>
       </c>
@@ -44326,24 +45370,24 @@
       <c r="Q72" t="s">
         <v>127</v>
       </c>
-      <c r="R72">
+      <c r="T72">
         <f t="shared" si="5"/>
         <v>195</v>
       </c>
-      <c r="S72">
+      <c r="U72">
         <f t="shared" si="6"/>
         <v>1225</v>
       </c>
-      <c r="T72">
+      <c r="V72">
         <f t="shared" si="7"/>
         <v>37631</v>
       </c>
-      <c r="U72">
+      <c r="W72">
         <f t="shared" si="4"/>
         <v>3.2446653025431163E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>181</v>
       </c>
@@ -44389,24 +45433,24 @@
       <c r="O73">
         <v>1512121</v>
       </c>
-      <c r="R73">
+      <c r="T73">
         <f t="shared" si="5"/>
         <v>236</v>
       </c>
-      <c r="S73">
+      <c r="U73">
         <f t="shared" si="6"/>
         <v>2352</v>
       </c>
-      <c r="T73">
+      <c r="V73">
         <f t="shared" si="7"/>
         <v>55263</v>
       </c>
-      <c r="U73">
+      <c r="W73">
         <f t="shared" si="4"/>
         <v>1.9452436530771042E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>182</v>
       </c>
@@ -44458,24 +45502,24 @@
       <c r="Q74" t="s">
         <v>131</v>
       </c>
-      <c r="R74">
+      <c r="T74">
         <f t="shared" si="5"/>
         <v>369</v>
       </c>
-      <c r="S74">
+      <c r="U74">
         <f t="shared" si="6"/>
         <v>8014</v>
       </c>
-      <c r="T74">
+      <c r="V74">
         <f t="shared" si="7"/>
         <v>64263</v>
       </c>
-      <c r="U74">
+      <c r="W74">
         <f t="shared" si="4"/>
         <v>2.2470161679348927E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>183</v>
       </c>
@@ -44527,24 +45571,24 @@
       <c r="Q75" t="s">
         <v>134</v>
       </c>
-      <c r="R75">
+      <c r="T75">
         <f t="shared" si="5"/>
         <v>274</v>
       </c>
-      <c r="S75">
+      <c r="U75">
         <f t="shared" si="6"/>
         <v>3031</v>
       </c>
-      <c r="T75">
+      <c r="V75">
         <f t="shared" si="7"/>
         <v>70359</v>
       </c>
-      <c r="U75">
+      <c r="W75">
         <f t="shared" si="4"/>
         <v>1.9912164755041997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>184</v>
       </c>
@@ -44596,24 +45640,24 @@
       <c r="Q76" t="s">
         <v>137</v>
       </c>
-      <c r="R76">
+      <c r="T76">
         <f t="shared" si="5"/>
         <v>243</v>
       </c>
-      <c r="S76">
+      <c r="U76">
         <f t="shared" si="6"/>
         <v>2747</v>
       </c>
-      <c r="T76">
+      <c r="V76">
         <f t="shared" si="7"/>
         <v>63775</v>
       </c>
-      <c r="U76">
+      <c r="W76">
         <f t="shared" si="4"/>
         <v>2.0807526460211681E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>178</v>
       </c>
@@ -44659,24 +45703,24 @@
       <c r="O77">
         <v>1645076</v>
       </c>
-      <c r="R77">
+      <c r="T77">
         <f t="shared" si="5"/>
         <v>194</v>
       </c>
-      <c r="S77">
+      <c r="U77">
         <f t="shared" si="6"/>
         <v>4008</v>
       </c>
-      <c r="T77">
+      <c r="V77">
         <f t="shared" si="7"/>
         <v>69171</v>
       </c>
-      <c r="U77">
+      <c r="W77">
         <f t="shared" si="4"/>
         <v>1.5656850414190918E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>179</v>
       </c>
@@ -44722,24 +45766,24 @@
       <c r="O78">
         <v>1676460</v>
       </c>
-      <c r="R78">
+      <c r="T78">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="S78">
+      <c r="U78">
         <f t="shared" si="6"/>
         <v>2155</v>
       </c>
-      <c r="T78">
+      <c r="V78">
         <f t="shared" si="7"/>
         <v>51678</v>
       </c>
-      <c r="U78">
+      <c r="W78">
         <f t="shared" si="4"/>
         <v>1.5519176438716668E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>180</v>
       </c>
@@ -44785,24 +45829,24 @@
       <c r="O79">
         <v>1702283</v>
       </c>
-      <c r="R79">
+      <c r="T79">
         <f t="shared" si="5"/>
         <v>179</v>
       </c>
-      <c r="S79">
+      <c r="U79">
         <f t="shared" si="6"/>
         <v>1401</v>
       </c>
-      <c r="T79">
+      <c r="V79">
         <f t="shared" si="7"/>
         <v>40740</v>
       </c>
-      <c r="U79">
+      <c r="W79">
         <f t="shared" si="4"/>
         <v>1.8262150220913109E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>181</v>
       </c>
@@ -44854,24 +45898,24 @@
       <c r="Q80" t="s">
         <v>144</v>
       </c>
-      <c r="R80">
+      <c r="T80">
         <f t="shared" si="5"/>
         <v>172</v>
       </c>
-      <c r="S80">
+      <c r="U80">
         <f t="shared" si="6"/>
         <v>2452</v>
       </c>
-      <c r="T80">
+      <c r="V80">
         <f t="shared" si="7"/>
         <v>67003</v>
       </c>
-      <c r="U80">
+      <c r="W80">
         <f t="shared" si="4"/>
         <v>2.0924436219273763E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>182</v>
       </c>
@@ -44917,24 +45961,24 @@
       <c r="O81">
         <v>1778952</v>
       </c>
-      <c r="R81">
+      <c r="T81">
         <f t="shared" si="5"/>
         <v>195</v>
       </c>
-      <c r="S81">
+      <c r="U81">
         <f t="shared" si="6"/>
         <v>3502</v>
       </c>
-      <c r="T81">
+      <c r="V81">
         <f t="shared" si="7"/>
         <v>61973</v>
       </c>
-      <c r="U81">
+      <c r="W81">
         <f t="shared" si="4"/>
         <v>1.43288206154293E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>183</v>
       </c>
@@ -44986,24 +46030,24 @@
       <c r="Q82" t="s">
         <v>149</v>
       </c>
-      <c r="R82">
+      <c r="T82">
         <f t="shared" si="5"/>
         <v>262</v>
       </c>
-      <c r="S82">
+      <c r="U82">
         <f t="shared" si="6"/>
         <v>2747</v>
       </c>
-      <c r="T82">
+      <c r="V82">
         <f t="shared" si="7"/>
         <v>71876</v>
       </c>
-      <c r="U82">
+      <c r="W82">
         <f t="shared" si="4"/>
         <v>1.3801547108909788E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>184</v>
       </c>
@@ -45055,24 +46099,24 @@
       <c r="Q83" t="s">
         <v>152</v>
       </c>
-      <c r="R83">
+      <c r="T83">
         <f t="shared" si="5"/>
         <v>242</v>
       </c>
-      <c r="S83">
+      <c r="U83">
         <f t="shared" si="6"/>
         <v>4917</v>
       </c>
-      <c r="T83">
+      <c r="V83">
         <f t="shared" si="7"/>
         <v>68176</v>
       </c>
-      <c r="U83">
+      <c r="W83">
         <f t="shared" si="4"/>
         <v>1.1572987561605257E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>178</v>
       </c>
@@ -45118,24 +46162,24 @@
       <c r="O84">
         <v>1899767</v>
       </c>
-      <c r="R84">
+      <c r="T84">
         <f t="shared" si="5"/>
         <v>153</v>
       </c>
-      <c r="S84">
+      <c r="U84">
         <f t="shared" si="6"/>
         <v>2605</v>
       </c>
-      <c r="T84">
+      <c r="V84">
         <f t="shared" si="7"/>
         <v>69179</v>
       </c>
-      <c r="U84">
+      <c r="W84">
         <f t="shared" si="4"/>
         <v>1.2648347041732318E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>179</v>
       </c>
@@ -45181,24 +46225,24 @@
       <c r="O85">
         <v>1933272</v>
       </c>
-      <c r="R85">
+      <c r="T85">
         <f t="shared" si="5"/>
         <v>145</v>
       </c>
-      <c r="S85">
+      <c r="U85">
         <f t="shared" si="6"/>
         <v>2366</v>
       </c>
-      <c r="T85">
+      <c r="V85">
         <f t="shared" si="7"/>
         <v>60101</v>
       </c>
-      <c r="U85">
+      <c r="W85">
         <f t="shared" si="4"/>
         <v>1.1231094324553667E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>180</v>
       </c>
@@ -45250,24 +46294,24 @@
       <c r="Q86" t="s">
         <v>157</v>
       </c>
-      <c r="R86">
+      <c r="T86">
         <f t="shared" si="5"/>
         <v>99</v>
       </c>
-      <c r="S86">
+      <c r="U86">
         <f t="shared" si="6"/>
         <v>2150</v>
       </c>
-      <c r="T86">
+      <c r="V86">
         <f t="shared" si="7"/>
         <v>36406</v>
       </c>
-      <c r="U86">
+      <c r="W86">
         <f t="shared" si="4"/>
         <v>1.2388067900895456E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>181</v>
       </c>
@@ -45319,24 +46363,24 @@
       <c r="Q87" t="s">
         <v>160</v>
       </c>
-      <c r="R87">
+      <c r="T87">
         <f t="shared" si="5"/>
         <v>162</v>
       </c>
-      <c r="S87">
+      <c r="U87">
         <f t="shared" si="6"/>
         <v>2075</v>
       </c>
-      <c r="T87">
+      <c r="V87">
         <f t="shared" si="7"/>
         <v>63158</v>
       </c>
-      <c r="U87">
+      <c r="W87">
         <f t="shared" si="4"/>
         <v>1.2872478545869091E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>182</v>
       </c>
@@ -45382,24 +46426,24 @@
       <c r="O88">
         <v>2038216</v>
       </c>
-      <c r="R88">
+      <c r="T88">
         <f t="shared" si="5"/>
         <v>161</v>
       </c>
-      <c r="S88">
+      <c r="U88">
         <f t="shared" si="6"/>
         <v>2881</v>
       </c>
-      <c r="T88">
+      <c r="V88">
         <f t="shared" si="7"/>
         <v>67195</v>
       </c>
-      <c r="U88">
+      <c r="W88">
         <f t="shared" si="4"/>
         <v>9.8965696852444385E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>183</v>
       </c>
@@ -45445,24 +46489,24 @@
       <c r="O89">
         <v>2078860</v>
       </c>
-      <c r="R89">
+      <c r="T89">
         <f t="shared" si="5"/>
         <v>156</v>
       </c>
-      <c r="S89">
+      <c r="U89">
         <f t="shared" si="6"/>
         <v>2278</v>
       </c>
-      <c r="T89">
+      <c r="V89">
         <f t="shared" si="7"/>
         <v>71679</v>
       </c>
-      <c r="U89">
+      <c r="W89">
         <f t="shared" si="4"/>
         <v>8.9565981668271039E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>184</v>
       </c>
@@ -45508,24 +46552,24 @@
       <c r="O90">
         <v>2121847</v>
       </c>
-      <c r="R90">
+      <c r="T90">
         <f t="shared" si="5"/>
         <v>130</v>
       </c>
-      <c r="S90">
+      <c r="U90">
         <f t="shared" si="6"/>
         <v>2160</v>
       </c>
-      <c r="T90">
+      <c r="V90">
         <f t="shared" si="7"/>
         <v>75380</v>
       </c>
-      <c r="U90">
+      <c r="W90">
         <f t="shared" si="4"/>
         <v>8.6495091536216498E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>178</v>
       </c>
@@ -45571,24 +46615,24 @@
       <c r="O91">
         <v>2164426</v>
       </c>
-      <c r="R91">
+      <c r="T91">
         <f t="shared" si="5"/>
         <v>119</v>
       </c>
-      <c r="S91">
+      <c r="U91">
         <f t="shared" si="6"/>
         <v>2120</v>
       </c>
-      <c r="T91">
+      <c r="V91">
         <f t="shared" si="7"/>
         <v>72410</v>
       </c>
-      <c r="U91">
+      <c r="W91">
         <f t="shared" si="4"/>
         <v>9.2390553790912856E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>179</v>
       </c>
@@ -45640,24 +46684,24 @@
       <c r="Q92" t="s">
         <v>167</v>
       </c>
-      <c r="R92">
+      <c r="T92">
         <f t="shared" si="5"/>
         <v>50</v>
       </c>
-      <c r="S92">
+      <c r="U92">
         <f t="shared" si="6"/>
         <v>1639</v>
       </c>
-      <c r="T92">
+      <c r="V92">
         <f t="shared" si="7"/>
         <v>55824</v>
       </c>
-      <c r="U92">
+      <c r="W92">
         <f t="shared" si="4"/>
         <v>9.5120378331900266E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>180</v>
       </c>
@@ -45709,24 +46753,24 @@
       <c r="Q93" t="s">
         <v>170</v>
       </c>
-      <c r="R93">
+      <c r="T93">
         <f t="shared" si="5"/>
         <v>92</v>
       </c>
-      <c r="S93">
+      <c r="U93">
         <f t="shared" si="6"/>
         <v>1502</v>
       </c>
-      <c r="T93">
+      <c r="V93">
         <f t="shared" si="7"/>
         <v>35241</v>
       </c>
-      <c r="U93">
+      <c r="W93">
         <f t="shared" si="4"/>
         <v>8.5128117817315063E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>181</v>
       </c>
@@ -45772,24 +46816,24 @@
       <c r="O94">
         <v>2253252</v>
       </c>
-      <c r="R94">
+      <c r="T94">
         <f t="shared" si="5"/>
         <v>78</v>
       </c>
-      <c r="S94">
+      <c r="U94">
         <f t="shared" si="6"/>
         <v>2677</v>
       </c>
-      <c r="T94">
+      <c r="V94">
         <f t="shared" si="7"/>
         <v>57674</v>
       </c>
-      <c r="U94">
+      <c r="W94">
         <f t="shared" si="4"/>
         <v>6.8835177029510702E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>182</v>
       </c>
@@ -45835,21 +46879,417 @@
       <c r="O95">
         <v>2290551</v>
       </c>
-      <c r="R95">
+      <c r="T95">
         <f t="shared" si="5"/>
         <v>117</v>
       </c>
-      <c r="S95">
+      <c r="U95">
         <f t="shared" si="6"/>
         <v>2443</v>
       </c>
-      <c r="T95">
+      <c r="V95">
         <f t="shared" si="7"/>
         <v>67324</v>
       </c>
-      <c r="U95">
+      <c r="W95">
         <f t="shared" si="4"/>
         <v>8.6744697284772149E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96">
+        <v>7379</v>
+      </c>
+      <c r="E96">
+        <v>489</v>
+      </c>
+      <c r="F96">
+        <v>7868</v>
+      </c>
+      <c r="G96">
+        <v>40118</v>
+      </c>
+      <c r="H96">
+        <v>47986</v>
+      </c>
+      <c r="I96">
+        <v>-2980</v>
+      </c>
+      <c r="J96">
+        <v>593</v>
+      </c>
+      <c r="K96">
+        <v>150604</v>
+      </c>
+      <c r="L96">
+        <v>33142</v>
+      </c>
+      <c r="M96">
+        <v>231732</v>
+      </c>
+      <c r="N96">
+        <v>3683144</v>
+      </c>
+      <c r="O96">
+        <v>2330389</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="6"/>
+        <v>3503</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="7"/>
+        <v>75893</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="4"/>
+        <v>7.813632350809693E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>184</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>7094</v>
+      </c>
+      <c r="E97">
+        <v>475</v>
+      </c>
+      <c r="F97">
+        <v>7569</v>
+      </c>
+      <c r="G97">
+        <v>38606</v>
+      </c>
+      <c r="H97">
+        <v>46175</v>
+      </c>
+      <c r="I97">
+        <v>-1811</v>
+      </c>
+      <c r="J97">
+        <v>516</v>
+      </c>
+      <c r="K97">
+        <v>152844</v>
+      </c>
+      <c r="L97">
+        <v>33229</v>
+      </c>
+      <c r="M97">
+        <v>232248</v>
+      </c>
+      <c r="N97">
+        <v>3755279</v>
+      </c>
+      <c r="O97">
+        <v>2368622</v>
+      </c>
+      <c r="P97" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>188</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="6"/>
+        <v>2240</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="7"/>
+        <v>72135</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="4"/>
+        <v>7.1532543148263676E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>178</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98">
+        <v>6680</v>
+      </c>
+      <c r="E98">
+        <v>450</v>
+      </c>
+      <c r="F98">
+        <v>7130</v>
+      </c>
+      <c r="G98">
+        <v>36561</v>
+      </c>
+      <c r="H98">
+        <v>43691</v>
+      </c>
+      <c r="I98">
+        <v>-2484</v>
+      </c>
+      <c r="J98">
+        <v>416</v>
+      </c>
+      <c r="K98">
+        <v>155633</v>
+      </c>
+      <c r="L98">
+        <v>33340</v>
+      </c>
+      <c r="M98">
+        <v>232664</v>
+      </c>
+      <c r="N98">
+        <v>3824621</v>
+      </c>
+      <c r="O98">
+        <v>2404673</v>
+      </c>
+      <c r="P98" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>191</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="5"/>
+        <v>111</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="6"/>
+        <v>2789</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="7"/>
+        <v>69342</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="4"/>
+        <v>5.999250093738283E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>179</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>6387</v>
+      </c>
+      <c r="E99">
+        <v>435</v>
+      </c>
+      <c r="F99">
+        <v>6822</v>
+      </c>
+      <c r="G99">
+        <v>35275</v>
+      </c>
+      <c r="H99">
+        <v>42097</v>
+      </c>
+      <c r="I99">
+        <v>-1594</v>
+      </c>
+      <c r="J99">
+        <v>355</v>
+      </c>
+      <c r="K99">
+        <v>157507</v>
+      </c>
+      <c r="L99">
+        <v>33415</v>
+      </c>
+      <c r="M99">
+        <v>233019</v>
+      </c>
+      <c r="N99">
+        <v>3878739</v>
+      </c>
+      <c r="O99">
+        <v>2433621</v>
+      </c>
+      <c r="P99" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>194</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="6"/>
+        <v>1874</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="7"/>
+        <v>54118</v>
+      </c>
+      <c r="W99">
+        <f t="shared" si="4"/>
+        <v>6.5597398277837315E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>180</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100">
+        <v>6099</v>
+      </c>
+      <c r="E100">
+        <v>424</v>
+      </c>
+      <c r="F100">
+        <v>6523</v>
+      </c>
+      <c r="G100">
+        <v>34844</v>
+      </c>
+      <c r="H100">
+        <v>41367</v>
+      </c>
+      <c r="I100">
+        <v>-730</v>
+      </c>
+      <c r="J100">
+        <v>178</v>
+      </c>
+      <c r="K100">
+        <v>158355</v>
+      </c>
+      <c r="L100">
+        <v>33475</v>
+      </c>
+      <c r="M100">
+        <v>233197</v>
+      </c>
+      <c r="N100">
+        <v>3910133</v>
+      </c>
+      <c r="O100">
+        <v>2451674</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="6"/>
+        <v>848</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="7"/>
+        <v>31394</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="4"/>
+        <v>5.6698732241829645E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>181</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>5916</v>
+      </c>
+      <c r="E101">
+        <v>408</v>
+      </c>
+      <c r="F101">
+        <v>6324</v>
+      </c>
+      <c r="G101">
+        <v>33569</v>
+      </c>
+      <c r="H101">
+        <v>39893</v>
+      </c>
+      <c r="I101">
+        <v>-1474</v>
+      </c>
+      <c r="J101">
+        <v>318</v>
+      </c>
+      <c r="K101">
+        <v>160092</v>
+      </c>
+      <c r="L101">
+        <v>33530</v>
+      </c>
+      <c r="M101">
+        <v>233515</v>
+      </c>
+      <c r="N101">
+        <v>3962292</v>
+      </c>
+      <c r="O101">
+        <v>2477302</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="6"/>
+        <v>1737</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="7"/>
+        <v>52159</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="4"/>
+        <v>6.0967426522747755E-3</v>
       </c>
     </row>
   </sheetData>
@@ -45867,7 +47307,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/andamento_nazionale.xlsx
+++ b/andamento_nazionale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="dati PCM-DPC" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Grafici log" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$B$1:$Q$101</definedName>
+    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$B$1:$Q$103</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="200">
   <si>
     <t>data</t>
   </si>
@@ -644,6 +644,15 @@
   <si>
     <t>2020-06-02T17:00:00</t>
   </si>
+  <si>
+    <t>2020-06-03T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-06-04T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0039</t>
+  </si>
 </sst>
 </file>
 
@@ -788,9 +797,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1090,16 +1099,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$101</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1399,6 +1414,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>5916</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5742</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,9 +1674,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1955,16 +1976,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$101</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -2264,6 +2291,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>233515</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>233836</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>234013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2518,9 +2551,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -2820,16 +2853,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$N$2:$N$101</c:f>
+              <c:f>'dati PCM-DPC'!$N$2:$N$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -3129,6 +3168,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>3962292</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3999591</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4049544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3413,9 +3458,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3715,16 +3760,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$101</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4024,6 +4075,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>160092</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>160938</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>161895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4063,9 +4120,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -4365,16 +4422,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$101</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4674,6 +4737,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>33530</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>33601</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>33689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4959,9 +5028,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5261,16 +5330,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$T$2:$T$101</c:f>
+              <c:f>'dati PCM-DPC'!$T$2:$T$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5570,6 +5645,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5822,9 +5903,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -6124,16 +6205,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$U$2:$U$101</c:f>
+              <c:f>'dati PCM-DPC'!$U$2:$U$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -6433,6 +6520,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>1737</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>957</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6685,9 +6778,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -6987,16 +7080,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$V$2:$V$101</c:f>
+              <c:f>'dati PCM-DPC'!$V$2:$V$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -7296,6 +7395,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>52159</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>37299</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>49953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7548,9 +7653,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -7850,16 +7955,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$W$2:$W$101</c:f>
+              <c:f>'dati PCM-DPC'!$W$2:$W$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>5.1110083256244221E-2</c:v>
                 </c:pt>
@@ -8159,6 +8270,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>6.0967426522747755E-3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>8.606128850639428E-3</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.543330730887034E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8412,9 +8529,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -8714,16 +8831,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$101</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -9023,6 +9146,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>5916</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5742</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5503</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9277,9 +9406,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -9579,16 +9708,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$101</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -9888,6 +10023,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10142,9 +10283,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -10444,16 +10585,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$101</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -10753,6 +10900,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>6324</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6095</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11008,9 +11161,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -11310,16 +11463,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$101</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -11619,6 +11778,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11872,9 +12037,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -12174,16 +12339,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$101</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -12483,6 +12654,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>33569</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>33202</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>32588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12737,9 +12914,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13039,16 +13216,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$101</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -13348,6 +13531,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>39893</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>39297</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>38429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13602,9 +13791,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13904,16 +14093,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$101</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14213,6 +14408,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>-1474</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-596</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14467,9 +14668,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14769,16 +14970,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$101</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -15078,6 +15285,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15332,9 +15545,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -15634,16 +15847,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$101</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -15943,6 +16162,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>160092</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>160938</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>161895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16197,9 +16422,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -16499,16 +16724,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$101</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -16808,6 +17039,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>33530</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>33601</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>33689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17062,9 +17299,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -17364,16 +17601,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$101</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -17673,6 +17916,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>233515</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>233836</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>234013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17927,9 +18176,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -18229,16 +18478,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$N$2:$N$101</c:f>
+              <c:f>'dati PCM-DPC'!$N$2:$N$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -18538,6 +18793,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>3962292</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3999591</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4049544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18793,9 +19054,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19095,16 +19356,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$101</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -19404,6 +19671,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>6324</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6095</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5841</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19658,9 +19931,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19960,16 +20233,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$101</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -20269,6 +20548,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>33569</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>33202</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>32588</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20523,9 +20808,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -20825,16 +21110,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$101</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -21134,6 +21425,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>39893</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>39297</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>38429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21387,9 +21684,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -21689,16 +21986,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$101</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -21998,6 +22301,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>-1474</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-596</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22250,9 +22559,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -22552,16 +22861,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$101</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -22861,6 +23176,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23114,9 +23435,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -23416,16 +23737,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$101</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -23725,6 +24052,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>160092</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>160938</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>161895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23979,9 +24312,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$101</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
               <c:strCache>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -24281,16 +24614,22 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>2020-06-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2020-06-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2020-06-04T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$101</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
+                <c:ptCount val="102"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -24590,6 +24929,12 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>33530</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>33601</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>33689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -40873,10 +41218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W101"/>
+  <dimension ref="A1:W103"/>
   <sheetViews>
-    <sheetView topLeftCell="H2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W91" sqref="W91:W101"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V103" sqref="V103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45050,7 +45395,7 @@
         <v>63827</v>
       </c>
       <c r="W67">
-        <f t="shared" ref="W67:W101" si="4">J67/V67</f>
+        <f t="shared" ref="W67:W103" si="4">J67/V67</f>
         <v>3.2682093784761931E-2</v>
       </c>
     </row>
@@ -45101,15 +45446,15 @@
         <v>1354901</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T101" si="5">L68-L67</f>
+        <f t="shared" ref="T68:T103" si="5">L68-L67</f>
         <v>285</v>
       </c>
       <c r="U68">
-        <f t="shared" ref="U68:U101" si="6">K68-K67</f>
+        <f t="shared" ref="U68:U103" si="6">K68-K67</f>
         <v>4693</v>
       </c>
       <c r="V68">
-        <f t="shared" ref="V68:V101" si="7">N68-N67</f>
+        <f t="shared" ref="V68:V103" si="7">N68-N67</f>
         <v>68456</v>
       </c>
       <c r="W68">
@@ -47290,6 +47635,138 @@
       <c r="W101">
         <f t="shared" si="4"/>
         <v>6.0967426522747755E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>182</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102">
+        <v>5742</v>
+      </c>
+      <c r="E102">
+        <v>353</v>
+      </c>
+      <c r="F102">
+        <v>6095</v>
+      </c>
+      <c r="G102">
+        <v>33202</v>
+      </c>
+      <c r="H102">
+        <v>39297</v>
+      </c>
+      <c r="I102">
+        <v>-596</v>
+      </c>
+      <c r="J102">
+        <v>321</v>
+      </c>
+      <c r="K102">
+        <v>160938</v>
+      </c>
+      <c r="L102">
+        <v>33601</v>
+      </c>
+      <c r="M102">
+        <v>233836</v>
+      </c>
+      <c r="N102">
+        <v>3999591</v>
+      </c>
+      <c r="O102">
+        <v>2497337</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="6"/>
+        <v>846</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="7"/>
+        <v>37299</v>
+      </c>
+      <c r="W102">
+        <f t="shared" si="4"/>
+        <v>8.606128850639428E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>183</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>5503</v>
+      </c>
+      <c r="E103">
+        <v>338</v>
+      </c>
+      <c r="F103">
+        <v>5841</v>
+      </c>
+      <c r="G103">
+        <v>32588</v>
+      </c>
+      <c r="H103">
+        <v>38429</v>
+      </c>
+      <c r="I103">
+        <v>-868</v>
+      </c>
+      <c r="J103">
+        <v>177</v>
+      </c>
+      <c r="K103">
+        <v>161895</v>
+      </c>
+      <c r="L103">
+        <v>33689</v>
+      </c>
+      <c r="M103">
+        <v>234013</v>
+      </c>
+      <c r="N103">
+        <v>4049544</v>
+      </c>
+      <c r="O103">
+        <v>2524788</v>
+      </c>
+      <c r="P103" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>199</v>
+      </c>
+      <c r="T103">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="6"/>
+        <v>957</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="7"/>
+        <v>49953</v>
+      </c>
+      <c r="W103">
+        <f t="shared" si="4"/>
+        <v>3.543330730887034E-3</v>
       </c>
     </row>
   </sheetData>
@@ -47306,7 +47783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>

--- a/andamento_nazionale.xlsx
+++ b/andamento_nazionale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dati PCM-DPC" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Grafici log" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$B$1:$Q$103</definedName>
+    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$B$1:$Q$104</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="201">
   <si>
     <t>data</t>
   </si>
@@ -653,6 +653,9 @@
   <si>
     <t>dc-IT-0039</t>
   </si>
+  <si>
+    <t>2020-06-05T17:00:00</t>
+  </si>
 </sst>
 </file>
 
@@ -797,9 +800,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1105,16 +1108,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$103</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1420,6 +1426,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>5503</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,9 +1683,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1982,16 +1991,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$103</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -2297,6 +2309,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>234013</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>234531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2551,9 +2566,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -2859,16 +2874,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$N$2:$N$103</c:f>
+              <c:f>'dati PCM-DPC'!$N$2:$N$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -3174,6 +3192,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>4049544</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4114572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3458,9 +3479,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3766,16 +3787,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$103</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4081,6 +4105,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>161895</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>163781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4120,9 +4147,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -4428,16 +4455,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$103</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4743,6 +4773,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>33689</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>33774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5028,9 +5061,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5336,16 +5369,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$T$2:$T$103</c:f>
+              <c:f>'dati PCM-DPC'!$T$2:$T$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5651,6 +5687,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5903,9 +5942,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -6211,16 +6250,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$U$2:$U$103</c:f>
+              <c:f>'dati PCM-DPC'!$U$2:$U$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -6526,6 +6568,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>957</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6778,9 +6823,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -7086,16 +7131,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$V$2:$V$103</c:f>
+              <c:f>'dati PCM-DPC'!$V$2:$V$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -7401,6 +7449,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>49953</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>65028</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7653,9 +7704,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -7961,16 +8012,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$W$2:$W$103</c:f>
+              <c:f>'dati PCM-DPC'!$W$2:$W$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>5.1110083256244221E-2</c:v>
                 </c:pt>
@@ -8276,6 +8330,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>3.543330730887034E-3</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>7.9657993479731806E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8529,9 +8586,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -8837,16 +8894,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$103</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -9152,6 +9212,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>5503</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9406,9 +9469,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -9714,16 +9777,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$103</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -10029,6 +10095,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10283,9 +10352,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -10591,16 +10660,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$103</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -10906,6 +10978,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>5841</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11161,9 +11236,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -11469,16 +11544,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$103</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -11784,6 +11862,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12037,9 +12118,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -12345,16 +12426,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$103</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -12660,6 +12744,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>32588</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>31359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12914,9 +13001,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13222,16 +13309,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$103</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -13537,6 +13627,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>38429</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>36976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13791,9 +13884,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14099,16 +14192,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$103</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14414,6 +14510,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>-868</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-1453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14668,9 +14767,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14976,16 +15075,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$103</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -15291,6 +15393,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15545,9 +15650,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -15853,16 +15958,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$103</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -16168,6 +16276,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>161895</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>163781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16422,9 +16533,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -16730,16 +16841,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$103</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -17045,6 +17159,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>33689</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>33774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17299,9 +17416,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -17607,16 +17724,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$103</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -17922,6 +18042,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>234013</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>234531</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18176,9 +18299,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -18484,16 +18607,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$N$2:$N$103</c:f>
+              <c:f>'dati PCM-DPC'!$N$2:$N$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -18799,6 +18925,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>4049544</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4114572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19054,9 +19183,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19362,16 +19491,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$103</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -19677,6 +19809,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>5841</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5617</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19931,9 +20066,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -20239,16 +20374,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$103</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -20554,6 +20692,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>32588</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>31359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20808,9 +20949,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -21116,16 +21257,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$103</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -21431,6 +21575,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>38429</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>36976</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21684,9 +21831,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -21992,16 +22139,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$103</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -22307,6 +22457,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>-868</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-1453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22559,9 +22712,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -22867,16 +23020,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$103</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -23182,6 +23338,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>518</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23435,9 +23594,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -23743,16 +23902,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$103</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -24058,6 +24220,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>161895</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>163781</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24312,9 +24477,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$103</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
               <c:strCache>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -24620,16 +24785,19 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2020-06-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2020-06-05T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$103</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="103"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -24935,6 +25103,9 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>33689</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>33774</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41218,10 +41389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W103"/>
+  <dimension ref="A1:W104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V103" sqref="V103"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W104" sqref="W104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45395,7 +45566,7 @@
         <v>63827</v>
       </c>
       <c r="W67">
-        <f t="shared" ref="W67:W103" si="4">J67/V67</f>
+        <f t="shared" ref="W67:W104" si="4">J67/V67</f>
         <v>3.2682093784761931E-2</v>
       </c>
     </row>
@@ -45446,15 +45617,15 @@
         <v>1354901</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T103" si="5">L68-L67</f>
+        <f t="shared" ref="T68:T104" si="5">L68-L67</f>
         <v>285</v>
       </c>
       <c r="U68">
-        <f t="shared" ref="U68:U103" si="6">K68-K67</f>
+        <f t="shared" ref="U68:U104" si="6">K68-K67</f>
         <v>4693</v>
       </c>
       <c r="V68">
-        <f t="shared" ref="V68:V103" si="7">N68-N67</f>
+        <f t="shared" ref="V68:V104" si="7">N68-N67</f>
         <v>68456</v>
       </c>
       <c r="W68">
@@ -47767,6 +47938,66 @@
       <c r="W103">
         <f t="shared" si="4"/>
         <v>3.543330730887034E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B104" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104">
+        <v>5301</v>
+      </c>
+      <c r="E104">
+        <v>316</v>
+      </c>
+      <c r="F104">
+        <v>5617</v>
+      </c>
+      <c r="G104">
+        <v>31359</v>
+      </c>
+      <c r="H104">
+        <v>36976</v>
+      </c>
+      <c r="I104">
+        <v>-1453</v>
+      </c>
+      <c r="J104">
+        <v>518</v>
+      </c>
+      <c r="K104">
+        <v>163781</v>
+      </c>
+      <c r="L104">
+        <v>33774</v>
+      </c>
+      <c r="M104">
+        <v>234531</v>
+      </c>
+      <c r="N104">
+        <v>4114572</v>
+      </c>
+      <c r="O104">
+        <v>2565258</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="6"/>
+        <v>1886</v>
+      </c>
+      <c r="V104">
+        <f t="shared" si="7"/>
+        <v>65028</v>
+      </c>
+      <c r="W104">
+        <f t="shared" si="4"/>
+        <v>7.9657993479731806E-3</v>
       </c>
     </row>
   </sheetData>
@@ -47783,7 +48014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>

--- a/andamento_nazionale.xlsx
+++ b/andamento_nazionale.xlsx
@@ -17,9 +17,9 @@
     <sheet name="Grafici log" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$B$1:$Q$104</definedName>
+    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$B$1:$Q$125</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="244">
   <si>
     <t>data</t>
   </si>
@@ -656,6 +656,135 @@
   <si>
     <t>2020-06-05T17:00:00</t>
   </si>
+  <si>
+    <t>2020-06-06T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-06-07T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-06-08T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-06-09T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0041;dc-IT-0043</t>
+  </si>
+  <si>
+    <t>dc-EN-0041;dc-EN-0043</t>
+  </si>
+  <si>
+    <t>2020-06-10T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-06-11T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-06-12T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0045;dc-IT-0047</t>
+  </si>
+  <si>
+    <t>dc-EN-0045;dc-EN-0047</t>
+  </si>
+  <si>
+    <t>2020-06-13T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0049</t>
+  </si>
+  <si>
+    <t>dc-EN-0049</t>
+  </si>
+  <si>
+    <t>2020-06-14T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-06-15T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0051</t>
+  </si>
+  <si>
+    <t>dc-EN-0051</t>
+  </si>
+  <si>
+    <t>2020-06-16T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-06-17T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0053</t>
+  </si>
+  <si>
+    <t>dc-EN-0053</t>
+  </si>
+  <si>
+    <t>2020-06-18T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0055</t>
+  </si>
+  <si>
+    <t>dc-EN-0055</t>
+  </si>
+  <si>
+    <t>2020-06-19T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0057;dc-IT-0059</t>
+  </si>
+  <si>
+    <t>dc-EN-0057;dc-EN-0059</t>
+  </si>
+  <si>
+    <t>2020-06-20T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0061;dc-IT-0063</t>
+  </si>
+  <si>
+    <t>dc-EN-0061;dc-EN-0063</t>
+  </si>
+  <si>
+    <t>2020-06-21T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-06-22T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0065</t>
+  </si>
+  <si>
+    <t>dc-EN-0065</t>
+  </si>
+  <si>
+    <t>2020-06-23T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0067;dc-IT-0069</t>
+  </si>
+  <si>
+    <t>dc-EN-0067;dc-EN-0069</t>
+  </si>
+  <si>
+    <t>2020-06-24T17:00:00</t>
+  </si>
+  <si>
+    <t>dc-IT-0071</t>
+  </si>
+  <si>
+    <t>dc-EN-0071</t>
+  </si>
+  <si>
+    <t>2020-06-25T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-06-26T17:00:00</t>
+  </si>
 </sst>
 </file>
 
@@ -800,9 +929,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1111,16 +1240,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$104</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1429,6 +1621,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>5301</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4864</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4729</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4581</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4320</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4131</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3893</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3747</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3594</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3489</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3113</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2867</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2632</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2474</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2314</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1683,9 +1938,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1994,16 +2249,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$104</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -2312,6 +2630,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>234531</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>234801</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>234998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>235278</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>235561</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>235763</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>236142</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>236305</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>236651</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>236989</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>237290</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>237500</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>237828</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>238159</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>238011</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>238275</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>238499</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>238720</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>238833</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>239410</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>239706</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>239961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2566,9 +2947,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -2877,16 +3258,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$N$2:$N$104</c:f>
+              <c:f>'dati PCM-DPC'!$N$2:$N$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -3195,6 +3639,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>4114572</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4187057</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4236535</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4263647</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4318650</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4381349</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4443821</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4514441</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4564191</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4620718</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4648825</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4695707</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4773408</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4831562</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4889103</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4943825</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4984370</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5013342</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5053827</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5107093</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5163154</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5215922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3479,9 +3986,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3790,16 +4297,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$104</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4108,6 +4678,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>163781</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>165078</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>165837</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>166584</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>168646</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>169939</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>171338</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>173085</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>174865</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>176370</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>177010</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>178526</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>179455</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>180544</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>181907</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>182453</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>182893</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>183426</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>184585</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>186111</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>186725</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>187615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4147,9 +4780,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -4458,16 +5091,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$104</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -4776,6 +5472,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>33774</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>33846</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>33899</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>33964</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>34043</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>34114</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>34167</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>34223</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>34301</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>34345</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>34371</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>34405</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>34448</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>34514</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>34561</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>34610</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>34634</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>34657</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>34675</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>34644</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>34678</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>34708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5061,9 +5820,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5372,16 +6131,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$T$2:$T$104</c:f>
+              <c:f>'dati PCM-DPC'!$T$2:$T$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5690,6 +6512,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5942,9 +6827,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -6253,16 +7138,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$U$2:$U$104</c:f>
+              <c:f>'dati PCM-DPC'!$U$2:$U$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -6571,6 +7519,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>1886</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1297</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>747</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2062</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1293</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1747</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1780</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1505</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>929</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1089</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1159</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6823,9 +7834,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -7134,16 +8145,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$V$2:$V$104</c:f>
+              <c:f>'dati PCM-DPC'!$V$2:$V$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -7452,6 +8526,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>65028</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>72485</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>49478</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>27112</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>55003</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>62699</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>62472</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>70620</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>49750</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>56527</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>28107</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>46882</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>77701</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>58154</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>57541</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>54722</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>40545</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>28972</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>40485</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>53266</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>56061</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>52768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7704,9 +8841,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -8015,16 +9152,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$W$2:$W$104</c:f>
+              <c:f>'dati PCM-DPC'!$W$2:$W$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>5.1110083256244221E-2</c:v>
                 </c:pt>
@@ -8333,6 +9533,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>7.9657993479731806E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.7249086017796785E-3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.9815675653825941E-3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.0327530244910003E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.1451738996054763E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.2217419735561972E-3</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.0667178896145471E-3</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.3081280090625884E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.9547738693467335E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.979443451801794E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.0780232682249972E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.4793310865577406E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.2341797402864825E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.7261753275784982E-3</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.3621070193427293E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.7878367018749316E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.5247256135158469E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7.5245064199917161E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.0134617759664073E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.5670033417189201E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.2799628975580175E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.9082777440873256E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8586,9 +9849,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -8897,16 +10160,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$104</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -9215,6 +10541,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>5301</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4864</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4729</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4581</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4320</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4131</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3893</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3747</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3594</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3489</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3113</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2867</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2632</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2474</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2314</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1610</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1356</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9469,9 +10858,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -9780,16 +11169,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$104</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -10098,6 +11550,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10352,9 +11867,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -10663,16 +12178,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$104</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -10981,6 +12559,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>5617</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5295</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5151</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5012</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4844</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4569</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4367</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4120</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3967</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3803</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3696</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3478</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3276</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3035</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2793</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2626</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2462</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2165</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1717</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1618</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11236,9 +12877,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -11547,16 +13188,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$104</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -11865,6 +13569,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12118,9 +13885,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -12429,16 +14196,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$104</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -12747,6 +14577,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>31359</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>30582</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>30111</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>29718</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>28028</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>27141</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>26270</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>24877</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>23518</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>22471</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22213</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>21091</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>20649</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>20066</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>18750</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>18586</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>18510</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>18472</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>17605</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>16938</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>16685</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>16177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13001,9 +14894,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13312,16 +15205,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$104</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -13630,6 +15586,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>36976</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>35877</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>35262</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>34730</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>32872</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>31710</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>30637</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>28997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27485</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>26274</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>25909</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>24569</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>23925</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>23101</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>21543</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>21212</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>20972</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>20637</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>19573</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>18655</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>18303</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>17638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13884,9 +15903,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14195,16 +16214,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$104</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -14513,6 +16595,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>-1453</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-1099</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-615</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-532</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-1858</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-1162</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-1073</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1640</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-1512</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-1211</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-365</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-1340</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-644</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-824</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-1558</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-331</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-240</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-335</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-1064</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-918</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-352</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14767,9 +16912,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -15078,16 +17223,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$104</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -15396,6 +17604,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15650,9 +17921,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -15961,16 +18232,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$104</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -16279,6 +18613,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>163781</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>165078</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>165837</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>166584</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>168646</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>169939</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>171338</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>173085</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>174865</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>176370</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>177010</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>178526</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>179455</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>180544</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>181907</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>182453</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>182893</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>183426</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>184585</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>186111</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>186725</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>187615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16533,9 +18930,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -16844,16 +19241,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$104</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -17162,6 +19622,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>33774</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>33846</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>33899</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>33964</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>34043</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>34114</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>34167</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>34223</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>34301</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>34345</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>34371</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>34405</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>34448</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>34514</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>34561</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>34610</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>34634</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>34657</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>34675</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>34644</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>34678</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>34708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17416,9 +19939,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -17727,16 +20250,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$104</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -18045,6 +20631,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>234531</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>234801</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>234998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>235278</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>235561</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>235763</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>236142</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>236305</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>236651</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>236989</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>237290</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>237500</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>237828</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>238159</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>238011</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>238275</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>238499</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>238720</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>238833</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>239410</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>239706</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>239961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18299,9 +20948,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -18610,16 +21259,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$N$2:$N$104</c:f>
+              <c:f>'dati PCM-DPC'!$N$2:$N$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -18928,6 +21640,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>4114572</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4187057</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4236535</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4263647</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4318650</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4381349</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4443821</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4514441</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4564191</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4620718</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4648825</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4695707</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4773408</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4831562</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4889103</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4943825</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4984370</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5013342</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5053827</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5107093</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5163154</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5215922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19183,9 +21958,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19494,16 +22269,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$104</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -19812,6 +22650,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>5617</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5295</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5151</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5012</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4844</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4569</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4367</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4120</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3967</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3803</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3696</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3478</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3276</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3035</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2793</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2626</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2462</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2165</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1717</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1618</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20066,9 +22967,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -20377,16 +23278,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$104</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -20695,6 +23659,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>31359</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>30582</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>30111</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>29718</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>28028</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>27141</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>26270</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>24877</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>23518</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>22471</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22213</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>21091</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>20649</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>20066</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>18750</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>18586</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>18510</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>18472</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>17605</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>16938</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>16685</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>16177</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20949,9 +23976,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -21260,16 +24287,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$104</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -21578,6 +24668,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>36976</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>35877</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>35262</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>34730</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>32872</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>31710</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>30637</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>28997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>27485</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>26274</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>25909</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>24569</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>23925</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>23101</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>21543</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>21212</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>20972</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>20637</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>19573</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>18655</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>18303</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>17638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21831,9 +24984,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -22142,16 +25295,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$104</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -22460,6 +25676,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>-1453</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-1099</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-615</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-532</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-1858</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-1162</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-1073</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-1640</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-1512</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-1211</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-365</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-1340</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-644</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-824</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-1558</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-331</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-240</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-335</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-1064</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-918</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-352</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-665</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22712,9 +25991,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -23023,16 +26302,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$104</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -23341,6 +26683,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23594,9 +26999,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -23905,16 +27310,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$104</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -24223,6 +27691,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>163781</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>165078</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>165837</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>166584</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>168646</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>169939</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>171338</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>173085</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>174865</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>176370</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>177010</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>178526</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>179455</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>180544</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>181907</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>182453</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>182893</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>183426</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>184585</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>186111</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>186725</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>187615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24477,9 +28008,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$104</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$125</c:f>
               <c:strCache>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -24788,16 +28319,79 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>2020-06-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2020-06-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2020-06-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2020-06-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2020-06-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2020-06-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2020-06-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2020-06-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2020-06-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2020-06-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2020-06-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2020-06-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2020-06-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2020-06-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2020-06-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2020-06-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2020-06-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2020-06-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020-06-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2020-06-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2020-06-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2020-06-26T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$104</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$125</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="103"/>
+                <c:ptCount val="124"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -25106,6 +28700,69 @@
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>33774</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>33846</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>33899</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>33964</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>34043</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>34114</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>34167</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>34223</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>34301</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>34345</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>34371</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>34405</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>34448</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>34514</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>34561</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>34610</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>34634</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>34657</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>34675</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>34644</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>34678</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>34708</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -41389,10 +45046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W104"/>
+  <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W104" sqref="W104"/>
+    <sheetView topLeftCell="H2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J125" sqref="J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45566,7 +49223,7 @@
         <v>63827</v>
       </c>
       <c r="W67">
-        <f t="shared" ref="W67:W104" si="4">J67/V67</f>
+        <f t="shared" ref="W67:W125" si="4">J67/V67</f>
         <v>3.2682093784761931E-2</v>
       </c>
     </row>
@@ -45617,15 +49274,15 @@
         <v>1354901</v>
       </c>
       <c r="T68">
-        <f t="shared" ref="T68:T104" si="5">L68-L67</f>
+        <f t="shared" ref="T68:T125" si="5">L68-L67</f>
         <v>285</v>
       </c>
       <c r="U68">
-        <f t="shared" ref="U68:U104" si="6">K68-K67</f>
+        <f t="shared" ref="U68:U125" si="6">K68-K67</f>
         <v>4693</v>
       </c>
       <c r="V68">
-        <f t="shared" ref="V68:V104" si="7">N68-N67</f>
+        <f t="shared" ref="V68:V125" si="7">N68-N67</f>
         <v>68456</v>
       </c>
       <c r="W68">
@@ -47941,6 +51598,9 @@
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>184</v>
+      </c>
       <c r="B104" s="1" t="s">
         <v>200</v>
       </c>
@@ -47998,6 +51658,1395 @@
       <c r="W104">
         <f t="shared" si="4"/>
         <v>7.9657993479731806E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>178</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>5002</v>
+      </c>
+      <c r="E105">
+        <v>293</v>
+      </c>
+      <c r="F105">
+        <v>5295</v>
+      </c>
+      <c r="G105">
+        <v>30582</v>
+      </c>
+      <c r="H105">
+        <v>35877</v>
+      </c>
+      <c r="I105">
+        <v>-1099</v>
+      </c>
+      <c r="J105">
+        <v>270</v>
+      </c>
+      <c r="K105">
+        <v>165078</v>
+      </c>
+      <c r="L105">
+        <v>33846</v>
+      </c>
+      <c r="M105">
+        <v>234801</v>
+      </c>
+      <c r="N105">
+        <v>4187057</v>
+      </c>
+      <c r="O105">
+        <v>2599294</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="6"/>
+        <v>1297</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="7"/>
+        <v>72485</v>
+      </c>
+      <c r="W105">
+        <f t="shared" si="4"/>
+        <v>3.7249086017796785E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>179</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>4864</v>
+      </c>
+      <c r="E106">
+        <v>287</v>
+      </c>
+      <c r="F106">
+        <v>5151</v>
+      </c>
+      <c r="G106">
+        <v>30111</v>
+      </c>
+      <c r="H106">
+        <v>35262</v>
+      </c>
+      <c r="I106">
+        <v>-615</v>
+      </c>
+      <c r="J106">
+        <v>197</v>
+      </c>
+      <c r="K106">
+        <v>165837</v>
+      </c>
+      <c r="L106">
+        <v>33899</v>
+      </c>
+      <c r="M106">
+        <v>234998</v>
+      </c>
+      <c r="N106">
+        <v>4236535</v>
+      </c>
+      <c r="O106">
+        <v>2627188</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="6"/>
+        <v>759</v>
+      </c>
+      <c r="V106">
+        <f t="shared" si="7"/>
+        <v>49478</v>
+      </c>
+      <c r="W106">
+        <f t="shared" si="4"/>
+        <v>3.9815675653825941E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>4729</v>
+      </c>
+      <c r="E107">
+        <v>283</v>
+      </c>
+      <c r="F107">
+        <v>5012</v>
+      </c>
+      <c r="G107">
+        <v>29718</v>
+      </c>
+      <c r="H107">
+        <v>34730</v>
+      </c>
+      <c r="I107">
+        <v>-532</v>
+      </c>
+      <c r="J107">
+        <v>280</v>
+      </c>
+      <c r="K107">
+        <v>166584</v>
+      </c>
+      <c r="L107">
+        <v>33964</v>
+      </c>
+      <c r="M107">
+        <v>235278</v>
+      </c>
+      <c r="N107">
+        <v>4263647</v>
+      </c>
+      <c r="O107">
+        <v>2643489</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="6"/>
+        <v>747</v>
+      </c>
+      <c r="V107">
+        <f t="shared" si="7"/>
+        <v>27112</v>
+      </c>
+      <c r="W107">
+        <f t="shared" si="4"/>
+        <v>1.0327530244910003E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>181</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108">
+        <v>4581</v>
+      </c>
+      <c r="E108">
+        <v>263</v>
+      </c>
+      <c r="F108">
+        <v>4844</v>
+      </c>
+      <c r="G108">
+        <v>28028</v>
+      </c>
+      <c r="H108">
+        <v>32872</v>
+      </c>
+      <c r="I108">
+        <v>-1858</v>
+      </c>
+      <c r="J108">
+        <v>283</v>
+      </c>
+      <c r="K108">
+        <v>168646</v>
+      </c>
+      <c r="L108">
+        <v>34043</v>
+      </c>
+      <c r="M108">
+        <v>235561</v>
+      </c>
+      <c r="N108">
+        <v>4318650</v>
+      </c>
+      <c r="O108">
+        <v>2675689</v>
+      </c>
+      <c r="P108" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>206</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="6"/>
+        <v>2062</v>
+      </c>
+      <c r="V108">
+        <f t="shared" si="7"/>
+        <v>55003</v>
+      </c>
+      <c r="W108">
+        <f t="shared" si="4"/>
+        <v>5.1451738996054763E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109">
+        <v>4320</v>
+      </c>
+      <c r="E109">
+        <v>249</v>
+      </c>
+      <c r="F109">
+        <v>4569</v>
+      </c>
+      <c r="G109">
+        <v>27141</v>
+      </c>
+      <c r="H109">
+        <v>31710</v>
+      </c>
+      <c r="I109">
+        <v>-1162</v>
+      </c>
+      <c r="J109">
+        <v>202</v>
+      </c>
+      <c r="K109">
+        <v>169939</v>
+      </c>
+      <c r="L109">
+        <v>34114</v>
+      </c>
+      <c r="M109">
+        <v>235763</v>
+      </c>
+      <c r="N109">
+        <v>4381349</v>
+      </c>
+      <c r="O109">
+        <v>2713554</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="5"/>
+        <v>71</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="6"/>
+        <v>1293</v>
+      </c>
+      <c r="V109">
+        <f t="shared" si="7"/>
+        <v>62699</v>
+      </c>
+      <c r="W109">
+        <f t="shared" si="4"/>
+        <v>3.2217419735561972E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>183</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <v>4131</v>
+      </c>
+      <c r="E110">
+        <v>236</v>
+      </c>
+      <c r="F110">
+        <v>4367</v>
+      </c>
+      <c r="G110">
+        <v>26270</v>
+      </c>
+      <c r="H110">
+        <v>30637</v>
+      </c>
+      <c r="I110">
+        <v>-1073</v>
+      </c>
+      <c r="J110">
+        <v>379</v>
+      </c>
+      <c r="K110">
+        <v>171338</v>
+      </c>
+      <c r="L110">
+        <v>34167</v>
+      </c>
+      <c r="M110">
+        <v>236142</v>
+      </c>
+      <c r="N110">
+        <v>4443821</v>
+      </c>
+      <c r="O110">
+        <v>2746545</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="6"/>
+        <v>1399</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="7"/>
+        <v>62472</v>
+      </c>
+      <c r="W110">
+        <f t="shared" si="4"/>
+        <v>6.0667178896145471E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>184</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111">
+        <v>3893</v>
+      </c>
+      <c r="E111">
+        <v>227</v>
+      </c>
+      <c r="F111">
+        <v>4120</v>
+      </c>
+      <c r="G111">
+        <v>24877</v>
+      </c>
+      <c r="H111">
+        <v>28997</v>
+      </c>
+      <c r="I111">
+        <v>-1640</v>
+      </c>
+      <c r="J111">
+        <v>163</v>
+      </c>
+      <c r="K111">
+        <v>173085</v>
+      </c>
+      <c r="L111">
+        <v>34223</v>
+      </c>
+      <c r="M111">
+        <v>236305</v>
+      </c>
+      <c r="N111">
+        <v>4514441</v>
+      </c>
+      <c r="O111">
+        <v>2784196</v>
+      </c>
+      <c r="P111" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>211</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="6"/>
+        <v>1747</v>
+      </c>
+      <c r="V111">
+        <f t="shared" si="7"/>
+        <v>70620</v>
+      </c>
+      <c r="W111">
+        <f t="shared" si="4"/>
+        <v>2.3081280090625884E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>178</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <v>3747</v>
+      </c>
+      <c r="E112">
+        <v>220</v>
+      </c>
+      <c r="F112">
+        <v>3967</v>
+      </c>
+      <c r="G112">
+        <v>23518</v>
+      </c>
+      <c r="H112">
+        <v>27485</v>
+      </c>
+      <c r="I112">
+        <v>-1512</v>
+      </c>
+      <c r="J112">
+        <v>346</v>
+      </c>
+      <c r="K112">
+        <v>174865</v>
+      </c>
+      <c r="L112">
+        <v>34301</v>
+      </c>
+      <c r="M112">
+        <v>236651</v>
+      </c>
+      <c r="N112">
+        <v>4564191</v>
+      </c>
+      <c r="O112">
+        <v>2817076</v>
+      </c>
+      <c r="P112" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>214</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="6"/>
+        <v>1780</v>
+      </c>
+      <c r="V112">
+        <f t="shared" si="7"/>
+        <v>49750</v>
+      </c>
+      <c r="W112">
+        <f t="shared" si="4"/>
+        <v>6.9547738693467335E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>179</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>3594</v>
+      </c>
+      <c r="E113">
+        <v>209</v>
+      </c>
+      <c r="F113">
+        <v>3803</v>
+      </c>
+      <c r="G113">
+        <v>22471</v>
+      </c>
+      <c r="H113">
+        <v>26274</v>
+      </c>
+      <c r="I113">
+        <v>-1211</v>
+      </c>
+      <c r="J113">
+        <v>338</v>
+      </c>
+      <c r="K113">
+        <v>176370</v>
+      </c>
+      <c r="L113">
+        <v>34345</v>
+      </c>
+      <c r="M113">
+        <v>236989</v>
+      </c>
+      <c r="N113">
+        <v>4620718</v>
+      </c>
+      <c r="O113">
+        <v>2846621</v>
+      </c>
+      <c r="T113">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="6"/>
+        <v>1505</v>
+      </c>
+      <c r="V113">
+        <f t="shared" si="7"/>
+        <v>56527</v>
+      </c>
+      <c r="W113">
+        <f t="shared" si="4"/>
+        <v>5.979443451801794E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>180</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <v>3489</v>
+      </c>
+      <c r="E114">
+        <v>207</v>
+      </c>
+      <c r="F114">
+        <v>3696</v>
+      </c>
+      <c r="G114">
+        <v>22213</v>
+      </c>
+      <c r="H114">
+        <v>25909</v>
+      </c>
+      <c r="I114">
+        <v>-365</v>
+      </c>
+      <c r="J114">
+        <v>303</v>
+      </c>
+      <c r="K114">
+        <v>177010</v>
+      </c>
+      <c r="L114">
+        <v>34371</v>
+      </c>
+      <c r="M114">
+        <v>237290</v>
+      </c>
+      <c r="N114">
+        <v>4648825</v>
+      </c>
+      <c r="O114">
+        <v>2864084</v>
+      </c>
+      <c r="P114" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>218</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="6"/>
+        <v>640</v>
+      </c>
+      <c r="V114">
+        <f t="shared" si="7"/>
+        <v>28107</v>
+      </c>
+      <c r="W114">
+        <f t="shared" si="4"/>
+        <v>1.0780232682249972E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>181</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <v>3301</v>
+      </c>
+      <c r="E115">
+        <v>177</v>
+      </c>
+      <c r="F115">
+        <v>3478</v>
+      </c>
+      <c r="G115">
+        <v>21091</v>
+      </c>
+      <c r="H115">
+        <v>24569</v>
+      </c>
+      <c r="I115">
+        <v>-1340</v>
+      </c>
+      <c r="J115">
+        <v>210</v>
+      </c>
+      <c r="K115">
+        <v>178526</v>
+      </c>
+      <c r="L115">
+        <v>34405</v>
+      </c>
+      <c r="M115">
+        <v>237500</v>
+      </c>
+      <c r="N115">
+        <v>4695707</v>
+      </c>
+      <c r="O115">
+        <v>2891846</v>
+      </c>
+      <c r="T115">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="U115">
+        <f t="shared" si="6"/>
+        <v>1516</v>
+      </c>
+      <c r="V115">
+        <f t="shared" si="7"/>
+        <v>46882</v>
+      </c>
+      <c r="W115">
+        <f t="shared" si="4"/>
+        <v>4.4793310865577406E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>182</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <v>3113</v>
+      </c>
+      <c r="E116">
+        <v>163</v>
+      </c>
+      <c r="F116">
+        <v>3276</v>
+      </c>
+      <c r="G116">
+        <v>20649</v>
+      </c>
+      <c r="H116">
+        <v>23925</v>
+      </c>
+      <c r="I116">
+        <v>-644</v>
+      </c>
+      <c r="J116">
+        <v>329</v>
+      </c>
+      <c r="K116">
+        <v>179455</v>
+      </c>
+      <c r="L116">
+        <v>34448</v>
+      </c>
+      <c r="M116">
+        <v>237828</v>
+      </c>
+      <c r="N116">
+        <v>4773408</v>
+      </c>
+      <c r="O116">
+        <v>2925803</v>
+      </c>
+      <c r="P116" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>222</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="5"/>
+        <v>43</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="6"/>
+        <v>929</v>
+      </c>
+      <c r="V116">
+        <f t="shared" si="7"/>
+        <v>77701</v>
+      </c>
+      <c r="W116">
+        <f t="shared" si="4"/>
+        <v>4.2341797402864825E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>183</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>2867</v>
+      </c>
+      <c r="E117">
+        <v>168</v>
+      </c>
+      <c r="F117">
+        <v>3035</v>
+      </c>
+      <c r="G117">
+        <v>20066</v>
+      </c>
+      <c r="H117">
+        <v>23101</v>
+      </c>
+      <c r="I117">
+        <v>-824</v>
+      </c>
+      <c r="J117">
+        <v>333</v>
+      </c>
+      <c r="K117">
+        <v>180544</v>
+      </c>
+      <c r="L117">
+        <v>34514</v>
+      </c>
+      <c r="M117">
+        <v>238159</v>
+      </c>
+      <c r="N117">
+        <v>4831562</v>
+      </c>
+      <c r="O117">
+        <v>2958724</v>
+      </c>
+      <c r="P117" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>225</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="6"/>
+        <v>1089</v>
+      </c>
+      <c r="V117">
+        <f t="shared" si="7"/>
+        <v>58154</v>
+      </c>
+      <c r="W117">
+        <f t="shared" si="4"/>
+        <v>5.7261753275784982E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>184</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>2632</v>
+      </c>
+      <c r="E118">
+        <v>161</v>
+      </c>
+      <c r="F118">
+        <v>2793</v>
+      </c>
+      <c r="G118">
+        <v>18750</v>
+      </c>
+      <c r="H118">
+        <v>21543</v>
+      </c>
+      <c r="I118">
+        <v>-1558</v>
+      </c>
+      <c r="J118">
+        <v>251</v>
+      </c>
+      <c r="K118">
+        <v>181907</v>
+      </c>
+      <c r="L118">
+        <v>34561</v>
+      </c>
+      <c r="M118">
+        <v>238011</v>
+      </c>
+      <c r="N118">
+        <v>4889103</v>
+      </c>
+      <c r="O118">
+        <v>2987294</v>
+      </c>
+      <c r="P118" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>228</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="5"/>
+        <v>47</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="6"/>
+        <v>1363</v>
+      </c>
+      <c r="V118">
+        <f t="shared" si="7"/>
+        <v>57541</v>
+      </c>
+      <c r="W118">
+        <f t="shared" si="4"/>
+        <v>4.3621070193427293E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>178</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>2474</v>
+      </c>
+      <c r="E119">
+        <v>152</v>
+      </c>
+      <c r="F119">
+        <v>2626</v>
+      </c>
+      <c r="G119">
+        <v>18586</v>
+      </c>
+      <c r="H119">
+        <v>21212</v>
+      </c>
+      <c r="I119">
+        <v>-331</v>
+      </c>
+      <c r="J119">
+        <v>262</v>
+      </c>
+      <c r="K119">
+        <v>182453</v>
+      </c>
+      <c r="L119">
+        <v>34610</v>
+      </c>
+      <c r="M119">
+        <v>238275</v>
+      </c>
+      <c r="N119">
+        <v>4943825</v>
+      </c>
+      <c r="O119">
+        <v>3017169</v>
+      </c>
+      <c r="P119" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>231</v>
+      </c>
+      <c r="T119">
+        <f t="shared" si="5"/>
+        <v>49</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="6"/>
+        <v>546</v>
+      </c>
+      <c r="V119">
+        <f t="shared" si="7"/>
+        <v>54722</v>
+      </c>
+      <c r="W119">
+        <f t="shared" si="4"/>
+        <v>4.7878367018749316E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>179</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <v>2314</v>
+      </c>
+      <c r="E120">
+        <v>148</v>
+      </c>
+      <c r="F120">
+        <v>2462</v>
+      </c>
+      <c r="G120">
+        <v>18510</v>
+      </c>
+      <c r="H120">
+        <v>20972</v>
+      </c>
+      <c r="I120">
+        <v>-240</v>
+      </c>
+      <c r="J120">
+        <v>224</v>
+      </c>
+      <c r="K120">
+        <v>182893</v>
+      </c>
+      <c r="L120">
+        <v>34634</v>
+      </c>
+      <c r="M120">
+        <v>238499</v>
+      </c>
+      <c r="N120">
+        <v>4984370</v>
+      </c>
+      <c r="O120">
+        <v>3041750</v>
+      </c>
+      <c r="T120">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="6"/>
+        <v>440</v>
+      </c>
+      <c r="V120">
+        <f t="shared" si="7"/>
+        <v>40545</v>
+      </c>
+      <c r="W120">
+        <f t="shared" si="4"/>
+        <v>5.5247256135158469E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>180</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <v>2038</v>
+      </c>
+      <c r="E121">
+        <v>127</v>
+      </c>
+      <c r="F121">
+        <v>2165</v>
+      </c>
+      <c r="G121">
+        <v>18472</v>
+      </c>
+      <c r="H121">
+        <v>20637</v>
+      </c>
+      <c r="I121">
+        <v>-335</v>
+      </c>
+      <c r="J121">
+        <v>218</v>
+      </c>
+      <c r="K121">
+        <v>183426</v>
+      </c>
+      <c r="L121">
+        <v>34657</v>
+      </c>
+      <c r="M121">
+        <v>238720</v>
+      </c>
+      <c r="N121">
+        <v>5013342</v>
+      </c>
+      <c r="O121">
+        <v>3057902</v>
+      </c>
+      <c r="P121" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>235</v>
+      </c>
+      <c r="T121">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="U121">
+        <f t="shared" si="6"/>
+        <v>533</v>
+      </c>
+      <c r="V121">
+        <f t="shared" si="7"/>
+        <v>28972</v>
+      </c>
+      <c r="W121">
+        <f t="shared" si="4"/>
+        <v>7.5245064199917161E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>181</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122">
+        <v>1853</v>
+      </c>
+      <c r="E122">
+        <v>115</v>
+      </c>
+      <c r="F122">
+        <v>1968</v>
+      </c>
+      <c r="G122">
+        <v>17605</v>
+      </c>
+      <c r="H122">
+        <v>19573</v>
+      </c>
+      <c r="I122">
+        <v>-1064</v>
+      </c>
+      <c r="J122">
+        <v>122</v>
+      </c>
+      <c r="K122">
+        <v>184585</v>
+      </c>
+      <c r="L122">
+        <v>34675</v>
+      </c>
+      <c r="M122">
+        <v>238833</v>
+      </c>
+      <c r="N122">
+        <v>5053827</v>
+      </c>
+      <c r="O122">
+        <v>3081127</v>
+      </c>
+      <c r="P122" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>238</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="6"/>
+        <v>1159</v>
+      </c>
+      <c r="V122">
+        <f t="shared" si="7"/>
+        <v>40485</v>
+      </c>
+      <c r="W122">
+        <f t="shared" si="4"/>
+        <v>3.0134617759664073E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>182</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123">
+        <v>1610</v>
+      </c>
+      <c r="E123">
+        <v>107</v>
+      </c>
+      <c r="F123">
+        <v>1717</v>
+      </c>
+      <c r="G123">
+        <v>16938</v>
+      </c>
+      <c r="H123">
+        <v>18655</v>
+      </c>
+      <c r="I123">
+        <v>-918</v>
+      </c>
+      <c r="J123">
+        <v>190</v>
+      </c>
+      <c r="K123">
+        <v>186111</v>
+      </c>
+      <c r="L123">
+        <v>34644</v>
+      </c>
+      <c r="M123">
+        <v>239410</v>
+      </c>
+      <c r="N123">
+        <v>5107093</v>
+      </c>
+      <c r="O123">
+        <v>3111364</v>
+      </c>
+      <c r="P123" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>241</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="5"/>
+        <v>-31</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="6"/>
+        <v>1526</v>
+      </c>
+      <c r="V123">
+        <f t="shared" si="7"/>
+        <v>53266</v>
+      </c>
+      <c r="W123">
+        <f t="shared" si="4"/>
+        <v>3.5670033417189201E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>183</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124">
+        <v>1515</v>
+      </c>
+      <c r="E124">
+        <v>103</v>
+      </c>
+      <c r="F124">
+        <v>1618</v>
+      </c>
+      <c r="G124">
+        <v>16685</v>
+      </c>
+      <c r="H124">
+        <v>18303</v>
+      </c>
+      <c r="I124">
+        <v>-352</v>
+      </c>
+      <c r="J124">
+        <v>296</v>
+      </c>
+      <c r="K124">
+        <v>186725</v>
+      </c>
+      <c r="L124">
+        <v>34678</v>
+      </c>
+      <c r="M124">
+        <v>239706</v>
+      </c>
+      <c r="N124">
+        <v>5163154</v>
+      </c>
+      <c r="O124">
+        <v>3140785</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="6"/>
+        <v>614</v>
+      </c>
+      <c r="V124">
+        <f t="shared" si="7"/>
+        <v>56061</v>
+      </c>
+      <c r="W124">
+        <f t="shared" si="4"/>
+        <v>5.2799628975580175E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>184</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>1356</v>
+      </c>
+      <c r="E125">
+        <v>105</v>
+      </c>
+      <c r="F125">
+        <v>1461</v>
+      </c>
+      <c r="G125">
+        <v>16177</v>
+      </c>
+      <c r="H125">
+        <v>17638</v>
+      </c>
+      <c r="I125">
+        <v>-665</v>
+      </c>
+      <c r="J125">
+        <v>259</v>
+      </c>
+      <c r="K125">
+        <v>187615</v>
+      </c>
+      <c r="L125">
+        <v>34708</v>
+      </c>
+      <c r="M125">
+        <v>239961</v>
+      </c>
+      <c r="N125">
+        <v>5215922</v>
+      </c>
+      <c r="O125">
+        <v>3169116</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="6"/>
+        <v>890</v>
+      </c>
+      <c r="V125">
+        <f t="shared" si="7"/>
+        <v>52768</v>
+      </c>
+      <c r="W125">
+        <f t="shared" si="4"/>
+        <v>4.9082777440873256E-3</v>
       </c>
     </row>
   </sheetData>
@@ -48014,7 +53063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>

--- a/andamento_nazionale.xlsx
+++ b/andamento_nazionale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="dati PCM-DPC" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Grafici log" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$B$1:$R$140</definedName>
+    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$B$1:$R$145</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="222">
   <si>
     <t>data</t>
   </si>
@@ -704,6 +704,21 @@
   <si>
     <t>2020-07-11T17:00:00</t>
   </si>
+  <si>
+    <t>2020-07-12T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-13T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-14T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-15T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-16T17:00:00</t>
+  </si>
 </sst>
 </file>
 
@@ -848,9 +863,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1267,16 +1282,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$140</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1693,6 +1723,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>826</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1947,9 +1992,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -2366,16 +2411,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$140</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="122">
                   <c:v>223905</c:v>
                 </c:pt>
@@ -2426,6 +2486,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>221994</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>222036</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>222074</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>222053</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>222075</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>222079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2680,9 +2755,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3099,16 +3174,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$N$2:$N$140</c:f>
+              <c:f>'dati PCM-DPC'!$N$2:$N$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="122">
                   <c:v>15801</c:v>
                 </c:pt>
@@ -3159,6 +3249,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>20833</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>21025</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>21156</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>21291</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>21431</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>21657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3443,9 +3548,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3862,16 +3967,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$140</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4288,6 +4408,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>194579</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>194928</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>195106</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>195441</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>196016</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>196246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4327,9 +4462,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -4746,16 +4881,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$140</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5172,6 +5322,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>34945</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>34954</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>34967</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>34984</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>34997</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>35017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5457,9 +5622,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5876,6 +6041,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6509,9 +6689,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -6928,6 +7108,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7561,9 +7756,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -7980,6 +8175,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8613,9 +8823,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -9032,6 +9242,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9667,9 +9892,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -10086,16 +10311,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$P$2:$P$140</c:f>
+              <c:f>'dati PCM-DPC'!$P$2:$P$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -10512,6 +10752,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>5900552</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5938811</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5962744</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6004611</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6053060</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6103492</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10766,9 +11021,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -11185,16 +11440,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$O$2:$O$140</c:f>
+              <c:f>'dati PCM-DPC'!$O$2:$O$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -11611,6 +11881,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>242827</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>243061</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>243230</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>243344</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>243506</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>243736</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11864,9 +12149,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -12283,16 +12568,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$140</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -12709,6 +13009,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>826</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>776</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12964,9 +13279,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13383,16 +13698,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$140</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -13809,6 +14139,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14062,9 +14407,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14481,16 +14826,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$140</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -14907,6 +15267,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15161,9 +15536,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -15580,16 +15955,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$140</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -16006,6 +16396,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16260,9 +16665,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -16679,16 +17084,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$140</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -17105,6 +17525,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>12410</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>12335</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>12324</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>12082</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>11639</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>11670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17359,9 +17794,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -17778,16 +18213,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$140</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -18204,6 +18654,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>13303</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13179</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>13157</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>12919</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>12493</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>12473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18458,9 +18923,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -18877,16 +19342,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$140</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -19303,6 +19783,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>-125</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-124</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-238</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-426</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19557,9 +20052,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19976,16 +20471,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$140</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -20402,6 +20912,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20656,9 +21181,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -21075,16 +21600,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$140</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -21501,6 +22041,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>194579</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>194928</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>195106</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>195441</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>196016</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>196246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21755,9 +22310,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -22174,16 +22729,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$140</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -22600,6 +23170,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>34945</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>34954</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>34967</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>34984</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>34997</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>35017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22854,9 +23439,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -23273,16 +23858,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$140</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="122">
                   <c:v>223905</c:v>
                 </c:pt>
@@ -23333,6 +23933,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>221994</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>222036</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>222074</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>222053</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>222075</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>222079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23587,9 +24202,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -24006,16 +24621,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$N$2:$N$140</c:f>
+              <c:f>'dati PCM-DPC'!$N$2:$N$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="122">
                   <c:v>15801</c:v>
                 </c:pt>
@@ -24066,6 +24696,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>20833</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>21025</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>21156</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>21291</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>21431</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>21657</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24321,9 +24966,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -24740,16 +25385,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$140</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -25166,6 +25826,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>803</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25420,9 +26095,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -25839,16 +26514,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$140</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -26265,6 +26955,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>12410</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>12335</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>12324</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>12082</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>11639</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>11670</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26519,9 +27224,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -26938,16 +27643,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$140</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -27364,6 +28084,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>13303</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13179</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>13157</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>12919</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>12493</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>12473</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27617,9 +28352,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -28036,16 +28771,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$140</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -28462,6 +29212,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>-125</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-124</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-238</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-426</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28714,9 +29479,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -29133,16 +29898,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$140</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -29559,6 +30339,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>230</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29812,9 +30607,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -30231,16 +31026,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$140</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -30657,6 +31467,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>194579</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>194928</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>195106</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>195441</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>196016</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>196246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30911,9 +31736,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$140</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
               <c:strCache>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -31330,16 +32155,31 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>2020-07-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2020-07-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2020-07-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2020-07-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2020-07-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2020-07-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$140</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$145</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="139"/>
+                <c:ptCount val="144"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -31756,6 +32596,21 @@
                 </c:pt>
                 <c:pt idx="138">
                   <c:v>34945</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>34954</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>34967</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>34984</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>34997</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>35017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -49211,10 +50066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X140"/>
+  <dimension ref="A1:X145"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" activeCellId="1" sqref="B1:B1048576 P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57509,7 +58364,7 @@
         <v>53243</v>
       </c>
       <c r="X131">
-        <f t="shared" ref="X131:X140" si="8">J131/W131</f>
+        <f t="shared" ref="X131:X145" si="8">J131/W131</f>
         <v>3.7751441504047479E-3</v>
       </c>
     </row>
@@ -57566,15 +58421,15 @@
         <v>3348127</v>
       </c>
       <c r="U132">
-        <f t="shared" ref="U132:U140" si="9">L132-L131</f>
+        <f t="shared" ref="U132:U145" si="9">L132-L131</f>
         <v>15</v>
       </c>
       <c r="V132">
-        <f t="shared" ref="V132:V140" si="10">K132-K131</f>
+        <f t="shared" ref="V132:V145" si="10">K132-K131</f>
         <v>384</v>
       </c>
       <c r="W132">
-        <f t="shared" ref="W132:W140" si="11">P132-P131</f>
+        <f t="shared" ref="W132:W145" si="11">P132-P131</f>
         <v>50096</v>
       </c>
       <c r="X132">
@@ -58132,6 +58987,351 @@
       <c r="X140">
         <f t="shared" si="8"/>
         <v>4.0930961659881122E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141">
+        <v>776</v>
+      </c>
+      <c r="E141">
+        <v>68</v>
+      </c>
+      <c r="F141">
+        <v>844</v>
+      </c>
+      <c r="G141">
+        <v>12335</v>
+      </c>
+      <c r="H141">
+        <v>13179</v>
+      </c>
+      <c r="I141">
+        <v>-124</v>
+      </c>
+      <c r="J141">
+        <v>234</v>
+      </c>
+      <c r="K141">
+        <v>194928</v>
+      </c>
+      <c r="L141">
+        <v>34954</v>
+      </c>
+      <c r="M141">
+        <v>222036</v>
+      </c>
+      <c r="N141">
+        <v>21025</v>
+      </c>
+      <c r="O141">
+        <v>243061</v>
+      </c>
+      <c r="P141">
+        <v>5938811</v>
+      </c>
+      <c r="Q141">
+        <v>3568887</v>
+      </c>
+      <c r="U141">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="V141">
+        <f t="shared" si="10"/>
+        <v>349</v>
+      </c>
+      <c r="W141">
+        <f t="shared" si="11"/>
+        <v>38259</v>
+      </c>
+      <c r="X141">
+        <f t="shared" si="8"/>
+        <v>6.1162079510703364E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142">
+        <v>768</v>
+      </c>
+      <c r="E142">
+        <v>65</v>
+      </c>
+      <c r="F142">
+        <v>833</v>
+      </c>
+      <c r="G142">
+        <v>12324</v>
+      </c>
+      <c r="H142">
+        <v>13157</v>
+      </c>
+      <c r="I142">
+        <v>-22</v>
+      </c>
+      <c r="J142">
+        <v>169</v>
+      </c>
+      <c r="K142">
+        <v>195106</v>
+      </c>
+      <c r="L142">
+        <v>34967</v>
+      </c>
+      <c r="M142">
+        <v>222074</v>
+      </c>
+      <c r="N142">
+        <v>21156</v>
+      </c>
+      <c r="O142">
+        <v>243230</v>
+      </c>
+      <c r="P142">
+        <v>5962744</v>
+      </c>
+      <c r="Q142">
+        <v>3582893</v>
+      </c>
+      <c r="U142">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="V142">
+        <f t="shared" si="10"/>
+        <v>178</v>
+      </c>
+      <c r="W142">
+        <f t="shared" si="11"/>
+        <v>23933</v>
+      </c>
+      <c r="X142">
+        <f t="shared" si="8"/>
+        <v>7.0613796849538293E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143">
+        <v>777</v>
+      </c>
+      <c r="E143">
+        <v>60</v>
+      </c>
+      <c r="F143">
+        <v>837</v>
+      </c>
+      <c r="G143">
+        <v>12082</v>
+      </c>
+      <c r="H143">
+        <v>12919</v>
+      </c>
+      <c r="I143">
+        <v>-238</v>
+      </c>
+      <c r="J143">
+        <v>114</v>
+      </c>
+      <c r="K143">
+        <v>195441</v>
+      </c>
+      <c r="L143">
+        <v>34984</v>
+      </c>
+      <c r="M143">
+        <v>222053</v>
+      </c>
+      <c r="N143">
+        <v>21291</v>
+      </c>
+      <c r="O143">
+        <v>243344</v>
+      </c>
+      <c r="P143">
+        <v>6004611</v>
+      </c>
+      <c r="Q143">
+        <v>3607115</v>
+      </c>
+      <c r="U143">
+        <f t="shared" si="9"/>
+        <v>17</v>
+      </c>
+      <c r="V143">
+        <f t="shared" si="10"/>
+        <v>335</v>
+      </c>
+      <c r="W143">
+        <f t="shared" si="11"/>
+        <v>41867</v>
+      </c>
+      <c r="X143">
+        <f t="shared" si="8"/>
+        <v>2.722908257099864E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>151</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144">
+        <v>797</v>
+      </c>
+      <c r="E144">
+        <v>57</v>
+      </c>
+      <c r="F144">
+        <v>854</v>
+      </c>
+      <c r="G144">
+        <v>11639</v>
+      </c>
+      <c r="H144">
+        <v>12493</v>
+      </c>
+      <c r="I144">
+        <v>-426</v>
+      </c>
+      <c r="J144">
+        <v>163</v>
+      </c>
+      <c r="K144">
+        <v>196016</v>
+      </c>
+      <c r="L144">
+        <v>34997</v>
+      </c>
+      <c r="M144">
+        <v>222075</v>
+      </c>
+      <c r="N144">
+        <v>21431</v>
+      </c>
+      <c r="O144">
+        <v>243506</v>
+      </c>
+      <c r="P144">
+        <v>6053060</v>
+      </c>
+      <c r="Q144">
+        <v>3635507</v>
+      </c>
+      <c r="U144">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="V144">
+        <f t="shared" si="10"/>
+        <v>575</v>
+      </c>
+      <c r="W144">
+        <f t="shared" si="11"/>
+        <v>48449</v>
+      </c>
+      <c r="X144">
+        <f t="shared" si="8"/>
+        <v>3.3643625255423228E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145">
+        <v>750</v>
+      </c>
+      <c r="E145">
+        <v>53</v>
+      </c>
+      <c r="F145">
+        <v>803</v>
+      </c>
+      <c r="G145">
+        <v>11670</v>
+      </c>
+      <c r="H145">
+        <v>12473</v>
+      </c>
+      <c r="I145">
+        <v>-20</v>
+      </c>
+      <c r="J145">
+        <v>230</v>
+      </c>
+      <c r="K145">
+        <v>196246</v>
+      </c>
+      <c r="L145">
+        <v>35017</v>
+      </c>
+      <c r="M145">
+        <v>222079</v>
+      </c>
+      <c r="N145">
+        <v>21657</v>
+      </c>
+      <c r="O145">
+        <v>243736</v>
+      </c>
+      <c r="P145">
+        <v>6103492</v>
+      </c>
+      <c r="Q145">
+        <v>3663596</v>
+      </c>
+      <c r="U145">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="V145">
+        <f t="shared" si="10"/>
+        <v>230</v>
+      </c>
+      <c r="W145">
+        <f t="shared" si="11"/>
+        <v>50432</v>
+      </c>
+      <c r="X145">
+        <f t="shared" si="8"/>
+        <v>4.5605964467005074E-3</v>
       </c>
     </row>
   </sheetData>
@@ -58148,7 +59348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>

--- a/andamento_nazionale.xlsx
+++ b/andamento_nazionale.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dati PCM-DPC" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Grafici log" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$B$1:$R$145</definedName>
+    <definedName name="dpc_covid19_ita_andamento_nazionale" localSheetId="0">'dati PCM-DPC'!$B$1:$R$176</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="253">
   <si>
     <t>data</t>
   </si>
@@ -719,6 +719,99 @@
   <si>
     <t>2020-07-16T17:00:00</t>
   </si>
+  <si>
+    <t>2020-07-17T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-18T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-19T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-20T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-21T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-22T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-23T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-24T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-25T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-26T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-27T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-28T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-29T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-30T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-07-31T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-01T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-02T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-03T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-04T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-05T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-06T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-07T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-08T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-09T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-10T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-11T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-12T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-13T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-14T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-15T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-08-16T17:00:00</t>
+  </si>
 </sst>
 </file>
 
@@ -863,9 +956,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1297,16 +1390,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$145</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1738,6 +1924,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,9 +2271,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -2426,16 +2705,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$145</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="122">
                   <c:v>223905</c:v>
                 </c:pt>
@@ -2501,6 +2873,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>222079</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>222072</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>222138</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>222180</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>222212</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>222232</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>222220</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>222279</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>222294</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>222348</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>222382</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>222442</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>222473</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>222569</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>222720</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>222744</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>222815</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>222877</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>222891</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>222954</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>223044</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>223113</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>223201</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>223232</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>223440</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>223556</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>223674</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>223844</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>224058</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>224319</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>224521</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>224694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2755,9 +3220,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3189,16 +3654,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$N$2:$N$145</c:f>
+              <c:f>'dati PCM-DPC'!$N$2:$N$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="122">
                   <c:v>15801</c:v>
                 </c:pt>
@@ -3264,6 +3822,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>21657</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>21895</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>22078</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>22254</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>22412</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>22520</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>22812</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>23059</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>23296</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>23516</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>23736</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>23844</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>24015</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>24207</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>24438</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>24793</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>25017</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>25193</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>25338</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>25465</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>25759</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>26091</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>26555</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>26871</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>27126</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>27269</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>27563</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>27869</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>28177</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>28490</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>28917</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>29221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3548,9 +4199,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3982,16 +4633,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$145</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4423,6 +5167,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>196246</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>196483</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>196806</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>196949</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>197162</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>197431</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>197628</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>197842</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>198192</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>198320</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>198446</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>198593</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>198756</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>199031</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>199796</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>199974</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>200229</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>200460</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>200589</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>200766</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>200976</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>201323</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>201642</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>201947</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>202098</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>202248</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>202461</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>202697</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>202923</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>203326</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>203640</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>203786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4462,9 +5299,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -4896,16 +5733,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$145</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5337,6 +6267,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>35017</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>35028</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>35042</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>35045</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>35058</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>35073</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>35082</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>35092</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>35097</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>35102</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>35107</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>35112</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>35123</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>35129</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>35132</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>35141</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>35146</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>35154</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>35166</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>35171</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>35181</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>35187</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>35190</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>35203</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>35205</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>35209</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>35215</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>35225</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>35231</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>35234</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>35392</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>35396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5622,9 +6645,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -6056,16 +7079,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$U$2:$U$125</c:f>
+              <c:f>'dati PCM-DPC'!$U$2:$U$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="124"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -6437,6 +7553,159 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6689,9 +7958,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -7123,16 +8392,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$V$2:$V$125</c:f>
+              <c:f>'dati PCM-DPC'!$V$2:$V$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="124"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -7504,6 +8866,159 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1052</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>765</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7756,9 +9271,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -8190,16 +9705,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$W$2:$W$125</c:f>
+              <c:f>'dati PCM-DPC'!$W$2:$W$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="124"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -8571,6 +10179,159 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>52768</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>61351</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>37346</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>27218</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>48273</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>55366</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>53243</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>50096</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>52011</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>37462</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>22166</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>43219</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>50443</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>52552</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>47953</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>38259</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>23933</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>41867</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>48449</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>50432</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>50767</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>48265</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>35525</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>24253</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>43110</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>49318</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>60311</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>53334</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>51671</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>40526</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>25551</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>48170</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>56018</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>61858</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>60944</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>60383</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>43269</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>24036</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>43788</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>56451</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>58673</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>59196</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>53298</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>37637</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>26432</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>40642</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>52658</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>51188</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>46723</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>53123</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>36807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8823,9 +10584,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -9257,16 +11018,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$X$2:$X$125</c:f>
+              <c:f>'dati PCM-DPC'!$X$2:$X$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="124"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>5.1110083256244221E-2</c:v>
                 </c:pt>
@@ -9638,6 +11492,159 @@
                 </c:pt>
                 <c:pt idx="123">
                   <c:v>4.9082777440873256E-3</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.852439243044123E-3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4.6591335082739787E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.6292894408112278E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.9416029664615833E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.377524112271069E-3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.7751441504047479E-3</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4.4514532098371131E-3</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4.5182749802926301E-3</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5.1251935294431691E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9.3837408643868987E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.1930400981050001E-3</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.826100747378229E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.3575886740752018E-3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5.7556357266490103E-3</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>4.0930961659881122E-3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.1162079510703364E-3</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>7.0613796849538293E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.722908257099864E-3</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.3643625255423228E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.5605964467005074E-3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.5895956034431818E-3</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.1590179218895683E-3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6.164672765657987E-3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7.8340823815610441E-3</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2.9923451635351424E-3</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.7179934303905264E-3</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>5.0737013148513541E-3</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4.7249409382382722E-3</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5.3221342726093943E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.2922568227804371E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.6533599467731202E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4.401079510068507E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5.1590560177085937E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.2400982896310903E-3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.2188238382777632E-3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4.8854810128678601E-3</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5.5235850146756341E-3</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.6150773839241134E-3</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4.3390883347035718E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.8023595684753146E-3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.8515330731341506E-3</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>9.3249543888100552E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.5105632481519005E-3</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.2301724366979303E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>9.7987288135593219E-3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.0137296392894051E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>9.1344145239089982E-3</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.0217238415253575E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.2285170044731716E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.1840445757957946E-2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.3013828891243513E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9892,9 +11899,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -10326,16 +12333,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$P$2:$P$145</c:f>
+              <c:f>'dati PCM-DPC'!$P$2:$P$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -10767,6 +12867,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>6103492</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6154259</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6202524</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6238049</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6262302</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6305412</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6354730</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6415041</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6468375</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6520046</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6560572</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6586123</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6634293</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6690311</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6752169</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6813113</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6873496</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6916765</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6940801</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6984589</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7041040</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>7099713</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>7158909</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>7212207</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7249844</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7276276</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7316918</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>7369576</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7420764</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>7467487</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>7520610</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>7557417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11021,9 +13214,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -11455,16 +13648,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$O$2:$O$145</c:f>
+              <c:f>'dati PCM-DPC'!$O$2:$O$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -11896,6 +14182,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>243736</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>243967</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>244216</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>244434</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>244624</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>244752</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>245032</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>245338</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>245590</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>245864</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>246118</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>246286</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>246488</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>246776</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>247158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>247537</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>247832</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>248070</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>248229</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>248419</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>248803</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>249204</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>249756</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>250103</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>250566</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>250825</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>251237</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>251713</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>252235</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>252809</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>253438</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>253915</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12149,9 +14528,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -12583,16 +14962,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$D$2:$D$145</c:f>
+              <c:f>'dati PCM-DPC'!$D$2:$D$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -13024,6 +15496,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>749</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>705</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>708</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>761</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>786</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13279,9 +15844,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -13713,16 +16278,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$145</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -14154,6 +16812,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14407,9 +17158,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -14841,16 +17592,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$E$2:$E$145</c:f>
+              <c:f>'dati PCM-DPC'!$E$2:$E$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -15282,6 +18126,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15536,9 +18473,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -15970,16 +18907,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$145</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -16411,6 +19441,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16665,9 +19788,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -17099,16 +20222,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$145</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -17540,6 +20756,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>11670</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>11635</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>11561</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>11648</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>11612</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11467</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>11550</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>11642</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>11542</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>11670</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>11786</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>11796</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>11820</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>11847</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>11435</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>11665</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>11709</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>11706</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>11699</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>11680</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>11841</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>11890</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>12103</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>12139</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>12455</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>12543</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>12711</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>12959</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>13240</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>13422</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>13587</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>13890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17794,9 +21103,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -18228,16 +21537,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$145</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -18669,6 +22071,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>12473</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>12456</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>12368</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>12440</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>12404</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>12248</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>12322</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>12404</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>12301</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>12442</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>12565</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>12581</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>12609</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>12616</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>12230</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>12422</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>12457</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>12456</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>12474</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>12482</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12646</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>12694</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>12924</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>12953</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>13263</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>13368</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>13561</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>13791</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>14081</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>14249</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>14406</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>14733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18923,9 +22418,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -19357,16 +22852,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$145</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -19798,6 +23386,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-156</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-103</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-386</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20052,9 +23733,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -20486,16 +24167,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$145</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -20927,6 +24701,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21181,9 +25048,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -21615,16 +25482,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$145</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -22056,6 +26016,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>196246</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>196483</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>196806</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>196949</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>197162</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>197431</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>197628</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>197842</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>198192</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>198320</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>198446</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>198593</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>198756</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>199031</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>199796</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>199974</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>200229</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>200460</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>200589</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>200766</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>200976</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>201323</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>201642</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>201947</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>202098</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>202248</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>202461</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>202697</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>202923</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>203326</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>203640</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>203786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22310,9 +26363,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -22744,16 +26797,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$145</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -23185,6 +27331,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>35017</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>35028</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>35042</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>35045</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>35058</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>35073</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>35082</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>35092</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>35097</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>35102</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>35107</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>35112</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>35123</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>35129</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>35132</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>35141</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>35146</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>35154</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>35166</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>35171</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>35181</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>35187</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>35190</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>35203</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>35205</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>35209</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>35215</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>35225</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>35231</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>35234</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>35392</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>35396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23439,9 +27678,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -23873,16 +28112,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$M$2:$M$145</c:f>
+              <c:f>'dati PCM-DPC'!$M$2:$M$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="122">
                   <c:v>223905</c:v>
                 </c:pt>
@@ -23948,6 +28280,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>222079</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>222072</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>222138</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>222180</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>222212</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>222232</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>222220</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>222279</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>222294</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>222348</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>222382</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>222442</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>222473</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>222569</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>222720</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>222744</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>222815</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>222877</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>222891</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>222954</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>223044</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>223113</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>223201</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>223232</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>223440</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>223556</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>223674</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>223844</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>224058</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>224319</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>224521</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>224694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24202,9 +28627,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -24636,16 +29061,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$N$2:$N$145</c:f>
+              <c:f>'dati PCM-DPC'!$N$2:$N$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="122">
                   <c:v>15801</c:v>
                 </c:pt>
@@ -24711,6 +29229,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>21657</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>21895</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>22078</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>22254</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>22412</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>22520</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>22812</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>23059</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>23296</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>23516</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>23736</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>23844</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>24015</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>24207</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>24438</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>24793</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>25017</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>25193</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>25338</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>25465</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>25759</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>26091</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>26555</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>26871</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>27126</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>27269</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>27563</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>27869</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>28177</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>28490</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>28917</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>29221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24966,9 +29577,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -25400,16 +30011,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$F$2:$F$145</c:f>
+              <c:f>'dati PCM-DPC'!$F$2:$F$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>127</c:v>
                 </c:pt>
@@ -25841,6 +30545,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>781</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>772</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>779</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>748</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>805</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>821</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>825</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>827</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>843</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26095,9 +30892,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -26529,16 +31326,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$G$2:$G$145</c:f>
+              <c:f>'dati PCM-DPC'!$G$2:$G$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -26970,6 +31860,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>11670</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>11635</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>11561</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>11648</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>11612</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>11467</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>11550</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>11642</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>11542</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>11670</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>11786</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>11796</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>11820</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>11847</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>11435</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>11665</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>11709</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>11706</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>11699</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>11680</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>11841</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>11890</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>12103</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>12139</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>12455</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>12543</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>12711</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>12959</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>13240</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>13422</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>13587</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>13890</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27224,9 +32207,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -27658,16 +32641,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$H$2:$H$145</c:f>
+              <c:f>'dati PCM-DPC'!$H$2:$H$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -28099,6 +33175,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>12473</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>12456</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>12368</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>12440</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>12404</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>12248</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>12322</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>12404</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>12301</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>12442</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>12565</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>12581</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>12609</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>12616</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>12230</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>12422</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>12457</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>12456</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>12474</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>12482</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12646</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>12694</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>12924</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>12953</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>13263</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>13368</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>13561</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>13791</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>14081</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>14249</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>14406</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>14733</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28352,9 +33521,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -28786,16 +33955,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$I$2:$I$145</c:f>
+              <c:f>'dati PCM-DPC'!$I$2:$I$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -29227,6 +34489,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-156</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-103</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-386</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>327</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29479,9 +34834,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -29913,16 +35268,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$J$2:$J$145</c:f>
+              <c:f>'dati PCM-DPC'!$J$2:$J$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>221</c:v>
                 </c:pt>
@@ -30354,6 +35802,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30607,9 +36148,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -31041,16 +36582,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$K$2:$K$145</c:f>
+              <c:f>'dati PCM-DPC'!$K$2:$K$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -31482,6 +37116,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>196246</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>196483</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>196806</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>196949</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>197162</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>197431</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>197628</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>197842</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>198192</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>198320</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>198446</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>198593</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>198756</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>199031</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>199796</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>199974</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>200229</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>200460</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>200589</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>200766</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>200976</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>201323</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>201642</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>201947</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>202098</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>202248</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>202461</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>202697</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>202923</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>203326</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>203640</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>203786</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31736,9 +37463,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'dati PCM-DPC'!$B$2:$B$145</c:f>
+              <c:f>'dati PCM-DPC'!$B$2:$B$176</c:f>
               <c:strCache>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -32170,16 +37897,109 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>2020-07-16T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2020-07-17T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2020-07-18T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2020-07-19T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2020-07-20T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2020-07-21T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2020-07-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2020-07-23T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2020-07-24T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2020-07-25T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2020-07-26T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2020-07-27T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2020-07-28T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2020-07-29T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2020-07-30T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2020-07-31T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2020-08-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2020-08-02T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2020-08-03T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2020-08-04T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2020-08-05T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2020-08-06T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2020-08-07T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2020-08-08T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2020-08-09T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2020-08-10T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2020-08-11T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2020-08-12T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2020-08-13T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2020-08-14T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2020-08-15T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2020-08-16T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'dati PCM-DPC'!$L$2:$L$145</c:f>
+              <c:f>'dati PCM-DPC'!$L$2:$L$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="144"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -32611,6 +38431,99 @@
                 </c:pt>
                 <c:pt idx="143">
                   <c:v>35017</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>35028</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>35042</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>35045</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>35058</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>35073</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>35082</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>35092</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>35097</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>35102</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>35107</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>35112</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>35123</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>35129</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>35132</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>35141</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>35146</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>35154</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>35166</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>35171</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>35181</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>35187</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>35190</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>35203</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>35205</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>35209</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>35215</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>35225</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>35231</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>35234</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>35392</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>35396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -50066,10 +55979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X145"/>
+  <dimension ref="A1:X176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView topLeftCell="O2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W175" sqref="W175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50096,6 +56009,7 @@
     <col min="21" max="21" width="20.140625" customWidth="1"/>
     <col min="22" max="22" width="18.28515625" customWidth="1"/>
     <col min="23" max="23" width="19.42578125" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -58364,7 +64278,7 @@
         <v>53243</v>
       </c>
       <c r="X131">
-        <f t="shared" ref="X131:X145" si="8">J131/W131</f>
+        <f t="shared" ref="X131:X176" si="8">J131/W131</f>
         <v>3.7751441504047479E-3</v>
       </c>
     </row>
@@ -58421,15 +64335,15 @@
         <v>3348127</v>
       </c>
       <c r="U132">
-        <f t="shared" ref="U132:U145" si="9">L132-L131</f>
+        <f t="shared" ref="U132:U176" si="9">L132-L131</f>
         <v>15</v>
       </c>
       <c r="V132">
-        <f t="shared" ref="V132:V145" si="10">K132-K131</f>
+        <f t="shared" ref="V132:V176" si="10">K132-K131</f>
         <v>384</v>
       </c>
       <c r="W132">
-        <f t="shared" ref="W132:W145" si="11">P132-P131</f>
+        <f t="shared" ref="W132:W176" si="11">P132-P131</f>
         <v>50096</v>
       </c>
       <c r="X132">
@@ -59332,6 +65246,2145 @@
       <c r="X145">
         <f t="shared" si="8"/>
         <v>4.5605964467005074E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>153</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146">
+        <v>771</v>
+      </c>
+      <c r="E146">
+        <v>50</v>
+      </c>
+      <c r="F146">
+        <v>821</v>
+      </c>
+      <c r="G146">
+        <v>11635</v>
+      </c>
+      <c r="H146">
+        <v>12456</v>
+      </c>
+      <c r="I146">
+        <v>-17</v>
+      </c>
+      <c r="J146">
+        <v>233</v>
+      </c>
+      <c r="K146">
+        <v>196483</v>
+      </c>
+      <c r="L146">
+        <v>35028</v>
+      </c>
+      <c r="M146">
+        <v>222072</v>
+      </c>
+      <c r="N146">
+        <v>21895</v>
+      </c>
+      <c r="O146">
+        <v>243967</v>
+      </c>
+      <c r="P146">
+        <v>6154259</v>
+      </c>
+      <c r="Q146">
+        <v>3692257</v>
+      </c>
+      <c r="U146">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="V146">
+        <f t="shared" si="10"/>
+        <v>237</v>
+      </c>
+      <c r="W146">
+        <f t="shared" si="11"/>
+        <v>50767</v>
+      </c>
+      <c r="X146">
+        <f t="shared" si="8"/>
+        <v>4.5895956034431818E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147">
+        <v>757</v>
+      </c>
+      <c r="E147">
+        <v>50</v>
+      </c>
+      <c r="F147">
+        <v>807</v>
+      </c>
+      <c r="G147">
+        <v>11561</v>
+      </c>
+      <c r="H147">
+        <v>12368</v>
+      </c>
+      <c r="I147">
+        <v>-88</v>
+      </c>
+      <c r="J147">
+        <v>249</v>
+      </c>
+      <c r="K147">
+        <v>196806</v>
+      </c>
+      <c r="L147">
+        <v>35042</v>
+      </c>
+      <c r="M147">
+        <v>222138</v>
+      </c>
+      <c r="N147">
+        <v>22078</v>
+      </c>
+      <c r="O147">
+        <v>244216</v>
+      </c>
+      <c r="P147">
+        <v>6202524</v>
+      </c>
+      <c r="Q147">
+        <v>3719826</v>
+      </c>
+      <c r="U147">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="V147">
+        <f t="shared" si="10"/>
+        <v>323</v>
+      </c>
+      <c r="W147">
+        <f t="shared" si="11"/>
+        <v>48265</v>
+      </c>
+      <c r="X147">
+        <f t="shared" si="8"/>
+        <v>5.1590179218895683E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148">
+        <v>743</v>
+      </c>
+      <c r="E148">
+        <v>49</v>
+      </c>
+      <c r="F148">
+        <v>792</v>
+      </c>
+      <c r="G148">
+        <v>11648</v>
+      </c>
+      <c r="H148">
+        <v>12440</v>
+      </c>
+      <c r="I148">
+        <v>72</v>
+      </c>
+      <c r="J148">
+        <v>219</v>
+      </c>
+      <c r="K148">
+        <v>196949</v>
+      </c>
+      <c r="L148">
+        <v>35045</v>
+      </c>
+      <c r="M148">
+        <v>222180</v>
+      </c>
+      <c r="N148">
+        <v>22254</v>
+      </c>
+      <c r="O148">
+        <v>244434</v>
+      </c>
+      <c r="P148">
+        <v>6238049</v>
+      </c>
+      <c r="Q148">
+        <v>3740447</v>
+      </c>
+      <c r="U148">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="V148">
+        <f t="shared" si="10"/>
+        <v>143</v>
+      </c>
+      <c r="W148">
+        <f t="shared" si="11"/>
+        <v>35525</v>
+      </c>
+      <c r="X148">
+        <f t="shared" si="8"/>
+        <v>6.164672765657987E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149">
+        <v>745</v>
+      </c>
+      <c r="E149">
+        <v>47</v>
+      </c>
+      <c r="F149">
+        <v>792</v>
+      </c>
+      <c r="G149">
+        <v>11612</v>
+      </c>
+      <c r="H149">
+        <v>12404</v>
+      </c>
+      <c r="I149">
+        <v>-36</v>
+      </c>
+      <c r="J149">
+        <v>190</v>
+      </c>
+      <c r="K149">
+        <v>197162</v>
+      </c>
+      <c r="L149">
+        <v>35058</v>
+      </c>
+      <c r="M149">
+        <v>222212</v>
+      </c>
+      <c r="N149">
+        <v>22412</v>
+      </c>
+      <c r="O149">
+        <v>244624</v>
+      </c>
+      <c r="P149">
+        <v>6262302</v>
+      </c>
+      <c r="Q149">
+        <v>3754568</v>
+      </c>
+      <c r="U149">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="V149">
+        <f t="shared" si="10"/>
+        <v>213</v>
+      </c>
+      <c r="W149">
+        <f t="shared" si="11"/>
+        <v>24253</v>
+      </c>
+      <c r="X149">
+        <f t="shared" si="8"/>
+        <v>7.8340823815610441E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150">
+        <v>732</v>
+      </c>
+      <c r="E150">
+        <v>49</v>
+      </c>
+      <c r="F150">
+        <v>781</v>
+      </c>
+      <c r="G150">
+        <v>11467</v>
+      </c>
+      <c r="H150">
+        <v>12248</v>
+      </c>
+      <c r="I150">
+        <v>-156</v>
+      </c>
+      <c r="J150">
+        <v>129</v>
+      </c>
+      <c r="K150">
+        <v>197431</v>
+      </c>
+      <c r="L150">
+        <v>35073</v>
+      </c>
+      <c r="M150">
+        <v>222232</v>
+      </c>
+      <c r="N150">
+        <v>22520</v>
+      </c>
+      <c r="O150">
+        <v>244752</v>
+      </c>
+      <c r="P150">
+        <v>6305412</v>
+      </c>
+      <c r="Q150">
+        <v>3778483</v>
+      </c>
+      <c r="U150">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="V150">
+        <f t="shared" si="10"/>
+        <v>269</v>
+      </c>
+      <c r="W150">
+        <f t="shared" si="11"/>
+        <v>43110</v>
+      </c>
+      <c r="X150">
+        <f t="shared" si="8"/>
+        <v>2.9923451635351424E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151">
+        <v>724</v>
+      </c>
+      <c r="E151">
+        <v>48</v>
+      </c>
+      <c r="F151">
+        <v>772</v>
+      </c>
+      <c r="G151">
+        <v>11550</v>
+      </c>
+      <c r="H151">
+        <v>12322</v>
+      </c>
+      <c r="I151">
+        <v>74</v>
+      </c>
+      <c r="J151">
+        <v>282</v>
+      </c>
+      <c r="K151">
+        <v>197628</v>
+      </c>
+      <c r="L151">
+        <v>35082</v>
+      </c>
+      <c r="M151">
+        <v>222220</v>
+      </c>
+      <c r="N151">
+        <v>22812</v>
+      </c>
+      <c r="O151">
+        <v>245032</v>
+      </c>
+      <c r="P151">
+        <v>6354730</v>
+      </c>
+      <c r="Q151">
+        <v>3807771</v>
+      </c>
+      <c r="U151">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="V151">
+        <f t="shared" si="10"/>
+        <v>197</v>
+      </c>
+      <c r="W151">
+        <f t="shared" si="11"/>
+        <v>49318</v>
+      </c>
+      <c r="X151">
+        <f t="shared" si="8"/>
+        <v>5.7179934303905264E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152">
+        <v>713</v>
+      </c>
+      <c r="E152">
+        <v>49</v>
+      </c>
+      <c r="F152">
+        <v>762</v>
+      </c>
+      <c r="G152">
+        <v>11642</v>
+      </c>
+      <c r="H152">
+        <v>12404</v>
+      </c>
+      <c r="I152">
+        <v>82</v>
+      </c>
+      <c r="J152">
+        <v>306</v>
+      </c>
+      <c r="K152">
+        <v>197842</v>
+      </c>
+      <c r="L152">
+        <v>35092</v>
+      </c>
+      <c r="M152">
+        <v>222279</v>
+      </c>
+      <c r="N152">
+        <v>23059</v>
+      </c>
+      <c r="O152">
+        <v>245338</v>
+      </c>
+      <c r="P152">
+        <v>6415041</v>
+      </c>
+      <c r="Q152">
+        <v>3840789</v>
+      </c>
+      <c r="U152">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="V152">
+        <f t="shared" si="10"/>
+        <v>214</v>
+      </c>
+      <c r="W152">
+        <f t="shared" si="11"/>
+        <v>60311</v>
+      </c>
+      <c r="X152">
+        <f t="shared" si="8"/>
+        <v>5.0737013148513541E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153">
+        <v>713</v>
+      </c>
+      <c r="E153">
+        <v>46</v>
+      </c>
+      <c r="F153">
+        <v>759</v>
+      </c>
+      <c r="G153">
+        <v>11542</v>
+      </c>
+      <c r="H153">
+        <v>12301</v>
+      </c>
+      <c r="I153">
+        <v>-103</v>
+      </c>
+      <c r="J153">
+        <v>252</v>
+      </c>
+      <c r="K153">
+        <v>198192</v>
+      </c>
+      <c r="L153">
+        <v>35097</v>
+      </c>
+      <c r="M153">
+        <v>222294</v>
+      </c>
+      <c r="N153">
+        <v>23296</v>
+      </c>
+      <c r="O153">
+        <v>245590</v>
+      </c>
+      <c r="P153">
+        <v>6468375</v>
+      </c>
+      <c r="Q153">
+        <v>3869759</v>
+      </c>
+      <c r="U153">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V153">
+        <f t="shared" si="10"/>
+        <v>350</v>
+      </c>
+      <c r="W153">
+        <f t="shared" si="11"/>
+        <v>53334</v>
+      </c>
+      <c r="X153">
+        <f t="shared" si="8"/>
+        <v>4.7249409382382722E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>147</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154">
+        <v>731</v>
+      </c>
+      <c r="E154">
+        <v>41</v>
+      </c>
+      <c r="F154">
+        <v>772</v>
+      </c>
+      <c r="G154">
+        <v>11670</v>
+      </c>
+      <c r="H154">
+        <v>12442</v>
+      </c>
+      <c r="I154">
+        <v>141</v>
+      </c>
+      <c r="J154">
+        <v>275</v>
+      </c>
+      <c r="K154">
+        <v>198320</v>
+      </c>
+      <c r="L154">
+        <v>35102</v>
+      </c>
+      <c r="M154">
+        <v>222348</v>
+      </c>
+      <c r="N154">
+        <v>23516</v>
+      </c>
+      <c r="O154">
+        <v>245864</v>
+      </c>
+      <c r="P154">
+        <v>6520046</v>
+      </c>
+      <c r="Q154">
+        <v>3897818</v>
+      </c>
+      <c r="U154">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V154">
+        <f t="shared" si="10"/>
+        <v>128</v>
+      </c>
+      <c r="W154">
+        <f t="shared" si="11"/>
+        <v>51671</v>
+      </c>
+      <c r="X154">
+        <f t="shared" si="8"/>
+        <v>5.3221342726093943E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>148</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155">
+        <v>735</v>
+      </c>
+      <c r="E155">
+        <v>44</v>
+      </c>
+      <c r="F155">
+        <v>779</v>
+      </c>
+      <c r="G155">
+        <v>11786</v>
+      </c>
+      <c r="H155">
+        <v>12565</v>
+      </c>
+      <c r="I155">
+        <v>123</v>
+      </c>
+      <c r="J155">
+        <v>255</v>
+      </c>
+      <c r="K155">
+        <v>198446</v>
+      </c>
+      <c r="L155">
+        <v>35107</v>
+      </c>
+      <c r="M155">
+        <v>222382</v>
+      </c>
+      <c r="N155">
+        <v>23736</v>
+      </c>
+      <c r="O155">
+        <v>246118</v>
+      </c>
+      <c r="P155">
+        <v>6560572</v>
+      </c>
+      <c r="Q155">
+        <v>3922995</v>
+      </c>
+      <c r="U155">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V155">
+        <f t="shared" si="10"/>
+        <v>126</v>
+      </c>
+      <c r="W155">
+        <f t="shared" si="11"/>
+        <v>40526</v>
+      </c>
+      <c r="X155">
+        <f t="shared" si="8"/>
+        <v>6.2922568227804371E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>149</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156">
+        <v>740</v>
+      </c>
+      <c r="E156">
+        <v>45</v>
+      </c>
+      <c r="F156">
+        <v>785</v>
+      </c>
+      <c r="G156">
+        <v>11796</v>
+      </c>
+      <c r="H156">
+        <v>12581</v>
+      </c>
+      <c r="I156">
+        <v>16</v>
+      </c>
+      <c r="J156">
+        <v>170</v>
+      </c>
+      <c r="K156">
+        <v>198593</v>
+      </c>
+      <c r="L156">
+        <v>35112</v>
+      </c>
+      <c r="M156">
+        <v>222442</v>
+      </c>
+      <c r="N156">
+        <v>23844</v>
+      </c>
+      <c r="O156">
+        <v>246286</v>
+      </c>
+      <c r="P156">
+        <v>6586123</v>
+      </c>
+      <c r="Q156">
+        <v>3942369</v>
+      </c>
+      <c r="U156">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V156">
+        <f t="shared" si="10"/>
+        <v>147</v>
+      </c>
+      <c r="W156">
+        <f t="shared" si="11"/>
+        <v>25551</v>
+      </c>
+      <c r="X156">
+        <f t="shared" si="8"/>
+        <v>6.6533599467731202E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>150</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157">
+        <v>749</v>
+      </c>
+      <c r="E157">
+        <v>40</v>
+      </c>
+      <c r="F157">
+        <v>789</v>
+      </c>
+      <c r="G157">
+        <v>11820</v>
+      </c>
+      <c r="H157">
+        <v>12609</v>
+      </c>
+      <c r="I157">
+        <v>28</v>
+      </c>
+      <c r="J157">
+        <v>212</v>
+      </c>
+      <c r="K157">
+        <v>198756</v>
+      </c>
+      <c r="L157">
+        <v>35123</v>
+      </c>
+      <c r="M157">
+        <v>222473</v>
+      </c>
+      <c r="N157">
+        <v>24015</v>
+      </c>
+      <c r="O157">
+        <v>246488</v>
+      </c>
+      <c r="P157">
+        <v>6634293</v>
+      </c>
+      <c r="Q157">
+        <v>3967710</v>
+      </c>
+      <c r="U157">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="V157">
+        <f t="shared" si="10"/>
+        <v>163</v>
+      </c>
+      <c r="W157">
+        <f t="shared" si="11"/>
+        <v>48170</v>
+      </c>
+      <c r="X157">
+        <f t="shared" si="8"/>
+        <v>4.401079510068507E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158">
+        <v>731</v>
+      </c>
+      <c r="E158">
+        <v>38</v>
+      </c>
+      <c r="F158">
+        <v>769</v>
+      </c>
+      <c r="G158">
+        <v>11847</v>
+      </c>
+      <c r="H158">
+        <v>12616</v>
+      </c>
+      <c r="I158">
+        <v>7</v>
+      </c>
+      <c r="J158">
+        <v>289</v>
+      </c>
+      <c r="K158">
+        <v>199031</v>
+      </c>
+      <c r="L158">
+        <v>35129</v>
+      </c>
+      <c r="M158">
+        <v>222569</v>
+      </c>
+      <c r="N158">
+        <v>24207</v>
+      </c>
+      <c r="O158">
+        <v>246776</v>
+      </c>
+      <c r="P158">
+        <v>6690311</v>
+      </c>
+      <c r="Q158">
+        <v>3998585</v>
+      </c>
+      <c r="U158">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="V158">
+        <f t="shared" si="10"/>
+        <v>275</v>
+      </c>
+      <c r="W158">
+        <f t="shared" si="11"/>
+        <v>56018</v>
+      </c>
+      <c r="X158">
+        <f t="shared" si="8"/>
+        <v>5.1590560177085937E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>152</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159">
+        <v>748</v>
+      </c>
+      <c r="E159">
+        <v>47</v>
+      </c>
+      <c r="F159">
+        <v>795</v>
+      </c>
+      <c r="G159">
+        <v>11435</v>
+      </c>
+      <c r="H159">
+        <v>12230</v>
+      </c>
+      <c r="I159">
+        <v>-386</v>
+      </c>
+      <c r="J159">
+        <v>386</v>
+      </c>
+      <c r="K159">
+        <v>199796</v>
+      </c>
+      <c r="L159">
+        <v>35132</v>
+      </c>
+      <c r="M159">
+        <v>222720</v>
+      </c>
+      <c r="N159">
+        <v>24438</v>
+      </c>
+      <c r="O159">
+        <v>247158</v>
+      </c>
+      <c r="P159">
+        <v>6752169</v>
+      </c>
+      <c r="Q159">
+        <v>4031981</v>
+      </c>
+      <c r="U159">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="V159">
+        <f t="shared" si="10"/>
+        <v>765</v>
+      </c>
+      <c r="W159">
+        <f t="shared" si="11"/>
+        <v>61858</v>
+      </c>
+      <c r="X159">
+        <f t="shared" si="8"/>
+        <v>6.2400982896310903E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>153</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160">
+        <v>716</v>
+      </c>
+      <c r="E160">
+        <v>41</v>
+      </c>
+      <c r="F160">
+        <v>757</v>
+      </c>
+      <c r="G160">
+        <v>11665</v>
+      </c>
+      <c r="H160">
+        <v>12422</v>
+      </c>
+      <c r="I160">
+        <v>192</v>
+      </c>
+      <c r="J160">
+        <v>379</v>
+      </c>
+      <c r="K160">
+        <v>199974</v>
+      </c>
+      <c r="L160">
+        <v>35141</v>
+      </c>
+      <c r="M160">
+        <v>222744</v>
+      </c>
+      <c r="N160">
+        <v>24793</v>
+      </c>
+      <c r="O160">
+        <v>247537</v>
+      </c>
+      <c r="P160">
+        <v>6813113</v>
+      </c>
+      <c r="Q160">
+        <v>4061667</v>
+      </c>
+      <c r="U160">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="V160">
+        <f t="shared" si="10"/>
+        <v>178</v>
+      </c>
+      <c r="W160">
+        <f t="shared" si="11"/>
+        <v>60944</v>
+      </c>
+      <c r="X160">
+        <f t="shared" si="8"/>
+        <v>6.2188238382777632E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>147</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161">
+        <v>705</v>
+      </c>
+      <c r="E161">
+        <v>43</v>
+      </c>
+      <c r="F161">
+        <v>748</v>
+      </c>
+      <c r="G161">
+        <v>11709</v>
+      </c>
+      <c r="H161">
+        <v>12457</v>
+      </c>
+      <c r="I161">
+        <v>35</v>
+      </c>
+      <c r="J161">
+        <v>295</v>
+      </c>
+      <c r="K161">
+        <v>200229</v>
+      </c>
+      <c r="L161">
+        <v>35146</v>
+      </c>
+      <c r="M161">
+        <v>222815</v>
+      </c>
+      <c r="N161">
+        <v>25017</v>
+      </c>
+      <c r="O161">
+        <v>247832</v>
+      </c>
+      <c r="P161">
+        <v>6873496</v>
+      </c>
+      <c r="Q161">
+        <v>4093572</v>
+      </c>
+      <c r="U161">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V161">
+        <f t="shared" si="10"/>
+        <v>255</v>
+      </c>
+      <c r="W161">
+        <f t="shared" si="11"/>
+        <v>60383</v>
+      </c>
+      <c r="X161">
+        <f t="shared" si="8"/>
+        <v>4.8854810128678601E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>148</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162">
+        <v>708</v>
+      </c>
+      <c r="E162">
+        <v>42</v>
+      </c>
+      <c r="F162">
+        <v>750</v>
+      </c>
+      <c r="G162">
+        <v>11706</v>
+      </c>
+      <c r="H162">
+        <v>12456</v>
+      </c>
+      <c r="I162">
+        <v>-1</v>
+      </c>
+      <c r="J162">
+        <v>239</v>
+      </c>
+      <c r="K162">
+        <v>200460</v>
+      </c>
+      <c r="L162">
+        <v>35154</v>
+      </c>
+      <c r="M162">
+        <v>222877</v>
+      </c>
+      <c r="N162">
+        <v>25193</v>
+      </c>
+      <c r="O162">
+        <v>248070</v>
+      </c>
+      <c r="P162">
+        <v>6916765</v>
+      </c>
+      <c r="Q162">
+        <v>4118068</v>
+      </c>
+      <c r="U162">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="V162">
+        <f t="shared" si="10"/>
+        <v>231</v>
+      </c>
+      <c r="W162">
+        <f t="shared" si="11"/>
+        <v>43269</v>
+      </c>
+      <c r="X162">
+        <f t="shared" si="8"/>
+        <v>5.5235850146756341E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>149</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163">
+        <v>734</v>
+      </c>
+      <c r="E163">
+        <v>41</v>
+      </c>
+      <c r="F163">
+        <v>775</v>
+      </c>
+      <c r="G163">
+        <v>11699</v>
+      </c>
+      <c r="H163">
+        <v>12474</v>
+      </c>
+      <c r="I163">
+        <v>18</v>
+      </c>
+      <c r="J163">
+        <v>159</v>
+      </c>
+      <c r="K163">
+        <v>200589</v>
+      </c>
+      <c r="L163">
+        <v>35166</v>
+      </c>
+      <c r="M163">
+        <v>222891</v>
+      </c>
+      <c r="N163">
+        <v>25338</v>
+      </c>
+      <c r="O163">
+        <v>248229</v>
+      </c>
+      <c r="P163">
+        <v>6940801</v>
+      </c>
+      <c r="Q163">
+        <v>4131535</v>
+      </c>
+      <c r="U163">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="V163">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+      <c r="W163">
+        <f t="shared" si="11"/>
+        <v>24036</v>
+      </c>
+      <c r="X163">
+        <f t="shared" si="8"/>
+        <v>6.6150773839241134E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>150</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164">
+        <v>761</v>
+      </c>
+      <c r="E164">
+        <v>41</v>
+      </c>
+      <c r="F164">
+        <v>802</v>
+      </c>
+      <c r="G164">
+        <v>11680</v>
+      </c>
+      <c r="H164">
+        <v>12482</v>
+      </c>
+      <c r="I164">
+        <v>8</v>
+      </c>
+      <c r="J164">
+        <v>190</v>
+      </c>
+      <c r="K164">
+        <v>200766</v>
+      </c>
+      <c r="L164">
+        <v>35171</v>
+      </c>
+      <c r="M164">
+        <v>222954</v>
+      </c>
+      <c r="N164">
+        <v>25465</v>
+      </c>
+      <c r="O164">
+        <v>248419</v>
+      </c>
+      <c r="P164">
+        <v>6984589</v>
+      </c>
+      <c r="Q164">
+        <v>4155026</v>
+      </c>
+      <c r="U164">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="V164">
+        <f t="shared" si="10"/>
+        <v>177</v>
+      </c>
+      <c r="W164">
+        <f t="shared" si="11"/>
+        <v>43788</v>
+      </c>
+      <c r="X164">
+        <f t="shared" si="8"/>
+        <v>4.3390883347035718E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>151</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165">
+        <v>764</v>
+      </c>
+      <c r="E165">
+        <v>41</v>
+      </c>
+      <c r="F165">
+        <v>805</v>
+      </c>
+      <c r="G165">
+        <v>11841</v>
+      </c>
+      <c r="H165">
+        <v>12646</v>
+      </c>
+      <c r="I165">
+        <v>164</v>
+      </c>
+      <c r="J165">
+        <v>384</v>
+      </c>
+      <c r="K165">
+        <v>200976</v>
+      </c>
+      <c r="L165">
+        <v>35181</v>
+      </c>
+      <c r="M165">
+        <v>223044</v>
+      </c>
+      <c r="N165">
+        <v>25759</v>
+      </c>
+      <c r="O165">
+        <v>248803</v>
+      </c>
+      <c r="P165">
+        <v>7041040</v>
+      </c>
+      <c r="Q165">
+        <v>4184765</v>
+      </c>
+      <c r="U165">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="V165">
+        <f t="shared" si="10"/>
+        <v>210</v>
+      </c>
+      <c r="W165">
+        <f t="shared" si="11"/>
+        <v>56451</v>
+      </c>
+      <c r="X165">
+        <f t="shared" si="8"/>
+        <v>6.8023595684753146E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>152</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166">
+        <v>762</v>
+      </c>
+      <c r="E166">
+        <v>42</v>
+      </c>
+      <c r="F166">
+        <v>804</v>
+      </c>
+      <c r="G166">
+        <v>11890</v>
+      </c>
+      <c r="H166">
+        <v>12694</v>
+      </c>
+      <c r="I166">
+        <v>48</v>
+      </c>
+      <c r="J166">
+        <v>402</v>
+      </c>
+      <c r="K166">
+        <v>201323</v>
+      </c>
+      <c r="L166">
+        <v>35187</v>
+      </c>
+      <c r="M166">
+        <v>223113</v>
+      </c>
+      <c r="N166">
+        <v>26091</v>
+      </c>
+      <c r="O166">
+        <v>249204</v>
+      </c>
+      <c r="P166">
+        <v>7099713</v>
+      </c>
+      <c r="Q166">
+        <v>4216934</v>
+      </c>
+      <c r="U166">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="V166">
+        <f t="shared" si="10"/>
+        <v>347</v>
+      </c>
+      <c r="W166">
+        <f t="shared" si="11"/>
+        <v>58673</v>
+      </c>
+      <c r="X166">
+        <f t="shared" si="8"/>
+        <v>6.8515330731341506E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>153</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167">
+        <v>779</v>
+      </c>
+      <c r="E167">
+        <v>42</v>
+      </c>
+      <c r="F167">
+        <v>821</v>
+      </c>
+      <c r="G167">
+        <v>12103</v>
+      </c>
+      <c r="H167">
+        <v>12924</v>
+      </c>
+      <c r="I167">
+        <v>230</v>
+      </c>
+      <c r="J167">
+        <v>552</v>
+      </c>
+      <c r="K167">
+        <v>201642</v>
+      </c>
+      <c r="L167">
+        <v>35190</v>
+      </c>
+      <c r="M167">
+        <v>223201</v>
+      </c>
+      <c r="N167">
+        <v>26555</v>
+      </c>
+      <c r="O167">
+        <v>249756</v>
+      </c>
+      <c r="P167">
+        <v>7158909</v>
+      </c>
+      <c r="Q167">
+        <v>4247326</v>
+      </c>
+      <c r="U167">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="V167">
+        <f t="shared" si="10"/>
+        <v>319</v>
+      </c>
+      <c r="W167">
+        <f t="shared" si="11"/>
+        <v>59196</v>
+      </c>
+      <c r="X167">
+        <f t="shared" si="8"/>
+        <v>9.3249543888100552E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>147</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C168" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168">
+        <v>771</v>
+      </c>
+      <c r="E168">
+        <v>43</v>
+      </c>
+      <c r="F168">
+        <v>814</v>
+      </c>
+      <c r="G168">
+        <v>12139</v>
+      </c>
+      <c r="H168">
+        <v>12953</v>
+      </c>
+      <c r="I168">
+        <v>29</v>
+      </c>
+      <c r="J168">
+        <v>347</v>
+      </c>
+      <c r="K168">
+        <v>201947</v>
+      </c>
+      <c r="L168">
+        <v>35203</v>
+      </c>
+      <c r="M168">
+        <v>223232</v>
+      </c>
+      <c r="N168">
+        <v>26871</v>
+      </c>
+      <c r="O168">
+        <v>250103</v>
+      </c>
+      <c r="P168">
+        <v>7212207</v>
+      </c>
+      <c r="Q168">
+        <v>4273957</v>
+      </c>
+      <c r="U168">
+        <f t="shared" si="9"/>
+        <v>13</v>
+      </c>
+      <c r="V168">
+        <f t="shared" si="10"/>
+        <v>305</v>
+      </c>
+      <c r="W168">
+        <f t="shared" si="11"/>
+        <v>53298</v>
+      </c>
+      <c r="X168">
+        <f t="shared" si="8"/>
+        <v>6.5105632481519005E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>148</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169">
+        <v>763</v>
+      </c>
+      <c r="E169">
+        <v>45</v>
+      </c>
+      <c r="F169">
+        <v>808</v>
+      </c>
+      <c r="G169">
+        <v>12455</v>
+      </c>
+      <c r="H169">
+        <v>13263</v>
+      </c>
+      <c r="I169">
+        <v>310</v>
+      </c>
+      <c r="J169">
+        <v>463</v>
+      </c>
+      <c r="K169">
+        <v>202098</v>
+      </c>
+      <c r="L169">
+        <v>35205</v>
+      </c>
+      <c r="M169">
+        <v>223440</v>
+      </c>
+      <c r="N169">
+        <v>27126</v>
+      </c>
+      <c r="O169">
+        <v>250566</v>
+      </c>
+      <c r="P169">
+        <v>7249844</v>
+      </c>
+      <c r="Q169">
+        <v>4296730</v>
+      </c>
+      <c r="U169">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="V169">
+        <f t="shared" si="10"/>
+        <v>151</v>
+      </c>
+      <c r="W169">
+        <f t="shared" si="11"/>
+        <v>37637</v>
+      </c>
+      <c r="X169">
+        <f t="shared" si="8"/>
+        <v>1.2301724366979303E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>149</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C170" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170">
+        <v>779</v>
+      </c>
+      <c r="E170">
+        <v>46</v>
+      </c>
+      <c r="F170">
+        <v>825</v>
+      </c>
+      <c r="G170">
+        <v>12543</v>
+      </c>
+      <c r="H170">
+        <v>13368</v>
+      </c>
+      <c r="I170">
+        <v>105</v>
+      </c>
+      <c r="J170">
+        <v>259</v>
+      </c>
+      <c r="K170">
+        <v>202248</v>
+      </c>
+      <c r="L170">
+        <v>35209</v>
+      </c>
+      <c r="M170">
+        <v>223556</v>
+      </c>
+      <c r="N170">
+        <v>27269</v>
+      </c>
+      <c r="O170">
+        <v>250825</v>
+      </c>
+      <c r="P170">
+        <v>7276276</v>
+      </c>
+      <c r="Q170">
+        <v>4307634</v>
+      </c>
+      <c r="U170">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="V170">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="W170">
+        <f t="shared" si="11"/>
+        <v>26432</v>
+      </c>
+      <c r="X170">
+        <f t="shared" si="8"/>
+        <v>9.7987288135593219E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>150</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171">
+        <v>801</v>
+      </c>
+      <c r="E171">
+        <v>49</v>
+      </c>
+      <c r="F171">
+        <v>850</v>
+      </c>
+      <c r="G171">
+        <v>12711</v>
+      </c>
+      <c r="H171">
+        <v>13561</v>
+      </c>
+      <c r="I171">
+        <v>193</v>
+      </c>
+      <c r="J171">
+        <v>412</v>
+      </c>
+      <c r="K171">
+        <v>202461</v>
+      </c>
+      <c r="L171">
+        <v>35215</v>
+      </c>
+      <c r="M171">
+        <v>223674</v>
+      </c>
+      <c r="N171">
+        <v>27563</v>
+      </c>
+      <c r="O171">
+        <v>251237</v>
+      </c>
+      <c r="P171">
+        <v>7316918</v>
+      </c>
+      <c r="Q171">
+        <v>4329697</v>
+      </c>
+      <c r="U171">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="V171">
+        <f t="shared" si="10"/>
+        <v>213</v>
+      </c>
+      <c r="W171">
+        <f t="shared" si="11"/>
+        <v>40642</v>
+      </c>
+      <c r="X171">
+        <f t="shared" si="8"/>
+        <v>1.0137296392894051E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>151</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C172" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172">
+        <v>779</v>
+      </c>
+      <c r="E172">
+        <v>53</v>
+      </c>
+      <c r="F172">
+        <v>832</v>
+      </c>
+      <c r="G172">
+        <v>12959</v>
+      </c>
+      <c r="H172">
+        <v>13791</v>
+      </c>
+      <c r="I172">
+        <v>230</v>
+      </c>
+      <c r="J172">
+        <v>481</v>
+      </c>
+      <c r="K172">
+        <v>202697</v>
+      </c>
+      <c r="L172">
+        <v>35225</v>
+      </c>
+      <c r="M172">
+        <v>223844</v>
+      </c>
+      <c r="N172">
+        <v>27869</v>
+      </c>
+      <c r="O172">
+        <v>251713</v>
+      </c>
+      <c r="P172">
+        <v>7369576</v>
+      </c>
+      <c r="Q172">
+        <v>4357027</v>
+      </c>
+      <c r="U172">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="V172">
+        <f t="shared" si="10"/>
+        <v>236</v>
+      </c>
+      <c r="W172">
+        <f t="shared" si="11"/>
+        <v>52658</v>
+      </c>
+      <c r="X172">
+        <f t="shared" si="8"/>
+        <v>9.1344145239089982E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>152</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C173" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173">
+        <v>786</v>
+      </c>
+      <c r="E173">
+        <v>55</v>
+      </c>
+      <c r="F173">
+        <v>841</v>
+      </c>
+      <c r="G173">
+        <v>13240</v>
+      </c>
+      <c r="H173">
+        <v>14081</v>
+      </c>
+      <c r="I173">
+        <v>290</v>
+      </c>
+      <c r="J173">
+        <v>523</v>
+      </c>
+      <c r="K173">
+        <v>202923</v>
+      </c>
+      <c r="L173">
+        <v>35231</v>
+      </c>
+      <c r="M173">
+        <v>224058</v>
+      </c>
+      <c r="N173">
+        <v>28177</v>
+      </c>
+      <c r="O173">
+        <v>252235</v>
+      </c>
+      <c r="P173">
+        <v>7420764</v>
+      </c>
+      <c r="Q173">
+        <v>4382656</v>
+      </c>
+      <c r="U173">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="V173">
+        <f t="shared" si="10"/>
+        <v>226</v>
+      </c>
+      <c r="W173">
+        <f t="shared" si="11"/>
+        <v>51188</v>
+      </c>
+      <c r="X173">
+        <f t="shared" si="8"/>
+        <v>1.0217238415253575E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>153</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C174" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174">
+        <v>771</v>
+      </c>
+      <c r="E174">
+        <v>56</v>
+      </c>
+      <c r="F174">
+        <v>827</v>
+      </c>
+      <c r="G174">
+        <v>13422</v>
+      </c>
+      <c r="H174">
+        <v>14249</v>
+      </c>
+      <c r="I174">
+        <v>168</v>
+      </c>
+      <c r="J174">
+        <v>574</v>
+      </c>
+      <c r="K174">
+        <v>203326</v>
+      </c>
+      <c r="L174">
+        <v>35234</v>
+      </c>
+      <c r="M174">
+        <v>224319</v>
+      </c>
+      <c r="N174">
+        <v>28490</v>
+      </c>
+      <c r="O174">
+        <v>252809</v>
+      </c>
+      <c r="P174">
+        <v>7467487</v>
+      </c>
+      <c r="Q174">
+        <v>4407524</v>
+      </c>
+      <c r="U174">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="V174">
+        <f t="shared" si="10"/>
+        <v>403</v>
+      </c>
+      <c r="W174">
+        <f t="shared" si="11"/>
+        <v>46723</v>
+      </c>
+      <c r="X174">
+        <f t="shared" si="8"/>
+        <v>1.2285170044731716E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>147</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175">
+        <v>764</v>
+      </c>
+      <c r="E175">
+        <v>55</v>
+      </c>
+      <c r="F175">
+        <v>819</v>
+      </c>
+      <c r="G175">
+        <v>13587</v>
+      </c>
+      <c r="H175">
+        <v>14406</v>
+      </c>
+      <c r="I175">
+        <v>157</v>
+      </c>
+      <c r="J175">
+        <v>629</v>
+      </c>
+      <c r="K175">
+        <v>203640</v>
+      </c>
+      <c r="L175">
+        <v>35392</v>
+      </c>
+      <c r="M175">
+        <v>224521</v>
+      </c>
+      <c r="N175">
+        <v>28917</v>
+      </c>
+      <c r="O175">
+        <v>253438</v>
+      </c>
+      <c r="P175">
+        <v>7520610</v>
+      </c>
+      <c r="Q175">
+        <v>4433461</v>
+      </c>
+      <c r="U175">
+        <f t="shared" si="9"/>
+        <v>158</v>
+      </c>
+      <c r="V175">
+        <f t="shared" si="10"/>
+        <v>314</v>
+      </c>
+      <c r="W175">
+        <f t="shared" si="11"/>
+        <v>53123</v>
+      </c>
+      <c r="X175">
+        <f t="shared" si="8"/>
+        <v>1.1840445757957946E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>148</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C176" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176">
+        <v>787</v>
+      </c>
+      <c r="E176">
+        <v>56</v>
+      </c>
+      <c r="F176">
+        <v>843</v>
+      </c>
+      <c r="G176">
+        <v>13890</v>
+      </c>
+      <c r="H176">
+        <v>14733</v>
+      </c>
+      <c r="I176">
+        <v>327</v>
+      </c>
+      <c r="J176">
+        <v>479</v>
+      </c>
+      <c r="K176">
+        <v>203786</v>
+      </c>
+      <c r="L176">
+        <v>35396</v>
+      </c>
+      <c r="M176">
+        <v>224694</v>
+      </c>
+      <c r="N176">
+        <v>29221</v>
+      </c>
+      <c r="O176">
+        <v>253915</v>
+      </c>
+      <c r="P176">
+        <v>7557417</v>
+      </c>
+      <c r="Q176">
+        <v>4455931</v>
+      </c>
+      <c r="U176">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="V176">
+        <f t="shared" si="10"/>
+        <v>146</v>
+      </c>
+      <c r="W176">
+        <f t="shared" si="11"/>
+        <v>36807</v>
+      </c>
+      <c r="X176">
+        <f t="shared" si="8"/>
+        <v>1.3013828891243513E-2</v>
       </c>
     </row>
   </sheetData>
@@ -59348,8 +67401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N72" sqref="N72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
